--- a/output/Actor_01/output_data.xlsx
+++ b/output/Actor_01/output_data.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MCA\4th sem\SER3\output\Actor_01\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D4B6DE-600A-46FA-8810-60641C120104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -502,8 +508,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -566,13 +572,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -610,7 +624,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -644,6 +658,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -678,9 +693,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -853,14 +869,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="34.21875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -907,7 +926,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -918,43 +937,43 @@
         <v>126.3021240234375</v>
       </c>
       <c r="D2">
-        <v>14.45131015777588</v>
+        <v>14.451310157775881</v>
       </c>
       <c r="E2">
-        <v>-6.471933841705322</v>
+        <v>-6.4719338417053223</v>
       </c>
       <c r="F2">
-        <v>9.240935325622559</v>
+        <v>9.2409353256225586</v>
       </c>
       <c r="G2">
-        <v>8.379932403564453</v>
+        <v>8.3799324035644531</v>
       </c>
       <c r="H2">
-        <v>3.551738500595093</v>
+        <v>3.5517385005950932</v>
       </c>
       <c r="I2">
         <v>-1.289262533187866</v>
       </c>
       <c r="J2">
-        <v>-6.631359100341797</v>
+        <v>-6.6313591003417969</v>
       </c>
       <c r="K2">
-        <v>-7.489091873168945</v>
+        <v>-7.4890918731689453</v>
       </c>
       <c r="L2">
-        <v>-4.460887432098389</v>
+        <v>-4.4608874320983887</v>
       </c>
       <c r="M2">
         <v>-1.314007163047791</v>
       </c>
       <c r="N2">
-        <v>-1.068361401557922</v>
+        <v>-1.0683614015579219</v>
       </c>
       <c r="O2" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -974,25 +993,25 @@
         <v>15.17212009429932</v>
       </c>
       <c r="G3">
-        <v>13.26183795928955</v>
+        <v>13.261837959289551</v>
       </c>
       <c r="H3">
         <v>3.14013671875</v>
       </c>
       <c r="I3">
-        <v>0.5858916044235229</v>
+        <v>0.58589160442352295</v>
       </c>
       <c r="J3">
         <v>-1.193271279335022</v>
       </c>
       <c r="K3">
-        <v>-4.657778739929199</v>
+        <v>-4.6577787399291992</v>
       </c>
       <c r="L3">
-        <v>-4.00888204574585</v>
+        <v>-4.0088820457458496</v>
       </c>
       <c r="M3">
-        <v>-0.3736620545387268</v>
+        <v>-0.37366205453872681</v>
       </c>
       <c r="N3">
         <v>0.571491539478302</v>
@@ -1001,101 +1020,101 @@
         <v>154</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>17</v>
       </c>
       <c r="B4">
-        <v>-749.8007202148438</v>
+        <v>-749.80072021484375</v>
       </c>
       <c r="C4">
-        <v>91.80998229980469</v>
+        <v>91.809982299804688</v>
       </c>
       <c r="D4">
         <v>13.06817626953125</v>
       </c>
       <c r="E4">
-        <v>-4.501212596893311</v>
+        <v>-4.5012125968933114</v>
       </c>
       <c r="F4">
-        <v>9.396896362304688</v>
+        <v>9.3968963623046875</v>
       </c>
       <c r="G4">
-        <v>8.222165107727051</v>
+        <v>8.2221651077270508</v>
       </c>
       <c r="H4">
         <v>1.010908246040344</v>
       </c>
       <c r="I4">
-        <v>-0.6637430191040039</v>
+        <v>-0.66374301910400391</v>
       </c>
       <c r="J4">
-        <v>-2.487349510192871</v>
+        <v>-2.4873495101928711</v>
       </c>
       <c r="K4">
-        <v>-5.517488479614258</v>
+        <v>-5.5174884796142578</v>
       </c>
       <c r="L4">
-        <v>-5.89515495300293</v>
+        <v>-5.8951549530029297</v>
       </c>
       <c r="M4">
         <v>-3.114599466323853</v>
       </c>
       <c r="N4">
-        <v>-0.8592998385429382</v>
+        <v>-0.85929983854293823</v>
       </c>
       <c r="O4" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>18</v>
       </c>
       <c r="B5">
-        <v>-731.8335571289062</v>
+        <v>-731.83355712890625</v>
       </c>
       <c r="C5">
-        <v>100.7102661132812</v>
+        <v>100.71026611328119</v>
       </c>
       <c r="D5">
-        <v>12.77341556549072</v>
+        <v>12.773415565490721</v>
       </c>
       <c r="E5">
-        <v>-5.874233722686768</v>
+        <v>-5.8742337226867676</v>
       </c>
       <c r="F5">
-        <v>9.987486839294434</v>
+        <v>9.9874868392944336</v>
       </c>
       <c r="G5">
-        <v>7.712110996246338</v>
+        <v>7.7121109962463379</v>
       </c>
       <c r="H5">
-        <v>-0.592418909072876</v>
+        <v>-0.59241890907287598</v>
       </c>
       <c r="I5">
         <v>-1.693369507789612</v>
       </c>
       <c r="J5">
-        <v>-3.613576173782349</v>
+        <v>-3.6135761737823491</v>
       </c>
       <c r="K5">
-        <v>-6.881728649139404</v>
+        <v>-6.8817286491394043</v>
       </c>
       <c r="L5">
-        <v>-6.057864189147949</v>
+        <v>-6.0578641891479492</v>
       </c>
       <c r="M5">
-        <v>-2.23221492767334</v>
+        <v>-2.2322149276733398</v>
       </c>
       <c r="N5">
-        <v>-0.52584308385849</v>
+        <v>-0.52584308385848999</v>
       </c>
       <c r="O5" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -1106,43 +1125,43 @@
         <v>100.4182052612305</v>
       </c>
       <c r="D6">
-        <v>11.76823329925537</v>
+        <v>11.768233299255369</v>
       </c>
       <c r="E6">
-        <v>-6.274702548980713</v>
+        <v>-6.2747025489807129</v>
       </c>
       <c r="F6">
         <v>11.22258472442627</v>
       </c>
       <c r="G6">
-        <v>9.850146293640137</v>
+        <v>9.8501462936401367</v>
       </c>
       <c r="H6">
-        <v>0.06550291925668716</v>
+        <v>6.5502919256687164E-2</v>
       </c>
       <c r="I6">
         <v>-1.67479944229126</v>
       </c>
       <c r="J6">
-        <v>-2.417303800582886</v>
+        <v>-2.4173038005828862</v>
       </c>
       <c r="K6">
-        <v>-6.18816614151001</v>
+        <v>-6.1881661415100098</v>
       </c>
       <c r="L6">
-        <v>-6.792628765106201</v>
+        <v>-6.7926287651062012</v>
       </c>
       <c r="M6">
-        <v>-2.997499704360962</v>
+        <v>-2.9974997043609619</v>
       </c>
       <c r="N6">
-        <v>-0.3583926856517792</v>
+        <v>-0.35839268565177917</v>
       </c>
       <c r="O6" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -1150,51 +1169,51 @@
         <v>-625.1092529296875</v>
       </c>
       <c r="C7">
-        <v>95.22461700439453</v>
+        <v>95.224617004394531</v>
       </c>
       <c r="D7">
-        <v>5.473926067352295</v>
+        <v>5.4739260673522949</v>
       </c>
       <c r="E7">
-        <v>-9.237551689147949</v>
+        <v>-9.2375516891479492</v>
       </c>
       <c r="F7">
-        <v>8.842343330383301</v>
+        <v>8.8423433303833008</v>
       </c>
       <c r="G7">
-        <v>5.339827060699463</v>
+        <v>5.3398270606994629</v>
       </c>
       <c r="H7">
-        <v>-3.287396192550659</v>
+        <v>-3.2873961925506592</v>
       </c>
       <c r="I7">
         <v>-2.148321151733398</v>
       </c>
       <c r="J7">
-        <v>-0.645433247089386</v>
+        <v>-0.64543324708938599</v>
       </c>
       <c r="K7">
-        <v>-4.01816987991333</v>
+        <v>-4.0181698799133301</v>
       </c>
       <c r="L7">
-        <v>-7.093818664550781</v>
+        <v>-7.0938186645507813</v>
       </c>
       <c r="M7">
         <v>-4.32318115234375</v>
       </c>
       <c r="N7">
-        <v>-0.7832621335983276</v>
+        <v>-0.78326213359832764</v>
       </c>
       <c r="O7" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>21</v>
       </c>
       <c r="B8">
-        <v>-733.3193969726562</v>
+        <v>-733.31939697265625</v>
       </c>
       <c r="C8">
         <v>113.1140975952148</v>
@@ -1203,54 +1222,54 @@
         <v>15.26656532287598</v>
       </c>
       <c r="E8">
-        <v>-11.04756259918213</v>
+        <v>-11.047562599182131</v>
       </c>
       <c r="F8">
-        <v>6.463398933410645</v>
+        <v>6.4633989334106454</v>
       </c>
       <c r="G8">
-        <v>10.08951187133789</v>
+        <v>10.089511871337891</v>
       </c>
       <c r="H8">
         <v>1.241755604743958</v>
       </c>
       <c r="I8">
-        <v>-3.796372890472412</v>
+        <v>-3.7963728904724121</v>
       </c>
       <c r="J8">
-        <v>-4.98330545425415</v>
+        <v>-4.9833054542541504</v>
       </c>
       <c r="K8">
-        <v>-6.910160064697266</v>
+        <v>-6.9101600646972656</v>
       </c>
       <c r="L8">
-        <v>-7.635973453521729</v>
+        <v>-7.6359734535217294</v>
       </c>
       <c r="M8">
-        <v>-3.805344581604004</v>
+        <v>-3.8053445816040039</v>
       </c>
       <c r="N8">
-        <v>-0.7149402499198914</v>
+        <v>-0.71494024991989136</v>
       </c>
       <c r="O8" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>22</v>
       </c>
       <c r="B9">
-        <v>-664.7963256835938</v>
+        <v>-664.79632568359375</v>
       </c>
       <c r="C9">
-        <v>104.1923675537109</v>
+        <v>104.19236755371089</v>
       </c>
       <c r="D9">
         <v>15.3116512298584</v>
       </c>
       <c r="E9">
-        <v>-5.936074256896973</v>
+        <v>-5.9360742568969727</v>
       </c>
       <c r="F9">
         <v>12.55309391021729</v>
@@ -1259,19 +1278,19 @@
         <v>11.59202194213867</v>
       </c>
       <c r="H9">
-        <v>-0.714859664440155</v>
+        <v>-0.71485966444015503</v>
       </c>
       <c r="I9">
-        <v>-3.214648008346558</v>
+        <v>-3.2146480083465581</v>
       </c>
       <c r="J9">
-        <v>-3.880229949951172</v>
+        <v>-3.8802299499511719</v>
       </c>
       <c r="K9">
-        <v>-7.695451259613037</v>
+        <v>-7.6954512596130371</v>
       </c>
       <c r="L9">
-        <v>-6.960313320159912</v>
+        <v>-6.9603133201599121</v>
       </c>
       <c r="M9">
         <v>-2.560316801071167</v>
@@ -1283,7 +1302,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -1294,28 +1313,28 @@
         <v>105.1659469604492</v>
       </c>
       <c r="D10">
-        <v>12.13435554504395</v>
+        <v>12.134355545043951</v>
       </c>
       <c r="E10">
-        <v>-9.253668785095215</v>
+        <v>-9.2536687850952148</v>
       </c>
       <c r="F10">
-        <v>9.696512222290039</v>
+        <v>9.6965122222900391</v>
       </c>
       <c r="G10">
-        <v>8.913179397583008</v>
+        <v>8.9131793975830078</v>
       </c>
       <c r="H10">
-        <v>-2.385386228561401</v>
+        <v>-2.3853862285614009</v>
       </c>
       <c r="I10">
-        <v>-3.951346397399902</v>
+        <v>-3.9513463973999019</v>
       </c>
       <c r="J10">
-        <v>-3.561621427536011</v>
+        <v>-3.5616214275360112</v>
       </c>
       <c r="K10">
-        <v>-6.740856647491455</v>
+        <v>-6.7408566474914551</v>
       </c>
       <c r="L10">
         <v>-6.608820915222168</v>
@@ -1330,30 +1349,30 @@
         <v>159</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>24</v>
       </c>
       <c r="B11">
-        <v>-761.8381958007812</v>
+        <v>-761.83819580078125</v>
       </c>
       <c r="C11">
-        <v>91.63925170898438</v>
+        <v>91.639251708984375</v>
       </c>
       <c r="D11">
-        <v>13.51422500610352</v>
+        <v>13.514225006103519</v>
       </c>
       <c r="E11">
-        <v>-6.048430442810059</v>
+        <v>-6.0484304428100586</v>
       </c>
       <c r="F11">
-        <v>9.964657783508301</v>
+        <v>9.9646577835083008</v>
       </c>
       <c r="G11">
         <v>10.597731590271</v>
       </c>
       <c r="H11">
-        <v>0.7729672193527222</v>
+        <v>0.77296721935272217</v>
       </c>
       <c r="I11">
         <v>-1.776009082794189</v>
@@ -1362,22 +1381,22 @@
         <v>-1.767106771469116</v>
       </c>
       <c r="K11">
-        <v>-4.720197677612305</v>
+        <v>-4.7201976776123047</v>
       </c>
       <c r="L11">
-        <v>-6.069992542266846</v>
+        <v>-6.0699925422668457</v>
       </c>
       <c r="M11">
-        <v>-2.998767852783203</v>
+        <v>-2.9987678527832031</v>
       </c>
       <c r="N11">
-        <v>-0.05370452627539635</v>
+        <v>-5.3704526275396347E-2</v>
       </c>
       <c r="O11" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -1385,28 +1404,28 @@
         <v>-711.2864990234375</v>
       </c>
       <c r="C12">
-        <v>84.75868225097656</v>
+        <v>84.758682250976563</v>
       </c>
       <c r="D12">
         <v>14.2618350982666</v>
       </c>
       <c r="E12">
-        <v>-6.710391044616699</v>
+        <v>-6.7103910446166992</v>
       </c>
       <c r="F12">
-        <v>6.364958763122559</v>
+        <v>6.3649587631225586</v>
       </c>
       <c r="G12">
-        <v>8.31416130065918</v>
+        <v>8.3141613006591797</v>
       </c>
       <c r="H12">
-        <v>-0.359706699848175</v>
+        <v>-0.35970669984817499</v>
       </c>
       <c r="I12">
-        <v>-3.690727233886719</v>
+        <v>-3.6907272338867192</v>
       </c>
       <c r="J12">
-        <v>-3.703233242034912</v>
+        <v>-3.7032332420349121</v>
       </c>
       <c r="K12">
         <v>-5.255549430847168</v>
@@ -1418,13 +1437,13 @@
         <v>-3.441436767578125</v>
       </c>
       <c r="N12">
-        <v>-1.497657537460327</v>
+        <v>-1.4976575374603269</v>
       </c>
       <c r="O12" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -1438,16 +1457,16 @@
         <v>15.64713287353516</v>
       </c>
       <c r="E13">
-        <v>-6.613039016723633</v>
+        <v>-6.6130390167236328</v>
       </c>
       <c r="F13">
-        <v>10.05643749237061</v>
+        <v>10.056437492370611</v>
       </c>
       <c r="G13">
-        <v>11.07060813903809</v>
+        <v>11.070608139038089</v>
       </c>
       <c r="H13">
-        <v>0.7545754313468933</v>
+        <v>0.75457543134689331</v>
       </c>
       <c r="I13">
         <v>-2.56621241569519</v>
@@ -1456,13 +1475,13 @@
         <v>-3.251205682754517</v>
       </c>
       <c r="K13">
-        <v>-6.011391162872314</v>
+        <v>-6.0113911628723136</v>
       </c>
       <c r="L13">
-        <v>-6.571428775787354</v>
+        <v>-6.5714287757873544</v>
       </c>
       <c r="M13">
-        <v>-3.933416843414307</v>
+        <v>-3.9334168434143071</v>
       </c>
       <c r="N13">
         <v>-1.92574155330658</v>
@@ -1471,18 +1490,18 @@
         <v>157</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>27</v>
       </c>
       <c r="B14">
-        <v>-601.3783569335938</v>
+        <v>-601.37835693359375</v>
       </c>
       <c r="C14">
-        <v>92.08952331542969</v>
+        <v>92.089523315429688</v>
       </c>
       <c r="D14">
-        <v>7.269757270812988</v>
+        <v>7.2697572708129883</v>
       </c>
       <c r="E14">
         <v>-6.843989372253418</v>
@@ -1491,81 +1510,81 @@
         <v>7.348447322845459</v>
       </c>
       <c r="G14">
-        <v>4.768634796142578</v>
+        <v>4.7686347961425781</v>
       </c>
       <c r="H14">
-        <v>-2.022141218185425</v>
+        <v>-2.0221412181854248</v>
       </c>
       <c r="I14">
         <v>-2.405852079391479</v>
       </c>
       <c r="J14">
-        <v>-2.405131816864014</v>
+        <v>-2.4051318168640141</v>
       </c>
       <c r="K14">
-        <v>-6.723104000091553</v>
+        <v>-6.7231040000915527</v>
       </c>
       <c r="L14">
-        <v>-8.660438537597656</v>
+        <v>-8.6604385375976563</v>
       </c>
       <c r="M14">
-        <v>-4.341244697570801</v>
+        <v>-4.3412446975708008</v>
       </c>
       <c r="N14">
-        <v>-1.688873529434204</v>
+        <v>-1.6888735294342041</v>
       </c>
       <c r="O14" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>28</v>
       </c>
       <c r="B15">
-        <v>-741.5020141601562</v>
+        <v>-741.50201416015625</v>
       </c>
       <c r="C15">
-        <v>103.3551177978516</v>
+        <v>103.35511779785161</v>
       </c>
       <c r="D15">
-        <v>11.26864910125732</v>
+        <v>11.268649101257321</v>
       </c>
       <c r="E15">
-        <v>-7.538132190704346</v>
+        <v>-7.5381321907043457</v>
       </c>
       <c r="F15">
         <v>6.60870361328125</v>
       </c>
       <c r="G15">
-        <v>7.100223064422607</v>
+        <v>7.1002230644226074</v>
       </c>
       <c r="H15">
-        <v>2.645514249801636</v>
+        <v>2.6455142498016362</v>
       </c>
       <c r="I15">
         <v>-1.876100540161133</v>
       </c>
       <c r="J15">
-        <v>-6.166372299194336</v>
+        <v>-6.1663722991943359</v>
       </c>
       <c r="K15">
-        <v>-6.754214286804199</v>
+        <v>-6.7542142868041992</v>
       </c>
       <c r="L15">
-        <v>-4.411087989807129</v>
+        <v>-4.4110879898071289</v>
       </c>
       <c r="M15">
-        <v>-0.7313292026519775</v>
+        <v>-0.73132920265197754</v>
       </c>
       <c r="N15">
-        <v>0.2145851105451584</v>
+        <v>0.21458511054515839</v>
       </c>
       <c r="O15" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -1573,51 +1592,51 @@
         <v>-698.590576171875</v>
       </c>
       <c r="C16">
-        <v>113.2372817993164</v>
+        <v>113.23728179931641</v>
       </c>
       <c r="D16">
-        <v>11.16630077362061</v>
+        <v>11.166300773620611</v>
       </c>
       <c r="E16">
-        <v>-7.899396419525146</v>
+        <v>-7.8993964195251456</v>
       </c>
       <c r="F16">
         <v>12.75936985015869</v>
       </c>
       <c r="G16">
-        <v>11.52433300018311</v>
+        <v>11.524333000183111</v>
       </c>
       <c r="H16">
-        <v>0.8797051310539246</v>
+        <v>0.87970513105392456</v>
       </c>
       <c r="I16">
-        <v>-2.207600831985474</v>
+        <v>-2.2076008319854741</v>
       </c>
       <c r="J16">
-        <v>-4.349676609039307</v>
+        <v>-4.3496766090393066</v>
       </c>
       <c r="K16">
-        <v>-7.670422554016113</v>
+        <v>-7.6704225540161133</v>
       </c>
       <c r="L16">
-        <v>-6.221819877624512</v>
+        <v>-6.2218198776245117</v>
       </c>
       <c r="M16">
         <v>-1.490876317024231</v>
       </c>
       <c r="N16">
-        <v>0.07328237593173981</v>
+        <v>7.3282375931739807E-2</v>
       </c>
       <c r="O16" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>30</v>
       </c>
       <c r="B17">
-        <v>-733.2305297851562</v>
+        <v>-733.23052978515625</v>
       </c>
       <c r="C17">
         <v>108.5578079223633</v>
@@ -1626,40 +1645,40 @@
         <v>10.86987972259521</v>
       </c>
       <c r="E17">
-        <v>-5.27060604095459</v>
+        <v>-5.2706060409545898</v>
       </c>
       <c r="F17">
-        <v>12.43570995330811</v>
+        <v>12.435709953308111</v>
       </c>
       <c r="G17">
-        <v>7.894344806671143</v>
+        <v>7.8943448066711426</v>
       </c>
       <c r="H17">
         <v>-1.076677083969116</v>
       </c>
       <c r="I17">
-        <v>-1.084978699684143</v>
+        <v>-1.0849786996841431</v>
       </c>
       <c r="J17">
         <v>-2.160953283309937</v>
       </c>
       <c r="K17">
-        <v>-7.063296794891357</v>
+        <v>-7.0632967948913574</v>
       </c>
       <c r="L17">
-        <v>-8.110128402709961</v>
+        <v>-8.1101284027099609</v>
       </c>
       <c r="M17">
-        <v>-3.157341003417969</v>
+        <v>-3.1573410034179692</v>
       </c>
       <c r="N17">
-        <v>-0.3862329721450806</v>
+        <v>-0.38623297214508062</v>
       </c>
       <c r="O17" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -1667,19 +1686,19 @@
         <v>-748.200927734375</v>
       </c>
       <c r="C18">
-        <v>90.51545715332031</v>
+        <v>90.515457153320313</v>
       </c>
       <c r="D18">
-        <v>13.88410186767578</v>
+        <v>13.884101867675779</v>
       </c>
       <c r="E18">
-        <v>-3.058427333831787</v>
+        <v>-3.0584273338317871</v>
       </c>
       <c r="F18">
-        <v>9.927457809448242</v>
+        <v>9.9274578094482422</v>
       </c>
       <c r="G18">
-        <v>8.839500427246094</v>
+        <v>8.8395004272460938</v>
       </c>
       <c r="H18">
         <v>2.365149974822998</v>
@@ -1688,25 +1707,25 @@
         <v>0.1804753243923187</v>
       </c>
       <c r="J18">
-        <v>-2.633730173110962</v>
+        <v>-2.6337301731109619</v>
       </c>
       <c r="K18">
-        <v>-5.741470813751221</v>
+        <v>-5.7414708137512207</v>
       </c>
       <c r="L18">
         <v>-5.560582160949707</v>
       </c>
       <c r="M18">
-        <v>-2.362658500671387</v>
+        <v>-2.3626585006713872</v>
       </c>
       <c r="N18">
-        <v>0.03858093917369843</v>
+        <v>3.8580939173698432E-2</v>
       </c>
       <c r="O18" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -1714,37 +1733,37 @@
         <v>-740.63671875</v>
       </c>
       <c r="C19">
-        <v>95.08043670654297</v>
+        <v>95.080436706542969</v>
       </c>
       <c r="D19">
-        <v>8.043258666992188</v>
+        <v>8.0432586669921875</v>
       </c>
       <c r="E19">
-        <v>-7.546520233154297</v>
+        <v>-7.5465202331542969</v>
       </c>
       <c r="F19">
-        <v>7.475347995758057</v>
+        <v>7.4753479957580566</v>
       </c>
       <c r="G19">
-        <v>4.131887435913086</v>
+        <v>4.1318874359130859</v>
       </c>
       <c r="H19">
-        <v>-2.836195230484009</v>
+        <v>-2.8361952304840088</v>
       </c>
       <c r="I19">
         <v>-2.486907958984375</v>
       </c>
       <c r="J19">
-        <v>-2.835801124572754</v>
+        <v>-2.8358011245727539</v>
       </c>
       <c r="K19">
-        <v>-5.547774791717529</v>
+        <v>-5.5477747917175293</v>
       </c>
       <c r="L19">
-        <v>-5.96090841293335</v>
+        <v>-5.9609084129333496</v>
       </c>
       <c r="M19">
-        <v>-2.989623546600342</v>
+        <v>-2.9896235466003418</v>
       </c>
       <c r="N19">
         <v>-1.377714872360229</v>
@@ -1753,54 +1772,54 @@
         <v>156</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>33</v>
       </c>
       <c r="B20">
-        <v>-774.6857299804688</v>
+        <v>-774.68572998046875</v>
       </c>
       <c r="C20">
-        <v>95.51415252685547</v>
+        <v>95.514152526855469</v>
       </c>
       <c r="D20">
-        <v>13.55743789672852</v>
+        <v>13.557437896728519</v>
       </c>
       <c r="E20">
-        <v>-3.343705654144287</v>
+        <v>-3.3437056541442871</v>
       </c>
       <c r="F20">
         <v>11.41595554351807</v>
       </c>
       <c r="G20">
-        <v>8.953632354736328</v>
+        <v>8.9536323547363281</v>
       </c>
       <c r="H20">
-        <v>0.6265954971313477</v>
+        <v>0.62659549713134766</v>
       </c>
       <c r="I20">
-        <v>0.2579077780246735</v>
+        <v>0.25790777802467352</v>
       </c>
       <c r="J20">
-        <v>-1.30896270275116</v>
+        <v>-1.3089627027511599</v>
       </c>
       <c r="K20">
-        <v>-6.584731578826904</v>
+        <v>-6.5847315788269043</v>
       </c>
       <c r="L20">
-        <v>-7.345131397247314</v>
+        <v>-7.3451313972473136</v>
       </c>
       <c r="M20">
-        <v>-3.519914388656616</v>
+        <v>-3.5199143886566162</v>
       </c>
       <c r="N20">
-        <v>-1.50225555896759</v>
+        <v>-1.5022555589675901</v>
       </c>
       <c r="O20" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -1811,81 +1830,81 @@
         <v>97.21435546875</v>
       </c>
       <c r="D21">
-        <v>3.912146091461182</v>
+        <v>3.9121460914611821</v>
       </c>
       <c r="E21">
         <v>-10.35567474365234</v>
       </c>
       <c r="F21">
-        <v>6.547996044158936</v>
+        <v>6.5479960441589364</v>
       </c>
       <c r="G21">
-        <v>2.969695806503296</v>
+        <v>2.9696958065032959</v>
       </c>
       <c r="H21">
-        <v>-3.248541355133057</v>
+        <v>-3.2485413551330571</v>
       </c>
       <c r="I21">
-        <v>-3.629965305328369</v>
+        <v>-3.6299653053283691</v>
       </c>
       <c r="J21">
-        <v>-5.634452819824219</v>
+        <v>-5.6344528198242188</v>
       </c>
       <c r="K21">
-        <v>-7.718822479248047</v>
+        <v>-7.7188224792480469</v>
       </c>
       <c r="L21">
-        <v>-7.674465656280518</v>
+        <v>-7.6744656562805176</v>
       </c>
       <c r="M21">
-        <v>-5.35011100769043</v>
+        <v>-5.3501110076904297</v>
       </c>
       <c r="N21">
-        <v>-3.248332977294922</v>
+        <v>-3.2483329772949219</v>
       </c>
       <c r="O21" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>35</v>
       </c>
       <c r="B22">
-        <v>-708.9514770507812</v>
+        <v>-708.95147705078125</v>
       </c>
       <c r="C22">
         <v>106.694206237793</v>
       </c>
       <c r="D22">
-        <v>13.42071342468262</v>
+        <v>13.420713424682621</v>
       </c>
       <c r="E22">
-        <v>-12.64282608032227</v>
+        <v>-12.642826080322269</v>
       </c>
       <c r="F22">
-        <v>3.927235841751099</v>
+        <v>3.9272358417510991</v>
       </c>
       <c r="G22">
-        <v>8.530287742614746</v>
+        <v>8.5302877426147461</v>
       </c>
       <c r="H22">
-        <v>0.2427610009908676</v>
+        <v>0.24276100099086759</v>
       </c>
       <c r="I22">
         <v>-5.221585750579834</v>
       </c>
       <c r="J22">
-        <v>-5.953047752380371</v>
+        <v>-5.9530477523803711</v>
       </c>
       <c r="K22">
-        <v>-7.225107192993164</v>
+        <v>-7.2251071929931641</v>
       </c>
       <c r="L22">
-        <v>-8.092794418334961</v>
+        <v>-8.0927944183349609</v>
       </c>
       <c r="M22">
-        <v>-4.447496891021729</v>
+        <v>-4.4474968910217294</v>
       </c>
       <c r="N22">
         <v>-1.29352343082428</v>
@@ -1894,36 +1913,36 @@
         <v>153</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>36</v>
       </c>
       <c r="B23">
-        <v>-679.6151733398438</v>
+        <v>-679.61517333984375</v>
       </c>
       <c r="C23">
         <v>101.7909622192383</v>
       </c>
       <c r="D23">
-        <v>9.34959888458252</v>
+        <v>9.3495988845825195</v>
       </c>
       <c r="E23">
-        <v>-11.22254180908203</v>
+        <v>-11.222541809082029</v>
       </c>
       <c r="F23">
-        <v>9.056826591491699</v>
+        <v>9.0568265914916992</v>
       </c>
       <c r="G23">
-        <v>9.185863494873047</v>
+        <v>9.1858634948730469</v>
       </c>
       <c r="H23">
         <v>-2.522400856018066</v>
       </c>
       <c r="I23">
-        <v>-5.19268274307251</v>
+        <v>-5.1926827430725098</v>
       </c>
       <c r="J23">
-        <v>-6.146408557891846</v>
+        <v>-6.1464085578918457</v>
       </c>
       <c r="K23">
         <v>-10.58002281188965</v>
@@ -1932,7 +1951,7 @@
         <v>-10.0765380859375</v>
       </c>
       <c r="M23">
-        <v>-3.965203046798706</v>
+        <v>-3.9652030467987061</v>
       </c>
       <c r="N23">
         <v>-2.121201753616333</v>
@@ -1941,42 +1960,42 @@
         <v>154</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>37</v>
       </c>
       <c r="B24">
-        <v>-692.4378051757812</v>
+        <v>-692.43780517578125</v>
       </c>
       <c r="C24">
-        <v>99.96540069580078</v>
+        <v>99.965400695800781</v>
       </c>
       <c r="D24">
-        <v>13.23836803436279</v>
+        <v>13.238368034362789</v>
       </c>
       <c r="E24">
-        <v>-7.947442531585693</v>
+        <v>-7.9474425315856934</v>
       </c>
       <c r="F24">
-        <v>11.63946723937988</v>
+        <v>11.639467239379879</v>
       </c>
       <c r="G24">
         <v>12.00570774078369</v>
       </c>
       <c r="H24">
-        <v>-1.31383490562439</v>
+        <v>-1.3138349056243901</v>
       </c>
       <c r="I24">
-        <v>-3.880377769470215</v>
+        <v>-3.8803777694702148</v>
       </c>
       <c r="J24">
         <v>-2.527817010879517</v>
       </c>
       <c r="K24">
-        <v>-6.642258167266846</v>
+        <v>-6.6422581672668457</v>
       </c>
       <c r="L24">
-        <v>-7.307816982269287</v>
+        <v>-7.3078169822692871</v>
       </c>
       <c r="M24">
         <v>-1.463695168495178</v>
@@ -1988,21 +2007,21 @@
         <v>159</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>38</v>
       </c>
       <c r="B25">
-        <v>-757.4359741210938</v>
+        <v>-757.43597412109375</v>
       </c>
       <c r="C25">
-        <v>94.22014617919922</v>
+        <v>94.220146179199219</v>
       </c>
       <c r="D25">
-        <v>12.34897899627686</v>
+        <v>12.348978996276861</v>
       </c>
       <c r="E25">
-        <v>-5.922748565673828</v>
+        <v>-5.9227485656738281</v>
       </c>
       <c r="F25">
         <v>11.76387786865234</v>
@@ -2011,19 +2030,19 @@
         <v>11.0413932800293</v>
       </c>
       <c r="H25">
-        <v>0.2646842300891876</v>
+        <v>0.26468423008918762</v>
       </c>
       <c r="I25">
-        <v>-1.623058795928955</v>
+        <v>-1.6230587959289551</v>
       </c>
       <c r="J25">
         <v>-1.997456550598145</v>
       </c>
       <c r="K25">
-        <v>-5.96381664276123</v>
+        <v>-5.9638166427612296</v>
       </c>
       <c r="L25">
-        <v>-6.557469844818115</v>
+        <v>-6.5574698448181152</v>
       </c>
       <c r="M25">
         <v>-2.210192203521729</v>
@@ -2035,7 +2054,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>39</v>
       </c>
@@ -2043,54 +2062,54 @@
         <v>-740.226806640625</v>
       </c>
       <c r="C26">
-        <v>88.28195190429688</v>
+        <v>88.281951904296875</v>
       </c>
       <c r="D26">
-        <v>11.1297082901001</v>
+        <v>11.129708290100099</v>
       </c>
       <c r="E26">
-        <v>-7.997181415557861</v>
+        <v>-7.9971814155578613</v>
       </c>
       <c r="F26">
-        <v>8.887511253356934</v>
+        <v>8.8875112533569336</v>
       </c>
       <c r="G26">
-        <v>9.995449066162109</v>
+        <v>9.9954490661621094</v>
       </c>
       <c r="H26">
-        <v>-0.6866517663002014</v>
+        <v>-0.68665176630020142</v>
       </c>
       <c r="I26">
         <v>-4.041837215423584</v>
       </c>
       <c r="J26">
-        <v>-3.99080228805542</v>
+        <v>-3.9908022880554199</v>
       </c>
       <c r="K26">
-        <v>-6.00551176071167</v>
+        <v>-6.0055117607116699</v>
       </c>
       <c r="L26">
-        <v>-5.412754535675049</v>
+        <v>-5.4127545356750488</v>
       </c>
       <c r="M26">
-        <v>-1.61921501159668</v>
+        <v>-1.6192150115966799</v>
       </c>
       <c r="N26">
-        <v>-0.7161296606063843</v>
+        <v>-0.71612966060638428</v>
       </c>
       <c r="O26" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>40</v>
       </c>
       <c r="B27">
-        <v>-772.9639282226562</v>
+        <v>-772.96392822265625</v>
       </c>
       <c r="C27">
-        <v>107.0620346069336</v>
+        <v>107.06203460693359</v>
       </c>
       <c r="D27">
         <v>15.13746166229248</v>
@@ -2099,7 +2118,7 @@
         <v>-5.854978084564209</v>
       </c>
       <c r="F27">
-        <v>12.57529163360596</v>
+        <v>12.575291633605961</v>
       </c>
       <c r="G27">
         <v>11.48725032806396</v>
@@ -2108,39 +2127,39 @@
         <v>0.7074350118637085</v>
       </c>
       <c r="I27">
-        <v>-0.8497743606567383</v>
+        <v>-0.84977436065673828</v>
       </c>
       <c r="J27">
         <v>-1.628498911857605</v>
       </c>
       <c r="K27">
-        <v>-5.849926471710205</v>
+        <v>-5.8499264717102051</v>
       </c>
       <c r="L27">
-        <v>-6.942178726196289</v>
+        <v>-6.9421787261962891</v>
       </c>
       <c r="M27">
         <v>-3.971321821212769</v>
       </c>
       <c r="N27">
-        <v>-1.319606304168701</v>
+        <v>-1.3196063041687009</v>
       </c>
       <c r="O27" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>41</v>
       </c>
       <c r="B28">
-        <v>-502.2070617675781</v>
+        <v>-502.20706176757813</v>
       </c>
       <c r="C28">
-        <v>105.6187973022461</v>
+        <v>105.61879730224609</v>
       </c>
       <c r="D28">
-        <v>-7.913897514343262</v>
+        <v>-7.9138975143432617</v>
       </c>
       <c r="E28">
         <v>-18.37569427490234</v>
@@ -2149,72 +2168,72 @@
         <v>3.75981616973877</v>
       </c>
       <c r="G28">
-        <v>1.06161093711853</v>
+        <v>1.0616109371185301</v>
       </c>
       <c r="H28">
-        <v>-4.737441062927246</v>
+        <v>-4.7374410629272461</v>
       </c>
       <c r="I28">
-        <v>-6.454912185668945</v>
+        <v>-6.4549121856689453</v>
       </c>
       <c r="J28">
-        <v>-7.486904621124268</v>
+        <v>-7.4869046211242676</v>
       </c>
       <c r="K28">
-        <v>-9.507287979125977</v>
+        <v>-9.5072879791259766</v>
       </c>
       <c r="L28">
-        <v>-11.07698726654053</v>
+        <v>-11.076987266540529</v>
       </c>
       <c r="M28">
         <v>-6.523108959197998</v>
       </c>
       <c r="N28">
-        <v>-2.81719183921814</v>
+        <v>-2.8171918392181401</v>
       </c>
       <c r="O28" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>42</v>
       </c>
       <c r="B29">
-        <v>-607.5968627929688</v>
+        <v>-607.59686279296875</v>
       </c>
       <c r="C29">
-        <v>105.2712554931641</v>
+        <v>105.27125549316411</v>
       </c>
       <c r="D29">
         <v>13.96369743347168</v>
       </c>
       <c r="E29">
-        <v>-6.510542392730713</v>
+        <v>-6.5105423927307129</v>
       </c>
       <c r="F29">
         <v>0.6826779842376709</v>
       </c>
       <c r="G29">
-        <v>0.3858336508274078</v>
+        <v>0.38583365082740778</v>
       </c>
       <c r="H29">
-        <v>0.678008496761322</v>
+        <v>0.67800849676132202</v>
       </c>
       <c r="I29">
-        <v>-4.982861995697021</v>
+        <v>-4.9828619956970206</v>
       </c>
       <c r="J29">
-        <v>-12.33862495422363</v>
+        <v>-12.338624954223629</v>
       </c>
       <c r="K29">
-        <v>-8.597787857055664</v>
+        <v>-8.5977878570556641</v>
       </c>
       <c r="L29">
-        <v>-2.907753229141235</v>
+        <v>-2.9077532291412349</v>
       </c>
       <c r="M29">
-        <v>-5.865865707397461</v>
+        <v>-5.8658657073974609</v>
       </c>
       <c r="N29">
         <v>-8.00677490234375</v>
@@ -2223,21 +2242,21 @@
         <v>153</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>43</v>
       </c>
       <c r="B30">
-        <v>-459.0663452148438</v>
+        <v>-459.06634521484381</v>
       </c>
       <c r="C30">
-        <v>103.2145843505859</v>
+        <v>103.21458435058589</v>
       </c>
       <c r="D30">
-        <v>2.373180389404297</v>
+        <v>2.3731803894042969</v>
       </c>
       <c r="E30">
-        <v>-21.69254684448242</v>
+        <v>-21.692546844482418</v>
       </c>
       <c r="F30">
         <v>-1.603137254714966</v>
@@ -2246,22 +2265,22 @@
         <v>3.365058422088623</v>
       </c>
       <c r="H30">
-        <v>-1.66758930683136</v>
+        <v>-1.6675893068313601</v>
       </c>
       <c r="I30">
-        <v>-5.275744438171387</v>
+        <v>-5.2757444381713867</v>
       </c>
       <c r="J30">
-        <v>-10.74449062347412</v>
+        <v>-10.744490623474119</v>
       </c>
       <c r="K30">
-        <v>-14.66286849975586</v>
+        <v>-14.662868499755859</v>
       </c>
       <c r="L30">
         <v>-13.14526844024658</v>
       </c>
       <c r="M30">
-        <v>-7.786428451538086</v>
+        <v>-7.7864284515380859</v>
       </c>
       <c r="N30">
         <v>-3.702334880828857</v>
@@ -2270,54 +2289,54 @@
         <v>154</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>44</v>
       </c>
       <c r="B31">
-        <v>-603.0780639648438</v>
+        <v>-603.07806396484375</v>
       </c>
       <c r="C31">
         <v>103.9883117675781</v>
       </c>
       <c r="D31">
-        <v>6.056674480438232</v>
+        <v>6.0566744804382324</v>
       </c>
       <c r="E31">
         <v>-13.6259822845459</v>
       </c>
       <c r="F31">
-        <v>6.624904155731201</v>
+        <v>6.6249041557312012</v>
       </c>
       <c r="G31">
-        <v>7.474408626556396</v>
+        <v>7.4744086265563956</v>
       </c>
       <c r="H31">
-        <v>-2.246564865112305</v>
+        <v>-2.2465648651123051</v>
       </c>
       <c r="I31">
-        <v>-5.599896430969238</v>
+        <v>-5.5998964309692383</v>
       </c>
       <c r="J31">
-        <v>-5.961775302886963</v>
+        <v>-5.9617753028869629</v>
       </c>
       <c r="K31">
-        <v>-9.456718444824219</v>
+        <v>-9.4567184448242188</v>
       </c>
       <c r="L31">
         <v>-11.1069393157959</v>
       </c>
       <c r="M31">
-        <v>-4.345983982086182</v>
+        <v>-4.3459839820861816</v>
       </c>
       <c r="N31">
-        <v>-0.04872960224747658</v>
+        <v>-4.8729602247476578E-2</v>
       </c>
       <c r="O31" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>45</v>
       </c>
@@ -2325,19 +2344,19 @@
         <v>-679.282958984375</v>
       </c>
       <c r="C32">
-        <v>104.5122299194336</v>
+        <v>104.51222991943359</v>
       </c>
       <c r="D32">
-        <v>3.671678066253662</v>
+        <v>3.6716780662536621</v>
       </c>
       <c r="E32">
-        <v>-10.12830352783203</v>
+        <v>-10.128303527832029</v>
       </c>
       <c r="F32">
-        <v>9.051432609558105</v>
+        <v>9.0514326095581055</v>
       </c>
       <c r="G32">
-        <v>5.574604988098145</v>
+        <v>5.5746049880981454</v>
       </c>
       <c r="H32">
         <v>-3.036236047744751</v>
@@ -2346,25 +2365,25 @@
         <v>-3.658408641815186</v>
       </c>
       <c r="J32">
-        <v>-4.474785804748535</v>
+        <v>-4.4747858047485352</v>
       </c>
       <c r="K32">
-        <v>-8.598028182983398</v>
+        <v>-8.5980281829833984</v>
       </c>
       <c r="L32">
-        <v>-8.24748706817627</v>
+        <v>-8.2474870681762695</v>
       </c>
       <c r="M32">
-        <v>-2.596390724182129</v>
+        <v>-2.5963907241821289</v>
       </c>
       <c r="N32">
-        <v>-1.069791674613953</v>
+        <v>-1.0697916746139531</v>
       </c>
       <c r="O32" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>46</v>
       </c>
@@ -2372,34 +2391,34 @@
         <v>-688.9306640625</v>
       </c>
       <c r="C33">
-        <v>97.62674713134766</v>
+        <v>97.626747131347656</v>
       </c>
       <c r="D33">
         <v>10.29131507873535</v>
       </c>
       <c r="E33">
-        <v>-7.212520599365234</v>
+        <v>-7.2125205993652344</v>
       </c>
       <c r="F33">
-        <v>11.04297065734863</v>
+        <v>11.042970657348629</v>
       </c>
       <c r="G33">
-        <v>9.298519134521484</v>
+        <v>9.2985191345214844</v>
       </c>
       <c r="H33">
-        <v>-1.548179864883423</v>
+        <v>-1.5481798648834231</v>
       </c>
       <c r="I33">
-        <v>-3.73786187171936</v>
+        <v>-3.7378618717193599</v>
       </c>
       <c r="J33">
         <v>-4.778904914855957</v>
       </c>
       <c r="K33">
-        <v>-9.562853813171387</v>
+        <v>-9.5628538131713867</v>
       </c>
       <c r="L33">
-        <v>-10.62080383300781</v>
+        <v>-10.620803833007811</v>
       </c>
       <c r="M33">
         <v>-4.796562671661377</v>
@@ -2411,33 +2430,33 @@
         <v>157</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>47</v>
       </c>
       <c r="B34">
-        <v>-442.7985534667969</v>
+        <v>-442.79855346679688</v>
       </c>
       <c r="C34">
-        <v>99.09015655517578</v>
+        <v>99.090156555175781</v>
       </c>
       <c r="D34">
-        <v>-8.489716529846191</v>
+        <v>-8.4897165298461914</v>
       </c>
       <c r="E34">
         <v>-22.38094520568848</v>
       </c>
       <c r="F34">
-        <v>-0.3687750399112701</v>
+        <v>-0.36877503991127009</v>
       </c>
       <c r="G34">
-        <v>-2.165667295455933</v>
+        <v>-2.1656672954559331</v>
       </c>
       <c r="H34">
-        <v>-6.387020111083984</v>
+        <v>-6.3870201110839844</v>
       </c>
       <c r="I34">
-        <v>-7.157895088195801</v>
+        <v>-7.1578950881958008</v>
       </c>
       <c r="J34">
         <v>-11.52310276031494</v>
@@ -2446,19 +2465,19 @@
         <v>-11.90273475646973</v>
       </c>
       <c r="L34">
-        <v>-9.490091323852539</v>
+        <v>-9.4900913238525391</v>
       </c>
       <c r="M34">
-        <v>-7.975766181945801</v>
+        <v>-7.9757661819458008</v>
       </c>
       <c r="N34">
-        <v>-5.678079128265381</v>
+        <v>-5.6780791282653809</v>
       </c>
       <c r="O34" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>48</v>
       </c>
@@ -2466,60 +2485,60 @@
         <v>-562.4847412109375</v>
       </c>
       <c r="C35">
-        <v>94.08543395996094</v>
+        <v>94.085433959960938</v>
       </c>
       <c r="D35">
         <v>10.40447902679443</v>
       </c>
       <c r="E35">
-        <v>-16.96205139160156</v>
+        <v>-16.962051391601559</v>
       </c>
       <c r="F35">
-        <v>-6.361132144927979</v>
+        <v>-6.3611321449279794</v>
       </c>
       <c r="G35">
-        <v>-0.2344471216201782</v>
+        <v>-0.23444712162017819</v>
       </c>
       <c r="H35">
-        <v>-2.168107986450195</v>
+        <v>-2.1681079864501949</v>
       </c>
       <c r="I35">
-        <v>-6.742723941802979</v>
+        <v>-6.7427239418029794</v>
       </c>
       <c r="J35">
         <v>-11.28624439239502</v>
       </c>
       <c r="K35">
-        <v>-12.36094093322754</v>
+        <v>-12.360940933227541</v>
       </c>
       <c r="L35">
-        <v>-9.786696434020996</v>
+        <v>-9.7866964340209961</v>
       </c>
       <c r="M35">
-        <v>-5.965682029724121</v>
+        <v>-5.9656820297241211</v>
       </c>
       <c r="N35">
-        <v>-3.559413194656372</v>
+        <v>-3.5594131946563721</v>
       </c>
       <c r="O35" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>49</v>
       </c>
       <c r="B36">
-        <v>-534.4246215820312</v>
+        <v>-534.42462158203125</v>
       </c>
       <c r="C36">
         <v>115.9189910888672</v>
       </c>
       <c r="D36">
-        <v>6.299952030181885</v>
+        <v>6.2999520301818848</v>
       </c>
       <c r="E36">
-        <v>-20.16762924194336</v>
+        <v>-20.167629241943359</v>
       </c>
       <c r="F36">
         <v>3.090681791305542</v>
@@ -2537,22 +2556,22 @@
         <v>-6.686375617980957</v>
       </c>
       <c r="K36">
-        <v>-10.7240161895752</v>
+        <v>-10.724016189575201</v>
       </c>
       <c r="L36">
-        <v>-9.183135032653809</v>
+        <v>-9.1831350326538086</v>
       </c>
       <c r="M36">
         <v>-2.614314079284668</v>
       </c>
       <c r="N36">
-        <v>1.388749122619629</v>
+        <v>1.3887491226196289</v>
       </c>
       <c r="O36" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>50</v>
       </c>
@@ -2563,51 +2582,51 @@
         <v>96.1781005859375</v>
       </c>
       <c r="D37">
-        <v>7.284559726715088</v>
+        <v>7.2845597267150879</v>
       </c>
       <c r="E37">
         <v>-13.21272087097168</v>
       </c>
       <c r="F37">
-        <v>4.216573238372803</v>
+        <v>4.2165732383728027</v>
       </c>
       <c r="G37">
-        <v>5.740102767944336</v>
+        <v>5.7401027679443359</v>
       </c>
       <c r="H37">
-        <v>-2.842446804046631</v>
+        <v>-2.8424468040466309</v>
       </c>
       <c r="I37">
-        <v>-6.927825450897217</v>
+        <v>-6.9278254508972168</v>
       </c>
       <c r="J37">
-        <v>-7.571207523345947</v>
+        <v>-7.5712075233459473</v>
       </c>
       <c r="K37">
-        <v>-7.303585052490234</v>
+        <v>-7.3035850524902344</v>
       </c>
       <c r="L37">
-        <v>-7.281521797180176</v>
+        <v>-7.2815217971801758</v>
       </c>
       <c r="M37">
         <v>-5.866337776184082</v>
       </c>
       <c r="N37">
-        <v>-3.32699728012085</v>
+        <v>-3.3269972801208501</v>
       </c>
       <c r="O37" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>51</v>
       </c>
       <c r="B38">
-        <v>-670.7774047851562</v>
+        <v>-670.77740478515625</v>
       </c>
       <c r="C38">
-        <v>98.24506378173828</v>
+        <v>98.245063781738281</v>
       </c>
       <c r="D38">
         <v>7.03564453125</v>
@@ -2616,37 +2635,37 @@
         <v>-10.96970272064209</v>
       </c>
       <c r="F38">
-        <v>9.343875885009766</v>
+        <v>9.3438758850097656</v>
       </c>
       <c r="G38">
-        <v>8.595946311950684</v>
+        <v>8.5959463119506836</v>
       </c>
       <c r="H38">
-        <v>-2.496100425720215</v>
+        <v>-2.4961004257202148</v>
       </c>
       <c r="I38">
-        <v>-4.500300884246826</v>
+        <v>-4.5003008842468262</v>
       </c>
       <c r="J38">
-        <v>-3.803637504577637</v>
+        <v>-3.8036375045776372</v>
       </c>
       <c r="K38">
-        <v>-6.184435844421387</v>
+        <v>-6.1844358444213867</v>
       </c>
       <c r="L38">
-        <v>-6.943897724151611</v>
+        <v>-6.9438977241516113</v>
       </c>
       <c r="M38">
-        <v>-2.741372108459473</v>
+        <v>-2.7413721084594731</v>
       </c>
       <c r="N38">
-        <v>-0.4314402639865875</v>
+        <v>-0.43144026398658752</v>
       </c>
       <c r="O38" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>52</v>
       </c>
@@ -2657,31 +2676,31 @@
         <v>105.4238204956055</v>
       </c>
       <c r="D39">
-        <v>17.41161918640137</v>
+        <v>17.411619186401371</v>
       </c>
       <c r="E39">
         <v>-3.847408771514893</v>
       </c>
       <c r="F39">
-        <v>12.52552890777588</v>
+        <v>12.525528907775881</v>
       </c>
       <c r="G39">
-        <v>11.65993976593018</v>
+        <v>11.659939765930179</v>
       </c>
       <c r="H39">
         <v>1.107364416122437</v>
       </c>
       <c r="I39">
-        <v>-1.596246242523193</v>
+        <v>-1.5962462425231929</v>
       </c>
       <c r="J39">
-        <v>-2.582109212875366</v>
+        <v>-2.5821092128753662</v>
       </c>
       <c r="K39">
-        <v>-5.864004135131836</v>
+        <v>-5.8640041351318359</v>
       </c>
       <c r="L39">
-        <v>-5.569899559020996</v>
+        <v>-5.5698995590209961</v>
       </c>
       <c r="M39">
         <v>-1.944620728492737</v>
@@ -2693,12 +2712,12 @@
         <v>157</v>
       </c>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>53</v>
       </c>
       <c r="B40">
-        <v>-409.1464233398438</v>
+        <v>-409.14642333984381</v>
       </c>
       <c r="C40">
         <v>101.808349609375</v>
@@ -2707,40 +2726,40 @@
         <v>-14.48292064666748</v>
       </c>
       <c r="E40">
-        <v>-24.58257865905762</v>
+        <v>-24.582578659057621</v>
       </c>
       <c r="F40">
-        <v>0.01249347161501646</v>
+        <v>1.249347161501646E-2</v>
       </c>
       <c r="G40">
-        <v>-2.821187973022461</v>
+        <v>-2.8211879730224609</v>
       </c>
       <c r="H40">
-        <v>-8.150198936462402</v>
+        <v>-8.1501989364624023</v>
       </c>
       <c r="I40">
-        <v>-10.32309913635254</v>
+        <v>-10.323099136352541</v>
       </c>
       <c r="J40">
         <v>-12.26287174224854</v>
       </c>
       <c r="K40">
-        <v>-11.00964164733887</v>
+        <v>-11.009641647338871</v>
       </c>
       <c r="L40">
         <v>-11.93728733062744</v>
       </c>
       <c r="M40">
-        <v>-9.276008605957031</v>
+        <v>-9.2760086059570313</v>
       </c>
       <c r="N40">
-        <v>-3.102532386779785</v>
+        <v>-3.1025323867797852</v>
       </c>
       <c r="O40" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>54</v>
       </c>
@@ -2748,7 +2767,7 @@
         <v>-569.4638671875</v>
       </c>
       <c r="C41">
-        <v>87.98349761962891</v>
+        <v>87.983497619628906</v>
       </c>
       <c r="D41">
         <v>11.34543514251709</v>
@@ -2760,72 +2779,72 @@
         <v>-0.6040031909942627</v>
       </c>
       <c r="G41">
-        <v>3.01712441444397</v>
+        <v>3.0171244144439702</v>
       </c>
       <c r="H41">
-        <v>-0.9581140875816345</v>
+        <v>-0.95811408758163452</v>
       </c>
       <c r="I41">
-        <v>-7.497890949249268</v>
+        <v>-7.4978909492492676</v>
       </c>
       <c r="J41">
         <v>-11.8196964263916</v>
       </c>
       <c r="K41">
-        <v>-9.900559425354004</v>
+        <v>-9.9005594253540039</v>
       </c>
       <c r="L41">
-        <v>-5.044277667999268</v>
+        <v>-5.0442776679992676</v>
       </c>
       <c r="M41">
         <v>-3.882565021514893</v>
       </c>
       <c r="N41">
-        <v>-5.56158971786499</v>
+        <v>-5.5615897178649902</v>
       </c>
       <c r="O41" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>55</v>
       </c>
       <c r="B42">
-        <v>-506.5837707519531</v>
+        <v>-506.58377075195313</v>
       </c>
       <c r="C42">
         <v>102.6557235717773</v>
       </c>
       <c r="D42">
-        <v>2.592149496078491</v>
+        <v>2.5921494960784912</v>
       </c>
       <c r="E42">
-        <v>-20.30902290344238</v>
+        <v>-20.309022903442379</v>
       </c>
       <c r="F42">
-        <v>0.794996440410614</v>
+        <v>0.79499644041061401</v>
       </c>
       <c r="G42">
-        <v>6.543848037719727</v>
+        <v>6.5438480377197266</v>
       </c>
       <c r="H42">
-        <v>0.1191641390323639</v>
+        <v>0.11916413903236391</v>
       </c>
       <c r="I42">
-        <v>-6.225042819976807</v>
+        <v>-6.2250428199768066</v>
       </c>
       <c r="J42">
-        <v>-10.7944507598877</v>
+        <v>-10.794450759887701</v>
       </c>
       <c r="K42">
         <v>-12.28552722930908</v>
       </c>
       <c r="L42">
-        <v>-12.02454471588135</v>
+        <v>-12.024544715881349</v>
       </c>
       <c r="M42">
-        <v>-7.39911937713623</v>
+        <v>-7.3991193771362296</v>
       </c>
       <c r="N42">
         <v>-0.6853710412979126</v>
@@ -2834,7 +2853,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>56</v>
       </c>
@@ -2842,37 +2861,37 @@
         <v>-618.13134765625</v>
       </c>
       <c r="C43">
-        <v>106.8073883056641</v>
+        <v>106.80738830566411</v>
       </c>
       <c r="D43">
-        <v>6.308514595031738</v>
+        <v>6.3085145950317383</v>
       </c>
       <c r="E43">
         <v>-13.36422634124756</v>
       </c>
       <c r="F43">
-        <v>5.962796211242676</v>
+        <v>5.9627962112426758</v>
       </c>
       <c r="G43">
-        <v>6.525196552276611</v>
+        <v>6.5251965522766113</v>
       </c>
       <c r="H43">
-        <v>-2.723581552505493</v>
+        <v>-2.7235815525054932</v>
       </c>
       <c r="I43">
-        <v>-5.723694801330566</v>
+        <v>-5.7236948013305664</v>
       </c>
       <c r="J43">
-        <v>-5.832875728607178</v>
+        <v>-5.8328757286071777</v>
       </c>
       <c r="K43">
-        <v>-9.143283843994141</v>
+        <v>-9.1432838439941406</v>
       </c>
       <c r="L43">
-        <v>-10.78556632995605</v>
+        <v>-10.785566329956049</v>
       </c>
       <c r="M43">
-        <v>-5.845105171203613</v>
+        <v>-5.8451051712036133</v>
       </c>
       <c r="N43">
         <v>-1.833431720733643</v>
@@ -2881,148 +2900,148 @@
         <v>159</v>
       </c>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>57</v>
       </c>
       <c r="B44">
-        <v>-654.7407836914062</v>
+        <v>-654.74078369140625</v>
       </c>
       <c r="C44">
-        <v>96.05464172363281</v>
+        <v>96.054641723632813</v>
       </c>
       <c r="D44">
-        <v>5.188635349273682</v>
+        <v>5.1886353492736816</v>
       </c>
       <c r="E44">
-        <v>-11.36489582061768</v>
+        <v>-11.364895820617679</v>
       </c>
       <c r="F44">
-        <v>5.876718521118164</v>
+        <v>5.8767185211181641</v>
       </c>
       <c r="G44">
-        <v>5.195303916931152</v>
+        <v>5.1953039169311523</v>
       </c>
       <c r="H44">
         <v>-1.444872140884399</v>
       </c>
       <c r="I44">
-        <v>-3.965671539306641</v>
+        <v>-3.9656715393066411</v>
       </c>
       <c r="J44">
-        <v>-6.441378593444824</v>
+        <v>-6.4413785934448242</v>
       </c>
       <c r="K44">
-        <v>-8.110047340393066</v>
+        <v>-8.1100473403930664</v>
       </c>
       <c r="L44">
-        <v>-7.283601760864258</v>
+        <v>-7.2836017608642578</v>
       </c>
       <c r="M44">
-        <v>-3.733665704727173</v>
+        <v>-3.7336657047271729</v>
       </c>
       <c r="N44">
-        <v>-1.561223864555359</v>
+        <v>-1.5612238645553591</v>
       </c>
       <c r="O44" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>58</v>
       </c>
       <c r="B45">
-        <v>-682.5634155273438</v>
+        <v>-682.56341552734375</v>
       </c>
       <c r="C45">
-        <v>104.6223373413086</v>
+        <v>104.62233734130859</v>
       </c>
       <c r="D45">
-        <v>7.799859046936035</v>
+        <v>7.7998590469360352</v>
       </c>
       <c r="E45">
-        <v>-7.807891368865967</v>
+        <v>-7.8078913688659668</v>
       </c>
       <c r="F45">
-        <v>11.57226943969727</v>
+        <v>11.572269439697269</v>
       </c>
       <c r="G45">
         <v>7.830352783203125</v>
       </c>
       <c r="H45">
-        <v>-2.525716066360474</v>
+        <v>-2.5257160663604741</v>
       </c>
       <c r="I45">
         <v>-3.799691915512085</v>
       </c>
       <c r="J45">
-        <v>-4.678712844848633</v>
+        <v>-4.6787128448486328</v>
       </c>
       <c r="K45">
-        <v>-8.917608261108398</v>
+        <v>-8.9176082611083984</v>
       </c>
       <c r="L45">
-        <v>-9.332451820373535</v>
+        <v>-9.3324518203735352</v>
       </c>
       <c r="M45">
         <v>-3.494943380355835</v>
       </c>
       <c r="N45">
-        <v>-0.5880977511405945</v>
+        <v>-0.58809775114059448</v>
       </c>
       <c r="O45" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>59</v>
       </c>
       <c r="B46">
-        <v>-466.8227844238281</v>
+        <v>-466.82278442382813</v>
       </c>
       <c r="C46">
-        <v>102.5244293212891</v>
+        <v>102.52442932128911</v>
       </c>
       <c r="D46">
-        <v>-7.259897708892822</v>
+        <v>-7.2598977088928223</v>
       </c>
       <c r="E46">
-        <v>-23.58182144165039</v>
+        <v>-23.581821441650391</v>
       </c>
       <c r="F46">
-        <v>2.305550813674927</v>
+        <v>2.3055508136749272</v>
       </c>
       <c r="G46">
-        <v>1.573942065238953</v>
+        <v>1.5739420652389531</v>
       </c>
       <c r="H46">
         <v>-8.0810546875</v>
       </c>
       <c r="I46">
-        <v>-7.781360626220703</v>
+        <v>-7.7813606262207031</v>
       </c>
       <c r="J46">
-        <v>-6.664644241333008</v>
+        <v>-6.6646442413330078</v>
       </c>
       <c r="K46">
-        <v>-9.576534271240234</v>
+        <v>-9.5765342712402344</v>
       </c>
       <c r="L46">
-        <v>-11.63684272766113</v>
+        <v>-11.636842727661129</v>
       </c>
       <c r="M46">
-        <v>-8.219505310058594</v>
+        <v>-8.2195053100585938</v>
       </c>
       <c r="N46">
-        <v>-4.361252307891846</v>
+        <v>-4.3612523078918457</v>
       </c>
       <c r="O46" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>60</v>
       </c>
@@ -3030,22 +3049,22 @@
         <v>-573.42626953125</v>
       </c>
       <c r="C47">
-        <v>92.67989349365234</v>
+        <v>92.679893493652344</v>
       </c>
       <c r="D47">
-        <v>4.970691204071045</v>
+        <v>4.9706912040710449</v>
       </c>
       <c r="E47">
         <v>-16.0430793762207</v>
       </c>
       <c r="F47">
-        <v>-0.7876434922218323</v>
+        <v>-0.78764349222183228</v>
       </c>
       <c r="G47">
         <v>1.375015497207642</v>
       </c>
       <c r="H47">
-        <v>-5.528903007507324</v>
+        <v>-5.5289030075073242</v>
       </c>
       <c r="I47">
         <v>-11.23466205596924</v>
@@ -3057,30 +3076,30 @@
         <v>-10.85079383850098</v>
       </c>
       <c r="L47">
-        <v>-5.976968288421631</v>
+        <v>-5.9769682884216309</v>
       </c>
       <c r="M47">
         <v>-4.184516429901123</v>
       </c>
       <c r="N47">
-        <v>-4.521735191345215</v>
+        <v>-4.5217351913452148</v>
       </c>
       <c r="O47" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>61</v>
       </c>
       <c r="B48">
-        <v>-477.8903198242188</v>
+        <v>-477.89031982421881</v>
       </c>
       <c r="C48">
-        <v>90.28409576416016</v>
+        <v>90.284095764160156</v>
       </c>
       <c r="D48">
-        <v>5.039880275726318</v>
+        <v>5.0398802757263184</v>
       </c>
       <c r="E48">
         <v>-21.81935882568359</v>
@@ -3089,13 +3108,13 @@
         <v>-2.336316823959351</v>
       </c>
       <c r="G48">
-        <v>7.865769386291504</v>
+        <v>7.8657693862915039</v>
       </c>
       <c r="H48">
-        <v>0.5798043608665466</v>
+        <v>0.57980436086654663</v>
       </c>
       <c r="I48">
-        <v>-6.718936920166016</v>
+        <v>-6.7189369201660156</v>
       </c>
       <c r="J48">
         <v>-10.6816349029541</v>
@@ -3104,10 +3123,10 @@
         <v>-13.21717739105225</v>
       </c>
       <c r="L48">
-        <v>-11.57352161407471</v>
+        <v>-11.573521614074711</v>
       </c>
       <c r="M48">
-        <v>-6.521224498748779</v>
+        <v>-6.5212244987487793</v>
       </c>
       <c r="N48">
         <v>-4.106600284576416</v>
@@ -3116,7 +3135,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="49" spans="1:15">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>62</v>
       </c>
@@ -3124,140 +3143,140 @@
         <v>-629.1240234375</v>
       </c>
       <c r="C49">
-        <v>95.56871032714844</v>
+        <v>95.568710327148438</v>
       </c>
       <c r="D49">
-        <v>8.672991752624512</v>
+        <v>8.6729917526245117</v>
       </c>
       <c r="E49">
         <v>-14.27839183807373</v>
       </c>
       <c r="F49">
-        <v>4.446613788604736</v>
+        <v>4.4466137886047363</v>
       </c>
       <c r="G49">
-        <v>8.65749454498291</v>
+        <v>8.6574945449829102</v>
       </c>
       <c r="H49">
-        <v>-1.592551827430725</v>
+        <v>-1.5925518274307251</v>
       </c>
       <c r="I49">
-        <v>-6.555385589599609</v>
+        <v>-6.5553855895996094</v>
       </c>
       <c r="J49">
-        <v>-5.954439163208008</v>
+        <v>-5.9544391632080078</v>
       </c>
       <c r="K49">
         <v>-7.623776912689209</v>
       </c>
       <c r="L49">
-        <v>-9.66609001159668</v>
+        <v>-9.6660900115966797</v>
       </c>
       <c r="M49">
-        <v>-5.287960529327393</v>
+        <v>-5.2879605293273926</v>
       </c>
       <c r="N49">
-        <v>0.02070572972297668</v>
+        <v>2.0705729722976681E-2</v>
       </c>
       <c r="O49" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="50" spans="1:15">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>63</v>
       </c>
       <c r="B50">
-        <v>-628.2548217773438</v>
+        <v>-628.25482177734375</v>
       </c>
       <c r="C50">
-        <v>91.96884155273438</v>
+        <v>91.968841552734375</v>
       </c>
       <c r="D50">
-        <v>5.446516990661621</v>
+        <v>5.4465169906616211</v>
       </c>
       <c r="E50">
         <v>-11.772292137146</v>
       </c>
       <c r="F50">
-        <v>6.835836887359619</v>
+        <v>6.8358368873596191</v>
       </c>
       <c r="G50">
-        <v>6.009445190429688</v>
+        <v>6.0094451904296884</v>
       </c>
       <c r="H50">
-        <v>-3.300941467285156</v>
+        <v>-3.3009414672851558</v>
       </c>
       <c r="I50">
-        <v>-4.336995124816895</v>
+        <v>-4.3369951248168954</v>
       </c>
       <c r="J50">
-        <v>-4.155300617218018</v>
+        <v>-4.1553006172180176</v>
       </c>
       <c r="K50">
-        <v>-6.841960906982422</v>
+        <v>-6.8419609069824219</v>
       </c>
       <c r="L50">
-        <v>-7.870561599731445</v>
+        <v>-7.8705615997314453</v>
       </c>
       <c r="M50">
-        <v>-4.517005920410156</v>
+        <v>-4.5170059204101563</v>
       </c>
       <c r="N50">
-        <v>-1.642508506774902</v>
+        <v>-1.6425085067749019</v>
       </c>
       <c r="O50" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="51" spans="1:15">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>64</v>
       </c>
       <c r="B51">
-        <v>-689.9152221679688</v>
+        <v>-689.91522216796875</v>
       </c>
       <c r="C51">
-        <v>94.24625396728516</v>
+        <v>94.246253967285156</v>
       </c>
       <c r="D51">
-        <v>11.21822071075439</v>
+        <v>11.218220710754389</v>
       </c>
       <c r="E51">
-        <v>-8.928920745849609</v>
+        <v>-8.9289207458496094</v>
       </c>
       <c r="F51">
-        <v>8.974459648132324</v>
+        <v>8.9744596481323242</v>
       </c>
       <c r="G51">
-        <v>9.460305213928223</v>
+        <v>9.4603052139282227</v>
       </c>
       <c r="H51">
         <v>-2.150776624679565</v>
       </c>
       <c r="I51">
-        <v>-5.134289741516113</v>
+        <v>-5.1342897415161133</v>
       </c>
       <c r="J51">
-        <v>-4.682132244110107</v>
+        <v>-4.6821322441101074</v>
       </c>
       <c r="K51">
-        <v>-7.944869041442871</v>
+        <v>-7.9448690414428711</v>
       </c>
       <c r="L51">
-        <v>-8.698369979858398</v>
+        <v>-8.6983699798583984</v>
       </c>
       <c r="M51">
-        <v>-4.10451602935791</v>
+        <v>-4.1045160293579102</v>
       </c>
       <c r="N51">
-        <v>-1.725597381591797</v>
+        <v>-1.7255973815917971</v>
       </c>
       <c r="O51" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="52" spans="1:15">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>65</v>
       </c>
@@ -3265,46 +3284,46 @@
         <v>-551.946044921875</v>
       </c>
       <c r="C52">
-        <v>120.8339996337891</v>
+        <v>120.83399963378911</v>
       </c>
       <c r="D52">
-        <v>-3.083616018295288</v>
+        <v>-3.0836160182952881</v>
       </c>
       <c r="E52">
-        <v>-15.25075435638428</v>
+        <v>-15.250754356384279</v>
       </c>
       <c r="F52">
-        <v>12.45151138305664</v>
+        <v>12.451511383056641</v>
       </c>
       <c r="G52">
-        <v>5.162042617797852</v>
+        <v>5.1620426177978516</v>
       </c>
       <c r="H52">
-        <v>-7.990063190460205</v>
+        <v>-7.9900631904602051</v>
       </c>
       <c r="I52">
-        <v>-5.632952690124512</v>
+        <v>-5.6329526901245117</v>
       </c>
       <c r="J52">
-        <v>-2.412765979766846</v>
+        <v>-2.4127659797668461</v>
       </c>
       <c r="K52">
-        <v>-7.834633350372314</v>
+        <v>-7.8346333503723136</v>
       </c>
       <c r="L52">
         <v>-11.49048328399658</v>
       </c>
       <c r="M52">
-        <v>-5.036823272705078</v>
+        <v>-5.0368232727050781</v>
       </c>
       <c r="N52">
-        <v>-1.005486488342285</v>
+        <v>-1.0054864883422849</v>
       </c>
       <c r="O52" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="53" spans="1:15">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>66</v>
       </c>
@@ -3318,31 +3337,31 @@
         <v>9.167510986328125</v>
       </c>
       <c r="E53">
-        <v>-14.93184566497803</v>
+        <v>-14.931845664978029</v>
       </c>
       <c r="F53">
-        <v>7.805480480194092</v>
+        <v>7.8054804801940918</v>
       </c>
       <c r="G53">
-        <v>9.533634185791016</v>
+        <v>9.5336341857910156</v>
       </c>
       <c r="H53">
-        <v>-4.203392028808594</v>
+        <v>-4.2033920288085938</v>
       </c>
       <c r="I53">
-        <v>-8.849608421325684</v>
+        <v>-8.8496084213256836</v>
       </c>
       <c r="J53">
-        <v>-5.997564792633057</v>
+        <v>-5.9975647926330566</v>
       </c>
       <c r="K53">
-        <v>-6.438222885131836</v>
+        <v>-6.4382228851318359</v>
       </c>
       <c r="L53">
-        <v>-10.43036079406738</v>
+        <v>-10.430360794067379</v>
       </c>
       <c r="M53">
-        <v>-8.85471248626709</v>
+        <v>-8.8547124862670898</v>
       </c>
       <c r="N53">
         <v>-2.990902185440063</v>
@@ -3351,7 +3370,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="54" spans="1:15">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>67</v>
       </c>
@@ -3362,43 +3381,43 @@
         <v>118.089485168457</v>
       </c>
       <c r="D54">
-        <v>-0.1866976916790009</v>
+        <v>-0.18669769167900091</v>
       </c>
       <c r="E54">
-        <v>-16.25811576843262</v>
+        <v>-16.258115768432621</v>
       </c>
       <c r="F54">
-        <v>9.714603424072266</v>
+        <v>9.7146034240722656</v>
       </c>
       <c r="G54">
-        <v>6.651180267333984</v>
+        <v>6.6511802673339844</v>
       </c>
       <c r="H54">
-        <v>-5.461556434631348</v>
+        <v>-5.4615564346313477</v>
       </c>
       <c r="I54">
-        <v>-8.888535499572754</v>
+        <v>-8.8885354995727539</v>
       </c>
       <c r="J54">
-        <v>-8.06535530090332</v>
+        <v>-8.0653553009033203</v>
       </c>
       <c r="K54">
-        <v>-8.907956123352051</v>
+        <v>-8.9079561233520508</v>
       </c>
       <c r="L54">
         <v>-11.95407295227051</v>
       </c>
       <c r="M54">
-        <v>-7.116512298583984</v>
+        <v>-7.1165122985839844</v>
       </c>
       <c r="N54">
-        <v>-0.2470782548189163</v>
+        <v>-0.24707825481891629</v>
       </c>
       <c r="O54" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="55" spans="1:15">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>68</v>
       </c>
@@ -3406,10 +3425,10 @@
         <v>-655.13818359375</v>
       </c>
       <c r="C55">
-        <v>110.3877563476562</v>
+        <v>110.38775634765619</v>
       </c>
       <c r="D55">
-        <v>5.777483940124512</v>
+        <v>5.7774839401245117</v>
       </c>
       <c r="E55">
         <v>-10.94571685791016</v>
@@ -3418,81 +3437,81 @@
         <v>11.14215183258057</v>
       </c>
       <c r="G55">
-        <v>7.342621326446533</v>
+        <v>7.3426213264465332</v>
       </c>
       <c r="H55">
         <v>-4.457341194152832</v>
       </c>
       <c r="I55">
-        <v>-5.545713901519775</v>
+        <v>-5.5457139015197754</v>
       </c>
       <c r="J55">
-        <v>-5.525403022766113</v>
+        <v>-5.5254030227661133</v>
       </c>
       <c r="K55">
-        <v>-9.676124572753906</v>
+        <v>-9.6761245727539063</v>
       </c>
       <c r="L55">
-        <v>-11.10547637939453</v>
+        <v>-11.105476379394529</v>
       </c>
       <c r="M55">
-        <v>-5.819180011749268</v>
+        <v>-5.8191800117492676</v>
       </c>
       <c r="N55">
-        <v>-1.96591854095459</v>
+        <v>-1.9659185409545901</v>
       </c>
       <c r="O55" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="56" spans="1:15">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>69</v>
       </c>
       <c r="B56">
-        <v>-686.4758911132812</v>
+        <v>-686.47589111328125</v>
       </c>
       <c r="C56">
-        <v>114.6708755493164</v>
+        <v>114.67087554931641</v>
       </c>
       <c r="D56">
-        <v>20.80254173278809</v>
+        <v>20.802541732788089</v>
       </c>
       <c r="E56">
-        <v>-6.957205772399902</v>
+        <v>-6.9572057723999023</v>
       </c>
       <c r="F56">
-        <v>8.442903518676758</v>
+        <v>8.4429035186767578</v>
       </c>
       <c r="G56">
-        <v>10.18507862091064</v>
+        <v>10.185078620910639</v>
       </c>
       <c r="H56">
-        <v>0.2072363048791885</v>
+        <v>0.20723630487918851</v>
       </c>
       <c r="I56">
-        <v>-4.973252773284912</v>
+        <v>-4.9732527732849121</v>
       </c>
       <c r="J56">
-        <v>-9.193906784057617</v>
+        <v>-9.1939067840576172</v>
       </c>
       <c r="K56">
-        <v>-13.74483394622803</v>
+        <v>-13.744833946228029</v>
       </c>
       <c r="L56">
-        <v>-11.56893539428711</v>
+        <v>-11.568935394287109</v>
       </c>
       <c r="M56">
-        <v>-4.775851726531982</v>
+        <v>-4.7758517265319824</v>
       </c>
       <c r="N56">
-        <v>-2.385403633117676</v>
+        <v>-2.3854036331176758</v>
       </c>
       <c r="O56" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="57" spans="1:15">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>70</v>
       </c>
@@ -3500,37 +3519,37 @@
         <v>-554.143798828125</v>
       </c>
       <c r="C57">
-        <v>117.1950073242188</v>
+        <v>117.19500732421881</v>
       </c>
       <c r="D57">
-        <v>0.895857036113739</v>
+        <v>0.89585703611373901</v>
       </c>
       <c r="E57">
-        <v>-17.14739608764648</v>
+        <v>-17.147396087646481</v>
       </c>
       <c r="F57">
-        <v>10.53898620605469</v>
+        <v>10.538986206054689</v>
       </c>
       <c r="G57">
         <v>6.487581729888916</v>
       </c>
       <c r="H57">
-        <v>-7.514570236206055</v>
+        <v>-7.5145702362060547</v>
       </c>
       <c r="I57">
-        <v>-5.15293550491333</v>
+        <v>-5.1529355049133301</v>
       </c>
       <c r="J57">
-        <v>-0.8687857389450073</v>
+        <v>-0.86878573894500732</v>
       </c>
       <c r="K57">
-        <v>-4.234766006469727</v>
+        <v>-4.2347660064697266</v>
       </c>
       <c r="L57">
-        <v>-7.648736953735352</v>
+        <v>-7.6487369537353516</v>
       </c>
       <c r="M57">
-        <v>-4.990651607513428</v>
+        <v>-4.9906516075134277</v>
       </c>
       <c r="N57">
         <v>-1.466683149337769</v>
@@ -3539,101 +3558,101 @@
         <v>158</v>
       </c>
     </row>
-    <row r="58" spans="1:15">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>71</v>
       </c>
       <c r="B58">
-        <v>-631.5912475585938</v>
+        <v>-631.59124755859375</v>
       </c>
       <c r="C58">
         <v>116.0398483276367</v>
       </c>
       <c r="D58">
-        <v>5.339461803436279</v>
+        <v>5.3394618034362793</v>
       </c>
       <c r="E58">
-        <v>-16.35742568969727</v>
+        <v>-16.357425689697269</v>
       </c>
       <c r="F58">
-        <v>9.661428451538086</v>
+        <v>9.6614284515380859</v>
       </c>
       <c r="G58">
-        <v>8.006540298461914</v>
+        <v>8.0065402984619141</v>
       </c>
       <c r="H58">
-        <v>-7.875346183776855</v>
+        <v>-7.8753461837768546</v>
       </c>
       <c r="I58">
-        <v>-9.346081733703613</v>
+        <v>-9.3460817337036133</v>
       </c>
       <c r="J58">
-        <v>-5.419115543365479</v>
+        <v>-5.4191155433654794</v>
       </c>
       <c r="K58">
-        <v>-8.088153839111328</v>
+        <v>-8.0881538391113281</v>
       </c>
       <c r="L58">
         <v>-11.26127910614014</v>
       </c>
       <c r="M58">
-        <v>-6.967031002044678</v>
+        <v>-6.9670310020446777</v>
       </c>
       <c r="N58">
-        <v>-2.290415287017822</v>
+        <v>-2.2904152870178218</v>
       </c>
       <c r="O58" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="59" spans="1:15">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>72</v>
       </c>
       <c r="B59">
-        <v>-622.7750854492188</v>
+        <v>-622.77508544921875</v>
       </c>
       <c r="C59">
         <v>120.8256149291992</v>
       </c>
       <c r="D59">
-        <v>2.546026706695557</v>
+        <v>2.5460267066955571</v>
       </c>
       <c r="E59">
         <v>-17.92115592956543</v>
       </c>
       <c r="F59">
-        <v>9.467881202697754</v>
+        <v>9.4678812026977539</v>
       </c>
       <c r="G59">
         <v>8.060307502746582</v>
       </c>
       <c r="H59">
-        <v>-7.04064416885376</v>
+        <v>-7.0406441688537598</v>
       </c>
       <c r="I59">
-        <v>-9.684050559997559</v>
+        <v>-9.6840505599975586</v>
       </c>
       <c r="J59">
-        <v>-6.177967071533203</v>
+        <v>-6.1779670715332031</v>
       </c>
       <c r="K59">
-        <v>-8.757323265075684</v>
+        <v>-8.7573232650756836</v>
       </c>
       <c r="L59">
-        <v>-12.98917102813721</v>
+        <v>-12.989171028137211</v>
       </c>
       <c r="M59">
         <v>-6.685150146484375</v>
       </c>
       <c r="N59">
-        <v>0.1485591381788254</v>
+        <v>0.14855913817882541</v>
       </c>
       <c r="O59" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="60" spans="1:15">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>73</v>
       </c>
@@ -3644,95 +3663,95 @@
         <v>116.2307815551758</v>
       </c>
       <c r="D60">
-        <v>4.414786338806152</v>
+        <v>4.4147863388061523</v>
       </c>
       <c r="E60">
-        <v>-15.69579315185547</v>
+        <v>-15.695793151855471</v>
       </c>
       <c r="F60">
-        <v>9.630264282226562</v>
+        <v>9.6302642822265625</v>
       </c>
       <c r="G60">
         <v>8.686039924621582</v>
       </c>
       <c r="H60">
-        <v>-5.184964179992676</v>
+        <v>-5.1849641799926758</v>
       </c>
       <c r="I60">
-        <v>-7.779262542724609</v>
+        <v>-7.7792625427246094</v>
       </c>
       <c r="J60">
-        <v>-5.616257667541504</v>
+        <v>-5.6162576675415039</v>
       </c>
       <c r="K60">
-        <v>-9.640732765197754</v>
+        <v>-9.6407327651977539</v>
       </c>
       <c r="L60">
-        <v>-13.39864730834961</v>
+        <v>-13.398647308349609</v>
       </c>
       <c r="M60">
-        <v>-6.950762271881104</v>
+        <v>-6.9507622718811044</v>
       </c>
       <c r="N60">
-        <v>-1.129044532775879</v>
+        <v>-1.1290445327758789</v>
       </c>
       <c r="O60" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="61" spans="1:15">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>74</v>
       </c>
       <c r="B61">
-        <v>-679.4548950195312</v>
+        <v>-679.45489501953125</v>
       </c>
       <c r="C61">
         <v>113.2853698730469</v>
       </c>
       <c r="D61">
-        <v>19.46786499023438</v>
+        <v>19.467864990234379</v>
       </c>
       <c r="E61">
-        <v>-8.665903091430664</v>
+        <v>-8.6659030914306641</v>
       </c>
       <c r="F61">
-        <v>7.855478763580322</v>
+        <v>7.8554787635803223</v>
       </c>
       <c r="G61">
-        <v>9.446945190429688</v>
+        <v>9.4469451904296875</v>
       </c>
       <c r="H61">
-        <v>-2.157731533050537</v>
+        <v>-2.1577315330505371</v>
       </c>
       <c r="I61">
-        <v>-5.924516677856445</v>
+        <v>-5.9245166778564453</v>
       </c>
       <c r="J61">
-        <v>-6.332886219024658</v>
+        <v>-6.3328862190246582</v>
       </c>
       <c r="K61">
-        <v>-10.26478004455566</v>
+        <v>-10.264780044555661</v>
       </c>
       <c r="L61">
         <v>-12.10801982879639</v>
       </c>
       <c r="M61">
-        <v>-8.540922164916992</v>
+        <v>-8.5409221649169922</v>
       </c>
       <c r="N61">
-        <v>-4.297303199768066</v>
+        <v>-4.2973031997680664</v>
       </c>
       <c r="O61" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="62" spans="1:15">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>75</v>
       </c>
       <c r="B62">
-        <v>-525.5722045898438</v>
+        <v>-525.57220458984375</v>
       </c>
       <c r="C62">
         <v>109.3502197265625</v>
@@ -3741,40 +3760,40 @@
         <v>2.890671968460083</v>
       </c>
       <c r="E62">
-        <v>-13.86553764343262</v>
+        <v>-13.865537643432621</v>
       </c>
       <c r="F62">
-        <v>9.253619194030762</v>
+        <v>9.2536191940307617</v>
       </c>
       <c r="G62">
-        <v>4.416027545928955</v>
+        <v>4.4160275459289551</v>
       </c>
       <c r="H62">
-        <v>-8.130348205566406</v>
+        <v>-8.1303482055664063</v>
       </c>
       <c r="I62">
-        <v>-6.284925937652588</v>
+        <v>-6.2849259376525879</v>
       </c>
       <c r="J62">
-        <v>-2.240660905838013</v>
+        <v>-2.2406609058380131</v>
       </c>
       <c r="K62">
-        <v>-5.773948669433594</v>
+        <v>-5.7739486694335938</v>
       </c>
       <c r="L62">
         <v>-10.27670288085938</v>
       </c>
       <c r="M62">
-        <v>-7.376398086547852</v>
+        <v>-7.3763980865478516</v>
       </c>
       <c r="N62">
-        <v>-3.208591938018799</v>
+        <v>-3.2085919380187988</v>
       </c>
       <c r="O62" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="63" spans="1:15">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>76</v>
       </c>
@@ -3785,43 +3804,43 @@
         <v>116.2255325317383</v>
       </c>
       <c r="D63">
-        <v>8.268393516540527</v>
+        <v>8.2683935165405273</v>
       </c>
       <c r="E63">
-        <v>-16.27487564086914</v>
+        <v>-16.274875640869141</v>
       </c>
       <c r="F63">
-        <v>8.93943977355957</v>
+        <v>8.9394397735595703</v>
       </c>
       <c r="G63">
         <v>10.0687198638916</v>
       </c>
       <c r="H63">
-        <v>-5.580851554870605</v>
+        <v>-5.5808515548706046</v>
       </c>
       <c r="I63">
-        <v>-9.835829734802246</v>
+        <v>-9.8358297348022461</v>
       </c>
       <c r="J63">
-        <v>-8.16452693939209</v>
+        <v>-8.1645269393920898</v>
       </c>
       <c r="K63">
         <v>-11.17806911468506</v>
       </c>
       <c r="L63">
-        <v>-13.46085643768311</v>
+        <v>-13.460856437683111</v>
       </c>
       <c r="M63">
-        <v>-7.669399261474609</v>
+        <v>-7.6693992614746094</v>
       </c>
       <c r="N63">
-        <v>-1.003647208213806</v>
+        <v>-1.0036472082138059</v>
       </c>
       <c r="O63" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="64" spans="1:15">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>77</v>
       </c>
@@ -3832,28 +3851,28 @@
         <v>107.857063293457</v>
       </c>
       <c r="D64">
-        <v>5.893554210662842</v>
+        <v>5.8935542106628418</v>
       </c>
       <c r="E64">
         <v>-15.40201568603516</v>
       </c>
       <c r="F64">
-        <v>5.353312492370605</v>
+        <v>5.3533124923706046</v>
       </c>
       <c r="G64">
-        <v>6.004898548126221</v>
+        <v>6.0048985481262207</v>
       </c>
       <c r="H64">
-        <v>-5.411924839019775</v>
+        <v>-5.4119248390197754</v>
       </c>
       <c r="I64">
-        <v>-9.894843101501465</v>
+        <v>-9.8948431015014648</v>
       </c>
       <c r="J64">
-        <v>-8.117015838623047</v>
+        <v>-8.1170158386230469</v>
       </c>
       <c r="K64">
-        <v>-8.738839149475098</v>
+        <v>-8.7388391494750977</v>
       </c>
       <c r="L64">
         <v>-11.522292137146</v>
@@ -3862,51 +3881,51 @@
         <v>-6.267730712890625</v>
       </c>
       <c r="N64">
-        <v>0.08152953535318375</v>
+        <v>8.1529535353183746E-2</v>
       </c>
       <c r="O64" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="65" spans="1:15">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>78</v>
       </c>
       <c r="B65">
-        <v>-658.3076782226562</v>
+        <v>-658.30767822265625</v>
       </c>
       <c r="C65">
         <v>116.7070846557617</v>
       </c>
       <c r="D65">
-        <v>2.204977989196777</v>
+        <v>2.2049779891967769</v>
       </c>
       <c r="E65">
-        <v>-14.01230812072754</v>
+        <v>-14.012308120727541</v>
       </c>
       <c r="F65">
-        <v>11.30472660064697</v>
+        <v>11.304726600646971</v>
       </c>
       <c r="G65">
-        <v>7.645709991455078</v>
+        <v>7.6457099914550781</v>
       </c>
       <c r="H65">
-        <v>-4.492865085601807</v>
+        <v>-4.4928650856018066</v>
       </c>
       <c r="I65">
-        <v>-6.695123672485352</v>
+        <v>-6.6951236724853516</v>
       </c>
       <c r="J65">
-        <v>-7.202394008636475</v>
+        <v>-7.2023940086364746</v>
       </c>
       <c r="K65">
-        <v>-10.35036277770996</v>
+        <v>-10.350362777709959</v>
       </c>
       <c r="L65">
-        <v>-11.76296043395996</v>
+        <v>-11.762960433959959</v>
       </c>
       <c r="M65">
-        <v>-5.448349952697754</v>
+        <v>-5.4483499526977539</v>
       </c>
       <c r="N65">
         <v>0.1005182936787605</v>
@@ -3915,7 +3934,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="66" spans="1:15">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>79</v>
       </c>
@@ -3923,84 +3942,84 @@
         <v>-640.2132568359375</v>
       </c>
       <c r="C66">
-        <v>114.7362289428711</v>
+        <v>114.73622894287109</v>
       </c>
       <c r="D66">
-        <v>10.12145614624023</v>
+        <v>10.121456146240231</v>
       </c>
       <c r="E66">
-        <v>-12.5333080291748</v>
+        <v>-12.533308029174799</v>
       </c>
       <c r="F66">
-        <v>8.34662914276123</v>
+        <v>8.3466291427612305</v>
       </c>
       <c r="G66">
-        <v>6.648970127105713</v>
+        <v>6.6489701271057129</v>
       </c>
       <c r="H66">
-        <v>-5.005630016326904</v>
+        <v>-5.0056300163269043</v>
       </c>
       <c r="I66">
         <v>-5.511533260345459</v>
       </c>
       <c r="J66">
-        <v>-5.767886638641357</v>
+        <v>-5.7678866386413574</v>
       </c>
       <c r="K66">
-        <v>-12.10125541687012</v>
+        <v>-12.101255416870121</v>
       </c>
       <c r="L66">
-        <v>-13.57628440856934</v>
+        <v>-13.576284408569339</v>
       </c>
       <c r="M66">
-        <v>-6.656022548675537</v>
+        <v>-6.6560225486755371</v>
       </c>
       <c r="N66">
-        <v>-2.233827829360962</v>
+        <v>-2.2338278293609619</v>
       </c>
       <c r="O66" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="67" spans="1:15">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>80</v>
       </c>
       <c r="B67">
-        <v>-565.0560913085938</v>
+        <v>-565.05609130859375</v>
       </c>
       <c r="C67">
         <v>120.5460586547852</v>
       </c>
       <c r="D67">
-        <v>-1.411228775978088</v>
+        <v>-1.4112287759780879</v>
       </c>
       <c r="E67">
-        <v>-16.41695213317871</v>
+        <v>-16.416952133178711</v>
       </c>
       <c r="F67">
-        <v>11.63525581359863</v>
+        <v>11.635255813598629</v>
       </c>
       <c r="G67">
-        <v>3.222606658935547</v>
+        <v>3.2226066589355469</v>
       </c>
       <c r="H67">
         <v>-10.37705135345459</v>
       </c>
       <c r="I67">
-        <v>-5.029685974121094</v>
+        <v>-5.0296859741210938</v>
       </c>
       <c r="J67">
         <v>-1.936660528182983</v>
       </c>
       <c r="K67">
-        <v>-6.949540138244629</v>
+        <v>-6.9495401382446289</v>
       </c>
       <c r="L67">
-        <v>-8.212431907653809</v>
+        <v>-8.2124319076538086</v>
       </c>
       <c r="M67">
-        <v>-4.0245041847229</v>
+        <v>-4.0245041847229004</v>
       </c>
       <c r="N67">
         <v>-2.215397834777832</v>
@@ -4009,101 +4028,101 @@
         <v>158</v>
       </c>
     </row>
-    <row r="68" spans="1:15">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>81</v>
       </c>
       <c r="B68">
-        <v>-655.4281616210938</v>
+        <v>-655.42816162109375</v>
       </c>
       <c r="C68">
-        <v>117.1377944946289</v>
+        <v>117.13779449462891</v>
       </c>
       <c r="D68">
-        <v>4.455345153808594</v>
+        <v>4.4553451538085938</v>
       </c>
       <c r="E68">
-        <v>-16.84619522094727</v>
+        <v>-16.846195220947269</v>
       </c>
       <c r="F68">
         <v>10.05861663818359</v>
       </c>
       <c r="G68">
-        <v>8.046734809875488</v>
+        <v>8.0467348098754883</v>
       </c>
       <c r="H68">
-        <v>-7.838040351867676</v>
+        <v>-7.8380403518676758</v>
       </c>
       <c r="I68">
-        <v>-8.341265678405762</v>
+        <v>-8.3412656784057617</v>
       </c>
       <c r="J68">
-        <v>-4.579712390899658</v>
+        <v>-4.5797123908996582</v>
       </c>
       <c r="K68">
-        <v>-9.10004997253418</v>
+        <v>-9.1000499725341797</v>
       </c>
       <c r="L68">
         <v>-13.26296806335449</v>
       </c>
       <c r="M68">
-        <v>-7.52617883682251</v>
+        <v>-7.5261788368225098</v>
       </c>
       <c r="N68">
-        <v>-0.9208493828773499</v>
+        <v>-0.92084938287734985</v>
       </c>
       <c r="O68" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="69" spans="1:15">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>82</v>
       </c>
       <c r="B69">
-        <v>-624.1361694335938</v>
+        <v>-624.13616943359375</v>
       </c>
       <c r="C69">
-        <v>128.9230499267578</v>
+        <v>128.92304992675781</v>
       </c>
       <c r="D69">
-        <v>4.203553199768066</v>
+        <v>4.2035531997680664</v>
       </c>
       <c r="E69">
-        <v>-19.68180847167969</v>
+        <v>-19.681808471679691</v>
       </c>
       <c r="F69">
         <v>10.51578330993652</v>
       </c>
       <c r="G69">
-        <v>11.20615482330322</v>
+        <v>11.206154823303221</v>
       </c>
       <c r="H69">
-        <v>-6.086726665496826</v>
+        <v>-6.0867266654968262</v>
       </c>
       <c r="I69">
-        <v>-10.23622131347656</v>
+        <v>-10.236221313476561</v>
       </c>
       <c r="J69">
-        <v>-6.315536499023438</v>
+        <v>-6.3155364990234384</v>
       </c>
       <c r="K69">
-        <v>-9.230451583862305</v>
+        <v>-9.2304515838623047</v>
       </c>
       <c r="L69">
         <v>-13.97322845458984</v>
       </c>
       <c r="M69">
-        <v>-7.186348915100098</v>
+        <v>-7.1863489151000977</v>
       </c>
       <c r="N69">
-        <v>0.036569993942976</v>
+        <v>3.6569993942975998E-2</v>
       </c>
       <c r="O69" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="70" spans="1:15">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>83</v>
       </c>
@@ -4117,22 +4136,22 @@
         <v>3.842246294021606</v>
       </c>
       <c r="E70">
-        <v>-17.00271797180176</v>
+        <v>-17.002717971801761</v>
       </c>
       <c r="F70">
         <v>10.45376586914062</v>
       </c>
       <c r="G70">
-        <v>9.079379081726074</v>
+        <v>9.0793790817260742</v>
       </c>
       <c r="H70">
-        <v>-6.955304622650146</v>
+        <v>-6.9553046226501456</v>
       </c>
       <c r="I70">
-        <v>-8.034704208374023</v>
+        <v>-8.0347042083740234</v>
       </c>
       <c r="J70">
-        <v>-5.100634098052979</v>
+        <v>-5.1006340980529794</v>
       </c>
       <c r="K70">
         <v>-9.8253173828125</v>
@@ -4150,7 +4169,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="71" spans="1:15">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>84</v>
       </c>
@@ -4167,84 +4186,84 @@
         <v>-11.73721504211426</v>
       </c>
       <c r="F71">
-        <v>10.33281517028809</v>
+        <v>10.332815170288089</v>
       </c>
       <c r="G71">
-        <v>8.192758560180664</v>
+        <v>8.1927585601806641</v>
       </c>
       <c r="H71">
-        <v>-6.9532151222229</v>
+        <v>-6.9532151222229004</v>
       </c>
       <c r="I71">
-        <v>-7.33535099029541</v>
+        <v>-7.3353509902954102</v>
       </c>
       <c r="J71">
-        <v>-4.988522529602051</v>
+        <v>-4.9885225296020508</v>
       </c>
       <c r="K71">
         <v>-10.80860042572021</v>
       </c>
       <c r="L71">
-        <v>-13.71560192108154</v>
+        <v>-13.715601921081539</v>
       </c>
       <c r="M71">
-        <v>-8.629569053649902</v>
+        <v>-8.6295690536499023</v>
       </c>
       <c r="N71">
-        <v>-4.050000667572021</v>
+        <v>-4.0500006675720206</v>
       </c>
       <c r="O71" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="72" spans="1:15">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>85</v>
       </c>
       <c r="B72">
-        <v>-479.8439636230469</v>
+        <v>-479.84396362304688</v>
       </c>
       <c r="C72">
-        <v>131.6950225830078</v>
+        <v>131.69502258300781</v>
       </c>
       <c r="D72">
-        <v>-5.648481369018555</v>
+        <v>-5.6484813690185547</v>
       </c>
       <c r="E72">
-        <v>-26.49615669250488</v>
+        <v>-26.496156692504879</v>
       </c>
       <c r="F72">
-        <v>4.459750175476074</v>
+        <v>4.4597501754760742</v>
       </c>
       <c r="G72">
-        <v>6.004079341888428</v>
+        <v>6.0040793418884277</v>
       </c>
       <c r="H72">
-        <v>-6.587292194366455</v>
+        <v>-6.5872921943664551</v>
       </c>
       <c r="I72">
-        <v>-10.32966804504395</v>
+        <v>-10.329668045043951</v>
       </c>
       <c r="J72">
-        <v>-8.792357444763184</v>
+        <v>-8.7923574447631836</v>
       </c>
       <c r="K72">
-        <v>-12.43561553955078</v>
+        <v>-12.435615539550779</v>
       </c>
       <c r="L72">
-        <v>-14.33052539825439</v>
+        <v>-14.330525398254389</v>
       </c>
       <c r="M72">
         <v>-5.24005126953125</v>
       </c>
       <c r="N72">
-        <v>-0.04357766360044479</v>
+        <v>-4.3577663600444787E-2</v>
       </c>
       <c r="O72" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="73" spans="1:15">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>86</v>
       </c>
@@ -4255,25 +4274,25 @@
         <v>113.3044891357422</v>
       </c>
       <c r="D73">
-        <v>2.127963066101074</v>
+        <v>2.1279630661010742</v>
       </c>
       <c r="E73">
-        <v>-20.08273696899414</v>
+        <v>-20.082736968994141</v>
       </c>
       <c r="F73">
         <v>7.964970588684082</v>
       </c>
       <c r="G73">
-        <v>11.42812824249268</v>
+        <v>11.428128242492679</v>
       </c>
       <c r="H73">
         <v>-3.228728055953979</v>
       </c>
       <c r="I73">
-        <v>-8.830497741699219</v>
+        <v>-8.8304977416992188</v>
       </c>
       <c r="J73">
-        <v>-8.034408569335938</v>
+        <v>-8.0344085693359375</v>
       </c>
       <c r="K73">
         <v>-11.10106182098389</v>
@@ -4282,7 +4301,7 @@
         <v>-13.07141590118408</v>
       </c>
       <c r="M73">
-        <v>-6.682916641235352</v>
+        <v>-6.6829166412353516</v>
       </c>
       <c r="N73">
         <v>-1.20299768447876</v>
@@ -4291,59 +4310,59 @@
         <v>154</v>
       </c>
     </row>
-    <row r="74" spans="1:15">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>87</v>
       </c>
       <c r="B74">
-        <v>-535.1483764648438</v>
+        <v>-535.14837646484375</v>
       </c>
       <c r="C74">
-        <v>113.1308364868164</v>
+        <v>113.13083648681641</v>
       </c>
       <c r="D74">
-        <v>0.1498759835958481</v>
+        <v>0.14987598359584811</v>
       </c>
       <c r="E74">
         <v>-19.1635856628418</v>
       </c>
       <c r="F74">
-        <v>7.784899234771729</v>
+        <v>7.7848992347717294</v>
       </c>
       <c r="G74">
-        <v>6.407764434814453</v>
+        <v>6.4077644348144531</v>
       </c>
       <c r="H74">
-        <v>-9.574684143066406</v>
+        <v>-9.5746841430664063</v>
       </c>
       <c r="I74">
-        <v>-13.51733112335205</v>
+        <v>-13.517331123352051</v>
       </c>
       <c r="J74">
-        <v>-9.113383293151855</v>
+        <v>-9.1133832931518555</v>
       </c>
       <c r="K74">
         <v>-8.764073371887207</v>
       </c>
       <c r="L74">
-        <v>-12.14627552032471</v>
+        <v>-12.146275520324711</v>
       </c>
       <c r="M74">
-        <v>-7.64403247833252</v>
+        <v>-7.6440324783325204</v>
       </c>
       <c r="N74">
-        <v>-1.173835635185242</v>
+        <v>-1.1738356351852419</v>
       </c>
       <c r="O74" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="75" spans="1:15">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>88</v>
       </c>
       <c r="B75">
-        <v>-607.5016479492188</v>
+        <v>-607.50164794921875</v>
       </c>
       <c r="C75">
         <v>113.5158615112305</v>
@@ -4352,60 +4371,60 @@
         <v>3.491425514221191</v>
       </c>
       <c r="E75">
-        <v>-17.02379989624023</v>
+        <v>-17.023799896240231</v>
       </c>
       <c r="F75">
-        <v>8.096395492553711</v>
+        <v>8.0963954925537109</v>
       </c>
       <c r="G75">
-        <v>7.873996734619141</v>
+        <v>7.8739967346191406</v>
       </c>
       <c r="H75">
-        <v>-5.289663791656494</v>
+        <v>-5.2896637916564941</v>
       </c>
       <c r="I75">
-        <v>-8.366384506225586</v>
+        <v>-8.3663845062255859</v>
       </c>
       <c r="J75">
-        <v>-6.883404731750488</v>
+        <v>-6.8834047317504883</v>
       </c>
       <c r="K75">
-        <v>-10.37791347503662</v>
+        <v>-10.377913475036619</v>
       </c>
       <c r="L75">
         <v>-15.11674213409424</v>
       </c>
       <c r="M75">
-        <v>-9.452289581298828</v>
+        <v>-9.4522895812988281</v>
       </c>
       <c r="N75">
-        <v>-0.303834080696106</v>
+        <v>-0.30383408069610601</v>
       </c>
       <c r="O75" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="76" spans="1:15">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>89</v>
       </c>
       <c r="B76">
-        <v>-471.7763977050781</v>
+        <v>-471.77639770507813</v>
       </c>
       <c r="C76">
-        <v>123.0380630493164</v>
+        <v>123.03806304931641</v>
       </c>
       <c r="D76">
-        <v>-1.229021668434143</v>
+        <v>-1.2290216684341431</v>
       </c>
       <c r="E76">
-        <v>-23.17794609069824</v>
+        <v>-23.177946090698239</v>
       </c>
       <c r="F76">
         <v>7.11456298828125</v>
       </c>
       <c r="G76">
-        <v>6.084470748901367</v>
+        <v>6.0844707489013672</v>
       </c>
       <c r="H76">
         <v>-9.598388671875</v>
@@ -4414,13 +4433,13 @@
         <v>-9.430567741394043</v>
       </c>
       <c r="J76">
-        <v>-4.834344863891602</v>
+        <v>-4.8343448638916016</v>
       </c>
       <c r="K76">
         <v>-8.881962776184082</v>
       </c>
       <c r="L76">
-        <v>-11.97033309936523</v>
+        <v>-11.970333099365231</v>
       </c>
       <c r="M76">
         <v>-5.234220027923584</v>
@@ -4432,7 +4451,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="77" spans="1:15">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>90</v>
       </c>
@@ -4443,43 +4462,43 @@
         <v>112.1175003051758</v>
       </c>
       <c r="D77">
-        <v>5.693538665771484</v>
+        <v>5.6935386657714844</v>
       </c>
       <c r="E77">
-        <v>-19.63511657714844</v>
+        <v>-19.635116577148441</v>
       </c>
       <c r="F77">
-        <v>6.276520729064941</v>
+        <v>6.2765207290649414</v>
       </c>
       <c r="G77">
-        <v>9.46639347076416</v>
+        <v>9.4663934707641602</v>
       </c>
       <c r="H77">
         <v>-6.396644115447998</v>
       </c>
       <c r="I77">
-        <v>-10.44449138641357</v>
+        <v>-10.444491386413571</v>
       </c>
       <c r="J77">
-        <v>-5.54673433303833</v>
+        <v>-5.5467343330383301</v>
       </c>
       <c r="K77">
-        <v>-7.699543952941895</v>
+        <v>-7.6995439529418954</v>
       </c>
       <c r="L77">
-        <v>-13.76116752624512</v>
+        <v>-13.761167526245121</v>
       </c>
       <c r="M77">
-        <v>-10.4839916229248</v>
+        <v>-10.483991622924799</v>
       </c>
       <c r="N77">
-        <v>-2.800752878189087</v>
+        <v>-2.8007528781890869</v>
       </c>
       <c r="O77" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="78" spans="1:15">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>91</v>
       </c>
@@ -4490,54 +4509,54 @@
         <v>111.7746963500977</v>
       </c>
       <c r="D78">
-        <v>3.705631494522095</v>
+        <v>3.7056314945220952</v>
       </c>
       <c r="E78">
-        <v>-16.77533912658691</v>
+        <v>-16.775339126586911</v>
       </c>
       <c r="F78">
-        <v>7.781208992004395</v>
+        <v>7.7812089920043954</v>
       </c>
       <c r="G78">
-        <v>7.713914394378662</v>
+        <v>7.7139143943786621</v>
       </c>
       <c r="H78">
-        <v>-5.794546604156494</v>
+        <v>-5.7945466041564941</v>
       </c>
       <c r="I78">
-        <v>-9.839217185974121</v>
+        <v>-9.8392171859741211</v>
       </c>
       <c r="J78">
-        <v>-7.370217323303223</v>
+        <v>-7.3702173233032227</v>
       </c>
       <c r="K78">
-        <v>-7.561022281646729</v>
+        <v>-7.5610222816467294</v>
       </c>
       <c r="L78">
         <v>-10.9529914855957</v>
       </c>
       <c r="M78">
-        <v>-8.260942459106445</v>
+        <v>-8.2609424591064453</v>
       </c>
       <c r="N78">
-        <v>-2.469234466552734</v>
+        <v>-2.4692344665527339</v>
       </c>
       <c r="O78" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="79" spans="1:15">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>92</v>
       </c>
       <c r="B79">
-        <v>-626.3464965820312</v>
+        <v>-626.34649658203125</v>
       </c>
       <c r="C79">
-        <v>111.3801422119141</v>
+        <v>111.38014221191411</v>
       </c>
       <c r="D79">
-        <v>7.598945617675781</v>
+        <v>7.5989456176757813</v>
       </c>
       <c r="E79">
         <v>-15.53870964050293</v>
@@ -4546,10 +4565,10 @@
         <v>8.723353385925293</v>
       </c>
       <c r="G79">
-        <v>9.31660270690918</v>
+        <v>9.3166027069091797</v>
       </c>
       <c r="H79">
-        <v>-4.707769870758057</v>
+        <v>-4.7077698707580566</v>
       </c>
       <c r="I79">
         <v>-6.368372917175293</v>
@@ -4567,13 +4586,13 @@
         <v>-6.085693359375</v>
       </c>
       <c r="N79">
-        <v>-2.484028339385986</v>
+        <v>-2.4840283393859859</v>
       </c>
       <c r="O79" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="80" spans="1:15">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>93</v>
       </c>
@@ -4587,60 +4606,60 @@
         <v>-3.38495922088623</v>
       </c>
       <c r="E80">
-        <v>-28.2425479888916</v>
+        <v>-28.242547988891602</v>
       </c>
       <c r="F80">
-        <v>5.18669605255127</v>
+        <v>5.1866960525512704</v>
       </c>
       <c r="G80">
-        <v>7.972521781921387</v>
+        <v>7.9725217819213867</v>
       </c>
       <c r="H80">
-        <v>-9.512002944946289</v>
+        <v>-9.5120029449462891</v>
       </c>
       <c r="I80">
         <v>-13.43022441864014</v>
       </c>
       <c r="J80">
-        <v>-6.733055114746094</v>
+        <v>-6.7330551147460938</v>
       </c>
       <c r="K80">
-        <v>-9.47175407409668</v>
+        <v>-9.4717540740966797</v>
       </c>
       <c r="L80">
         <v>-14.28883647918701</v>
       </c>
       <c r="M80">
-        <v>-5.007828712463379</v>
+        <v>-5.0078287124633789</v>
       </c>
       <c r="N80">
-        <v>2.144107103347778</v>
+        <v>2.1441071033477779</v>
       </c>
       <c r="O80" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="81" spans="1:15">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>94</v>
       </c>
       <c r="B81">
-        <v>-535.5386352539062</v>
+        <v>-535.53863525390625</v>
       </c>
       <c r="C81">
         <v>118.2896194458008</v>
       </c>
       <c r="D81">
-        <v>-1.657000184059143</v>
+        <v>-1.6570001840591431</v>
       </c>
       <c r="E81">
-        <v>-21.92403793334961</v>
+        <v>-21.924037933349609</v>
       </c>
       <c r="F81">
-        <v>8.968427658081055</v>
+        <v>8.9684276580810547</v>
       </c>
       <c r="G81">
-        <v>10.98511028289795</v>
+        <v>10.985110282897949</v>
       </c>
       <c r="H81">
         <v>-4.779883861541748</v>
@@ -4649,25 +4668,25 @@
         <v>-10.1378927230835</v>
       </c>
       <c r="J81">
-        <v>-9.501436233520508</v>
+        <v>-9.5014362335205078</v>
       </c>
       <c r="K81">
-        <v>-13.36428451538086</v>
+        <v>-13.364284515380859</v>
       </c>
       <c r="L81">
-        <v>-15.23303604125977</v>
+        <v>-15.233036041259769</v>
       </c>
       <c r="M81">
-        <v>-6.544880390167236</v>
+        <v>-6.5448803901672363</v>
       </c>
       <c r="N81">
-        <v>0.2965817451477051</v>
+        <v>0.29658174514770508</v>
       </c>
       <c r="O81" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="82" spans="1:15">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>95</v>
       </c>
@@ -4675,46 +4694,46 @@
         <v>-547.42724609375</v>
       </c>
       <c r="C82">
-        <v>118.2924575805664</v>
+        <v>118.29245758056641</v>
       </c>
       <c r="D82">
         <v>1.639172315597534</v>
       </c>
       <c r="E82">
-        <v>-19.09528160095215</v>
+        <v>-19.095281600952148</v>
       </c>
       <c r="F82">
-        <v>7.116630554199219</v>
+        <v>7.1166305541992188</v>
       </c>
       <c r="G82">
-        <v>6.815315723419189</v>
+        <v>6.8153157234191886</v>
       </c>
       <c r="H82">
-        <v>-6.62867546081543</v>
+        <v>-6.6286754608154297</v>
       </c>
       <c r="I82">
         <v>-11.10263061523438</v>
       </c>
       <c r="J82">
-        <v>-9.15996265411377</v>
+        <v>-9.1599626541137695</v>
       </c>
       <c r="K82">
-        <v>-9.330996513366699</v>
+        <v>-9.3309965133666992</v>
       </c>
       <c r="L82">
-        <v>-13.13345623016357</v>
+        <v>-13.133456230163571</v>
       </c>
       <c r="M82">
-        <v>-9.266491889953613</v>
+        <v>-9.2664918899536133</v>
       </c>
       <c r="N82">
-        <v>-1.360644221305847</v>
+        <v>-1.3606442213058469</v>
       </c>
       <c r="O82" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="83" spans="1:15">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>96</v>
       </c>
@@ -4725,25 +4744,25 @@
         <v>112.784553527832</v>
       </c>
       <c r="D83">
-        <v>4.032879829406738</v>
+        <v>4.0328798294067383</v>
       </c>
       <c r="E83">
-        <v>-17.85508728027344</v>
+        <v>-17.855087280273441</v>
       </c>
       <c r="F83">
         <v>8.847198486328125</v>
       </c>
       <c r="G83">
-        <v>9.063686370849609</v>
+        <v>9.0636863708496094</v>
       </c>
       <c r="H83">
-        <v>-6.389712333679199</v>
+        <v>-6.3897123336791992</v>
       </c>
       <c r="I83">
-        <v>-9.179146766662598</v>
+        <v>-9.1791467666625977</v>
       </c>
       <c r="J83">
-        <v>-7.165602684020996</v>
+        <v>-7.1656026840209961</v>
       </c>
       <c r="K83">
         <v>-11.50309371948242</v>
@@ -4761,18 +4780,18 @@
         <v>157</v>
       </c>
     </row>
-    <row r="84" spans="1:15">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>97</v>
       </c>
       <c r="B84">
-        <v>-490.2208862304688</v>
+        <v>-490.22088623046881</v>
       </c>
       <c r="C84">
         <v>158.1023254394531</v>
       </c>
       <c r="D84">
-        <v>-11.11932182312012</v>
+        <v>-11.119321823120121</v>
       </c>
       <c r="E84">
         <v>-30.39982795715332</v>
@@ -4781,34 +4800,34 @@
         <v>10.02347373962402</v>
       </c>
       <c r="G84">
-        <v>6.764150142669678</v>
+        <v>6.7641501426696777</v>
       </c>
       <c r="H84">
-        <v>-8.747840881347656</v>
+        <v>-8.7478408813476563</v>
       </c>
       <c r="I84">
         <v>-10.80605411529541</v>
       </c>
       <c r="J84">
-        <v>-8.754952430725098</v>
+        <v>-8.7549524307250977</v>
       </c>
       <c r="K84">
         <v>-10.44139957427979</v>
       </c>
       <c r="L84">
-        <v>-13.69956302642822</v>
+        <v>-13.699563026428221</v>
       </c>
       <c r="M84">
-        <v>-6.547871589660645</v>
+        <v>-6.5478715896606454</v>
       </c>
       <c r="N84">
-        <v>0.6248652935028076</v>
+        <v>0.62486529350280762</v>
       </c>
       <c r="O84" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="85" spans="1:15">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>98</v>
       </c>
@@ -4819,43 +4838,43 @@
         <v>122.8736953735352</v>
       </c>
       <c r="D85">
-        <v>5.711935043334961</v>
+        <v>5.7119350433349609</v>
       </c>
       <c r="E85">
         <v>-21.56381797790527</v>
       </c>
       <c r="F85">
-        <v>6.684109210968018</v>
+        <v>6.6841092109680176</v>
       </c>
       <c r="G85">
         <v>10.62635326385498</v>
       </c>
       <c r="H85">
-        <v>-4.334024906158447</v>
+        <v>-4.3340249061584473</v>
       </c>
       <c r="I85">
-        <v>-8.708036422729492</v>
+        <v>-8.7080364227294922</v>
       </c>
       <c r="J85">
-        <v>-7.093338012695312</v>
+        <v>-7.0933380126953116</v>
       </c>
       <c r="K85">
-        <v>-10.69543647766113</v>
+        <v>-10.695436477661129</v>
       </c>
       <c r="L85">
         <v>-14.70582485198975</v>
       </c>
       <c r="M85">
-        <v>-10.0818510055542</v>
+        <v>-10.081851005554199</v>
       </c>
       <c r="N85">
-        <v>-2.65524435043335</v>
+        <v>-2.6552443504333501</v>
       </c>
       <c r="O85" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="86" spans="1:15">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>99</v>
       </c>
@@ -4863,37 +4882,37 @@
         <v>-568.057373046875</v>
       </c>
       <c r="C86">
-        <v>119.4447250366211</v>
+        <v>119.44472503662109</v>
       </c>
       <c r="D86">
-        <v>0.7499434351921082</v>
+        <v>0.74994343519210815</v>
       </c>
       <c r="E86">
         <v>-17.54670524597168</v>
       </c>
       <c r="F86">
-        <v>10.90368366241455</v>
+        <v>10.903683662414551</v>
       </c>
       <c r="G86">
-        <v>7.754883766174316</v>
+        <v>7.7548837661743164</v>
       </c>
       <c r="H86">
-        <v>-8.725979804992676</v>
+        <v>-8.7259798049926758</v>
       </c>
       <c r="I86">
         <v>-10.88920211791992</v>
       </c>
       <c r="J86">
-        <v>-6.285857677459717</v>
+        <v>-6.2858576774597168</v>
       </c>
       <c r="K86">
-        <v>-8.450981140136719</v>
+        <v>-8.4509811401367188</v>
       </c>
       <c r="L86">
         <v>-13.55330848693848</v>
       </c>
       <c r="M86">
-        <v>-7.712388038635254</v>
+        <v>-7.7123880386352539</v>
       </c>
       <c r="N86">
         <v>-0.124753899872303</v>
@@ -4902,7 +4921,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="87" spans="1:15">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>100</v>
       </c>
@@ -4913,34 +4932,34 @@
         <v>110.2939834594727</v>
       </c>
       <c r="D87">
-        <v>7.575598239898682</v>
+        <v>7.5755982398986816</v>
       </c>
       <c r="E87">
         <v>-12.92796516418457</v>
       </c>
       <c r="F87">
-        <v>9.640111923217773</v>
+        <v>9.6401119232177734</v>
       </c>
       <c r="G87">
-        <v>6.841108798980713</v>
+        <v>6.8411087989807129</v>
       </c>
       <c r="H87">
-        <v>-6.938811302185059</v>
+        <v>-6.9388113021850586</v>
       </c>
       <c r="I87">
-        <v>-7.059916496276855</v>
+        <v>-7.0599164962768546</v>
       </c>
       <c r="J87">
-        <v>-4.958978652954102</v>
+        <v>-4.9589786529541016</v>
       </c>
       <c r="K87">
-        <v>-9.765887260437012</v>
+        <v>-9.7658872604370117</v>
       </c>
       <c r="L87">
-        <v>-12.3872241973877</v>
+        <v>-12.387224197387701</v>
       </c>
       <c r="M87">
-        <v>-7.320592403411865</v>
+        <v>-7.3205924034118652</v>
       </c>
       <c r="N87">
         <v>-3.203553438186646</v>
@@ -4949,7 +4968,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="88" spans="1:15">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>101</v>
       </c>
@@ -4963,145 +4982,145 @@
         <v>15.49854850769043</v>
       </c>
       <c r="E88">
-        <v>-5.474954128265381</v>
+        <v>-5.4749541282653809</v>
       </c>
       <c r="F88">
-        <v>10.78544425964355</v>
+        <v>10.785444259643549</v>
       </c>
       <c r="G88">
-        <v>11.22997283935547</v>
+        <v>11.229972839355471</v>
       </c>
       <c r="H88">
         <v>1.632831215858459</v>
       </c>
       <c r="I88">
-        <v>-2.082631587982178</v>
+        <v>-2.0826315879821782</v>
       </c>
       <c r="J88">
-        <v>-2.206766366958618</v>
+        <v>-2.2067663669586182</v>
       </c>
       <c r="K88">
-        <v>-4.36851167678833</v>
+        <v>-4.3685116767883301</v>
       </c>
       <c r="L88">
-        <v>-6.348114967346191</v>
+        <v>-6.3481149673461914</v>
       </c>
       <c r="M88">
-        <v>-3.636098146438599</v>
+        <v>-3.6360981464385991</v>
       </c>
       <c r="N88">
-        <v>-0.274349182844162</v>
+        <v>-0.27434918284416199</v>
       </c>
       <c r="O88" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="89" spans="1:15">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>102</v>
       </c>
       <c r="B89">
-        <v>-769.8779907226562</v>
+        <v>-769.87799072265625</v>
       </c>
       <c r="C89">
         <v>101.2859191894531</v>
       </c>
       <c r="D89">
-        <v>20.50937080383301</v>
+        <v>20.509370803833011</v>
       </c>
       <c r="E89">
-        <v>-5.234158039093018</v>
+        <v>-5.2341580390930176</v>
       </c>
       <c r="F89">
-        <v>8.289774894714355</v>
+        <v>8.2897748947143555</v>
       </c>
       <c r="G89">
-        <v>12.20199203491211</v>
+        <v>12.201992034912109</v>
       </c>
       <c r="H89">
         <v>3.321749210357666</v>
       </c>
       <c r="I89">
-        <v>-2.637112855911255</v>
+        <v>-2.6371128559112549</v>
       </c>
       <c r="J89">
-        <v>-3.28571343421936</v>
+        <v>-3.2857134342193599</v>
       </c>
       <c r="K89">
-        <v>-3.647841691970825</v>
+        <v>-3.6478416919708252</v>
       </c>
       <c r="L89">
-        <v>-4.723606586456299</v>
+        <v>-4.7236065864562988</v>
       </c>
       <c r="M89">
-        <v>-3.123306274414062</v>
+        <v>-3.1233062744140621</v>
       </c>
       <c r="N89">
-        <v>0.1714410781860352</v>
+        <v>0.17144107818603521</v>
       </c>
       <c r="O89" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="90" spans="1:15">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>103</v>
       </c>
       <c r="B90">
-        <v>-780.5497436523438</v>
+        <v>-780.54974365234375</v>
       </c>
       <c r="C90">
         <v>113.6954345703125</v>
       </c>
       <c r="D90">
-        <v>14.10869979858398</v>
+        <v>14.108699798583981</v>
       </c>
       <c r="E90">
-        <v>-6.33966588973999</v>
+        <v>-6.3396658897399902</v>
       </c>
       <c r="F90">
         <v>10.58032894134521</v>
       </c>
       <c r="G90">
-        <v>10.0052661895752</v>
+        <v>10.005266189575201</v>
       </c>
       <c r="H90">
         <v>2.33958911895752</v>
       </c>
       <c r="I90">
-        <v>0.09472424536943436</v>
+        <v>9.4724245369434357E-2</v>
       </c>
       <c r="J90">
-        <v>-1.487563252449036</v>
+        <v>-1.4875632524490361</v>
       </c>
       <c r="K90">
-        <v>-4.223951816558838</v>
+        <v>-4.2239518165588379</v>
       </c>
       <c r="L90">
-        <v>-5.351858615875244</v>
+        <v>-5.3518586158752441</v>
       </c>
       <c r="M90">
         <v>-3.229521512985229</v>
       </c>
       <c r="N90">
-        <v>0.004409720655530691</v>
+        <v>4.4097206555306911E-3</v>
       </c>
       <c r="O90" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="91" spans="1:15">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>104</v>
       </c>
       <c r="B91">
-        <v>-772.2423706054688</v>
+        <v>-772.24237060546875</v>
       </c>
       <c r="C91">
         <v>110.7996292114258</v>
       </c>
       <c r="D91">
-        <v>15.45711803436279</v>
+        <v>15.457118034362789</v>
       </c>
       <c r="E91">
         <v>-6.749941349029541</v>
@@ -5113,45 +5132,45 @@
         <v>10.72115993499756</v>
       </c>
       <c r="H91">
-        <v>2.322237968444824</v>
+        <v>2.3222379684448242</v>
       </c>
       <c r="I91">
-        <v>-0.7517289519309998</v>
+        <v>-0.75172895193099976</v>
       </c>
       <c r="J91">
-        <v>-2.125980615615845</v>
+        <v>-2.1259806156158452</v>
       </c>
       <c r="K91">
-        <v>-4.559041976928711</v>
+        <v>-4.5590419769287109</v>
       </c>
       <c r="L91">
-        <v>-5.406500816345215</v>
+        <v>-5.4065008163452148</v>
       </c>
       <c r="M91">
-        <v>-3.047417879104614</v>
+        <v>-3.0474178791046138</v>
       </c>
       <c r="N91">
-        <v>-0.4723713397979736</v>
+        <v>-0.47237133979797358</v>
       </c>
       <c r="O91" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="92" spans="1:15">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>105</v>
       </c>
       <c r="B92">
-        <v>-824.9240112304688</v>
+        <v>-824.92401123046875</v>
       </c>
       <c r="C92">
-        <v>121.2444000244141</v>
+        <v>121.24440002441411</v>
       </c>
       <c r="D92">
-        <v>17.02857208251953</v>
+        <v>17.028572082519531</v>
       </c>
       <c r="E92">
-        <v>-6.564247608184814</v>
+        <v>-6.5642476081848136</v>
       </c>
       <c r="F92">
         <v>11.38442993164062</v>
@@ -5160,22 +5179,22 @@
         <v>12.25363922119141</v>
       </c>
       <c r="H92">
-        <v>2.038502216339111</v>
+        <v>2.0385022163391109</v>
       </c>
       <c r="I92">
-        <v>-2.583157300949097</v>
+        <v>-2.5831573009490971</v>
       </c>
       <c r="J92">
-        <v>-2.269456624984741</v>
+        <v>-2.2694566249847412</v>
       </c>
       <c r="K92">
-        <v>-2.463304281234741</v>
+        <v>-2.4633042812347412</v>
       </c>
       <c r="L92">
-        <v>-4.151089191436768</v>
+        <v>-4.1510891914367676</v>
       </c>
       <c r="M92">
-        <v>-3.201175689697266</v>
+        <v>-3.2011756896972661</v>
       </c>
       <c r="N92">
         <v>0.3440590500831604</v>
@@ -5184,30 +5203,30 @@
         <v>160</v>
       </c>
     </row>
-    <row r="93" spans="1:15">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>106</v>
       </c>
       <c r="B93">
-        <v>-782.8316040039062</v>
+        <v>-782.83160400390625</v>
       </c>
       <c r="C93">
         <v>116.5546798706055</v>
       </c>
       <c r="D93">
-        <v>16.97556495666504</v>
+        <v>16.975564956665039</v>
       </c>
       <c r="E93">
-        <v>-8.663209915161133</v>
+        <v>-8.6632099151611328</v>
       </c>
       <c r="F93">
-        <v>9.308918952941895</v>
+        <v>9.3089189529418945</v>
       </c>
       <c r="G93">
-        <v>12.14575958251953</v>
+        <v>12.145759582519529</v>
       </c>
       <c r="H93">
-        <v>2.409430742263794</v>
+        <v>2.4094307422637939</v>
       </c>
       <c r="I93">
         <v>-3.192581415176392</v>
@@ -5216,10 +5235,10 @@
         <v>-3.429777860641479</v>
       </c>
       <c r="K93">
-        <v>-3.488468647003174</v>
+        <v>-3.4884686470031738</v>
       </c>
       <c r="L93">
-        <v>-4.984783172607422</v>
+        <v>-4.9847831726074219</v>
       </c>
       <c r="M93">
         <v>-3.171483039855957</v>
@@ -5231,7 +5250,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="94" spans="1:15">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>107</v>
       </c>
@@ -5239,37 +5258,37 @@
         <v>-802.92529296875</v>
       </c>
       <c r="C94">
-        <v>133.8656463623047</v>
+        <v>133.86564636230469</v>
       </c>
       <c r="D94">
         <v>12.93902683258057</v>
       </c>
       <c r="E94">
-        <v>-6.927196502685547</v>
+        <v>-6.9271965026855469</v>
       </c>
       <c r="F94">
         <v>10.03154182434082</v>
       </c>
       <c r="G94">
-        <v>9.814498901367188</v>
+        <v>9.8144989013671875</v>
       </c>
       <c r="H94">
-        <v>4.071554183959961</v>
+        <v>4.0715541839599609</v>
       </c>
       <c r="I94">
-        <v>-0.693124532699585</v>
+        <v>-0.69312453269958496</v>
       </c>
       <c r="J94">
-        <v>-3.815929174423218</v>
+        <v>-3.8159291744232182</v>
       </c>
       <c r="K94">
-        <v>-4.328628540039062</v>
+        <v>-4.3286285400390616</v>
       </c>
       <c r="L94">
-        <v>-5.044394016265869</v>
+        <v>-5.0443940162658691</v>
       </c>
       <c r="M94">
-        <v>-3.775331258773804</v>
+        <v>-3.7753312587738042</v>
       </c>
       <c r="N94">
         <v>0.4984150230884552</v>
@@ -5278,7 +5297,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="95" spans="1:15">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>108</v>
       </c>
@@ -5289,13 +5308,13 @@
         <v>125.5385665893555</v>
       </c>
       <c r="D95">
-        <v>10.5271692276001</v>
+        <v>10.527169227600099</v>
       </c>
       <c r="E95">
-        <v>-9.051689147949219</v>
+        <v>-9.0516891479492188</v>
       </c>
       <c r="F95">
-        <v>11.78818225860596</v>
+        <v>11.788182258605961</v>
       </c>
       <c r="G95">
         <v>11.55663967132568</v>
@@ -5307,13 +5326,13 @@
         <v>-1.855208039283752</v>
       </c>
       <c r="J95">
-        <v>-4.174269199371338</v>
+        <v>-4.1742691993713379</v>
       </c>
       <c r="K95">
-        <v>-5.775774955749512</v>
+        <v>-5.7757749557495117</v>
       </c>
       <c r="L95">
-        <v>-6.134366989135742</v>
+        <v>-6.1343669891357422</v>
       </c>
       <c r="M95">
         <v>-2.450527429580688</v>
@@ -5325,7 +5344,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="96" spans="1:15">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>109</v>
       </c>
@@ -5336,43 +5355,43 @@
         <v>116.2307815551758</v>
       </c>
       <c r="D96">
-        <v>4.414786338806152</v>
+        <v>4.4147863388061523</v>
       </c>
       <c r="E96">
-        <v>-15.69579315185547</v>
+        <v>-15.695793151855471</v>
       </c>
       <c r="F96">
-        <v>9.630264282226562</v>
+        <v>9.6302642822265625</v>
       </c>
       <c r="G96">
         <v>8.686039924621582</v>
       </c>
       <c r="H96">
-        <v>-5.184964179992676</v>
+        <v>-5.1849641799926758</v>
       </c>
       <c r="I96">
-        <v>-7.779262542724609</v>
+        <v>-7.7792625427246094</v>
       </c>
       <c r="J96">
-        <v>-5.616257667541504</v>
+        <v>-5.6162576675415039</v>
       </c>
       <c r="K96">
-        <v>-9.640732765197754</v>
+        <v>-9.6407327651977539</v>
       </c>
       <c r="L96">
-        <v>-13.39864730834961</v>
+        <v>-13.398647308349609</v>
       </c>
       <c r="M96">
-        <v>-6.950762271881104</v>
+        <v>-6.9507622718811044</v>
       </c>
       <c r="N96">
-        <v>-1.129044532775879</v>
+        <v>-1.1290445327758789</v>
       </c>
       <c r="O96" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="97" spans="1:15">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>110</v>
       </c>
@@ -5386,22 +5405,22 @@
         <v>3.842246294021606</v>
       </c>
       <c r="E97">
-        <v>-17.00271797180176</v>
+        <v>-17.002717971801761</v>
       </c>
       <c r="F97">
         <v>10.45376586914062</v>
       </c>
       <c r="G97">
-        <v>9.079379081726074</v>
+        <v>9.0793790817260742</v>
       </c>
       <c r="H97">
-        <v>-6.955304622650146</v>
+        <v>-6.9553046226501456</v>
       </c>
       <c r="I97">
-        <v>-8.034704208374023</v>
+        <v>-8.0347042083740234</v>
       </c>
       <c r="J97">
-        <v>-5.100634098052979</v>
+        <v>-5.1006340980529794</v>
       </c>
       <c r="K97">
         <v>-9.8253173828125</v>
@@ -5419,7 +5438,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="98" spans="1:15">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>111</v>
       </c>
@@ -5427,10 +5446,10 @@
         <v>-655.13818359375</v>
       </c>
       <c r="C98">
-        <v>110.3877563476562</v>
+        <v>110.38775634765619</v>
       </c>
       <c r="D98">
-        <v>5.777483940124512</v>
+        <v>5.7774839401245117</v>
       </c>
       <c r="E98">
         <v>-10.94571685791016</v>
@@ -5439,72 +5458,72 @@
         <v>11.14215183258057</v>
       </c>
       <c r="G98">
-        <v>7.342621326446533</v>
+        <v>7.3426213264465332</v>
       </c>
       <c r="H98">
         <v>-4.457341194152832</v>
       </c>
       <c r="I98">
-        <v>-5.545713901519775</v>
+        <v>-5.5457139015197754</v>
       </c>
       <c r="J98">
-        <v>-5.525403022766113</v>
+        <v>-5.5254030227661133</v>
       </c>
       <c r="K98">
-        <v>-9.676124572753906</v>
+        <v>-9.6761245727539063</v>
       </c>
       <c r="L98">
-        <v>-11.10547637939453</v>
+        <v>-11.105476379394529</v>
       </c>
       <c r="M98">
-        <v>-5.819180011749268</v>
+        <v>-5.8191800117492676</v>
       </c>
       <c r="N98">
-        <v>-1.96591854095459</v>
+        <v>-1.9659185409545901</v>
       </c>
       <c r="O98" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="99" spans="1:15">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>112</v>
       </c>
       <c r="B99">
-        <v>-658.3076782226562</v>
+        <v>-658.30767822265625</v>
       </c>
       <c r="C99">
         <v>116.7070846557617</v>
       </c>
       <c r="D99">
-        <v>2.204977989196777</v>
+        <v>2.2049779891967769</v>
       </c>
       <c r="E99">
-        <v>-14.01230812072754</v>
+        <v>-14.012308120727541</v>
       </c>
       <c r="F99">
-        <v>11.30472660064697</v>
+        <v>11.304726600646971</v>
       </c>
       <c r="G99">
-        <v>7.645709991455078</v>
+        <v>7.6457099914550781</v>
       </c>
       <c r="H99">
-        <v>-4.492865085601807</v>
+        <v>-4.4928650856018066</v>
       </c>
       <c r="I99">
-        <v>-6.695123672485352</v>
+        <v>-6.6951236724853516</v>
       </c>
       <c r="J99">
-        <v>-7.202394008636475</v>
+        <v>-7.2023940086364746</v>
       </c>
       <c r="K99">
-        <v>-10.35036277770996</v>
+        <v>-10.350362777709959</v>
       </c>
       <c r="L99">
-        <v>-11.76296043395996</v>
+        <v>-11.762960433959959</v>
       </c>
       <c r="M99">
-        <v>-5.448349952697754</v>
+        <v>-5.4483499526977539</v>
       </c>
       <c r="N99">
         <v>0.1005182936787605</v>
@@ -5513,7 +5532,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="100" spans="1:15">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>113</v>
       </c>
@@ -5527,7 +5546,7 @@
         <v>8.988133430480957</v>
       </c>
       <c r="E100">
-        <v>-14.39612007141113</v>
+        <v>-14.396120071411129</v>
       </c>
       <c r="F100">
         <v>12.01978588104248</v>
@@ -5536,31 +5555,31 @@
         <v>11.47454738616943</v>
       </c>
       <c r="H100">
-        <v>-5.066732406616211</v>
+        <v>-5.0667324066162109</v>
       </c>
       <c r="I100">
-        <v>-8.038820266723633</v>
+        <v>-8.0388202667236328</v>
       </c>
       <c r="J100">
-        <v>-4.324069499969482</v>
+        <v>-4.3240694999694824</v>
       </c>
       <c r="K100">
-        <v>-7.465956211090088</v>
+        <v>-7.4659562110900879</v>
       </c>
       <c r="L100">
         <v>-11.27092266082764</v>
       </c>
       <c r="M100">
-        <v>-5.81779956817627</v>
+        <v>-5.8177995681762704</v>
       </c>
       <c r="N100">
-        <v>0.413081020116806</v>
+        <v>0.41308102011680597</v>
       </c>
       <c r="O100" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="101" spans="1:15">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>114</v>
       </c>
@@ -5571,81 +5590,81 @@
         <v>119.8795852661133</v>
       </c>
       <c r="D101">
-        <v>6.312093257904053</v>
+        <v>6.3120932579040527</v>
       </c>
       <c r="E101">
-        <v>-15.11997413635254</v>
+        <v>-15.119974136352541</v>
       </c>
       <c r="F101">
-        <v>12.02571201324463</v>
+        <v>12.025712013244631</v>
       </c>
       <c r="G101">
-        <v>10.61618995666504</v>
+        <v>10.616189956665041</v>
       </c>
       <c r="H101">
-        <v>-5.148265361785889</v>
+        <v>-5.1482653617858887</v>
       </c>
       <c r="I101">
         <v>-6.661898136138916</v>
       </c>
       <c r="J101">
-        <v>-4.446365833282471</v>
+        <v>-4.4463658332824707</v>
       </c>
       <c r="K101">
-        <v>-9.894532203674316</v>
+        <v>-9.8945322036743164</v>
       </c>
       <c r="L101">
         <v>-12.75477886199951</v>
       </c>
       <c r="M101">
-        <v>-5.163149833679199</v>
+        <v>-5.1631498336791992</v>
       </c>
       <c r="N101">
-        <v>0.4850740134716034</v>
+        <v>0.48507401347160339</v>
       </c>
       <c r="O101" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="102" spans="1:15">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>115</v>
       </c>
       <c r="B102">
-        <v>-676.8943481445312</v>
+        <v>-676.89434814453125</v>
       </c>
       <c r="C102">
         <v>120.9994430541992</v>
       </c>
       <c r="D102">
-        <v>15.10829639434814</v>
+        <v>15.108296394348139</v>
       </c>
       <c r="E102">
-        <v>-7.801371097564697</v>
+        <v>-7.8013710975646973</v>
       </c>
       <c r="F102">
-        <v>9.749539375305176</v>
+        <v>9.7495393753051758</v>
       </c>
       <c r="G102">
-        <v>7.063100337982178</v>
+        <v>7.0631003379821777</v>
       </c>
       <c r="H102">
-        <v>-3.231239080429077</v>
+        <v>-3.2312390804290771</v>
       </c>
       <c r="I102">
-        <v>-4.098309516906738</v>
+        <v>-4.0983095169067383</v>
       </c>
       <c r="J102">
-        <v>-2.907006025314331</v>
+        <v>-2.9070060253143311</v>
       </c>
       <c r="K102">
-        <v>-7.538250923156738</v>
+        <v>-7.5382509231567383</v>
       </c>
       <c r="L102">
-        <v>-11.6931734085083</v>
+        <v>-11.693173408508301</v>
       </c>
       <c r="M102">
-        <v>-7.170692443847656</v>
+        <v>-7.1706924438476563</v>
       </c>
       <c r="N102">
         <v>-1.154793858528137</v>
@@ -5654,7 +5673,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="103" spans="1:15">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>116</v>
       </c>
@@ -5665,7 +5684,7 @@
         <v>117.6017150878906</v>
       </c>
       <c r="D103">
-        <v>8.926332473754883</v>
+        <v>8.9263324737548828</v>
       </c>
       <c r="E103">
         <v>-12.92720890045166</v>
@@ -5674,48 +5693,48 @@
         <v>9.393977165222168</v>
       </c>
       <c r="G103">
-        <v>7.765352249145508</v>
+        <v>7.7653522491455078</v>
       </c>
       <c r="H103">
         <v>-5.485816478729248</v>
       </c>
       <c r="I103">
-        <v>-7.508585453033447</v>
+        <v>-7.5085854530334473</v>
       </c>
       <c r="J103">
-        <v>-5.541765213012695</v>
+        <v>-5.5417652130126953</v>
       </c>
       <c r="K103">
-        <v>-9.485164642333984</v>
+        <v>-9.4851646423339844</v>
       </c>
       <c r="L103">
         <v>-12.51342678070068</v>
       </c>
       <c r="M103">
-        <v>-6.449298858642578</v>
+        <v>-6.4492988586425781</v>
       </c>
       <c r="N103">
-        <v>-0.3215481340885162</v>
+        <v>-0.32154813408851618</v>
       </c>
       <c r="O103" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="104" spans="1:15">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>117</v>
       </c>
       <c r="B104">
-        <v>-698.6232299804688</v>
+        <v>-698.62322998046875</v>
       </c>
       <c r="C104">
         <v>133.2915344238281</v>
       </c>
       <c r="D104">
-        <v>10.2638111114502</v>
+        <v>10.263811111450201</v>
       </c>
       <c r="E104">
-        <v>-16.55687713623047</v>
+        <v>-16.556877136230469</v>
       </c>
       <c r="F104">
         <v>11.19948196411133</v>
@@ -5724,31 +5743,31 @@
         <v>10.46938991546631</v>
       </c>
       <c r="H104">
-        <v>-6.138137340545654</v>
+        <v>-6.1381373405456543</v>
       </c>
       <c r="I104">
         <v>-7.821439266204834</v>
       </c>
       <c r="J104">
-        <v>-6.290838718414307</v>
+        <v>-6.2908387184143066</v>
       </c>
       <c r="K104">
-        <v>-11.3705472946167</v>
+        <v>-11.370547294616699</v>
       </c>
       <c r="L104">
         <v>-10.68507766723633</v>
       </c>
       <c r="M104">
-        <v>-2.112585783004761</v>
+        <v>-2.1125857830047612</v>
       </c>
       <c r="N104">
-        <v>0.5038330554962158</v>
+        <v>0.50383305549621582</v>
       </c>
       <c r="O104" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="105" spans="1:15">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>118</v>
       </c>
@@ -5756,46 +5775,46 @@
         <v>-690.0948486328125</v>
       </c>
       <c r="C105">
-        <v>118.0567855834961</v>
+        <v>118.05678558349609</v>
       </c>
       <c r="D105">
-        <v>8.823090553283691</v>
+        <v>8.8230905532836914</v>
       </c>
       <c r="E105">
-        <v>-14.32886600494385</v>
+        <v>-14.328866004943849</v>
       </c>
       <c r="F105">
-        <v>9.648184776306152</v>
+        <v>9.6481847763061523</v>
       </c>
       <c r="G105">
         <v>10.24283027648926</v>
       </c>
       <c r="H105">
-        <v>-3.78528356552124</v>
+        <v>-3.7852835655212398</v>
       </c>
       <c r="I105">
-        <v>-8.669493675231934</v>
+        <v>-8.6694936752319336</v>
       </c>
       <c r="J105">
-        <v>-7.933075428009033</v>
+        <v>-7.9330754280090332</v>
       </c>
       <c r="K105">
         <v>-9.623621940612793</v>
       </c>
       <c r="L105">
-        <v>-10.73015594482422</v>
+        <v>-10.730155944824221</v>
       </c>
       <c r="M105">
-        <v>-5.713673114776611</v>
+        <v>-5.7136731147766113</v>
       </c>
       <c r="N105">
-        <v>-0.81032395362854</v>
+        <v>-0.81032395362854004</v>
       </c>
       <c r="O105" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="106" spans="1:15">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>119</v>
       </c>
@@ -5803,187 +5822,187 @@
         <v>-675.3245849609375</v>
       </c>
       <c r="C106">
-        <v>123.8191070556641</v>
+        <v>123.81910705566411</v>
       </c>
       <c r="D106">
-        <v>18.90019798278809</v>
+        <v>18.900197982788089</v>
       </c>
       <c r="E106">
-        <v>-9.33228588104248</v>
+        <v>-9.3322858810424805</v>
       </c>
       <c r="F106">
-        <v>8.333148956298828</v>
+        <v>8.3331489562988281</v>
       </c>
       <c r="G106">
-        <v>10.48138809204102</v>
+        <v>10.481388092041019</v>
       </c>
       <c r="H106">
         <v>-0.178649827837944</v>
       </c>
       <c r="I106">
-        <v>-5.947511196136475</v>
+        <v>-5.9475111961364746</v>
       </c>
       <c r="J106">
-        <v>-7.063671112060547</v>
+        <v>-7.0636711120605469</v>
       </c>
       <c r="K106">
-        <v>-9.035540580749512</v>
+        <v>-9.0355405807495117</v>
       </c>
       <c r="L106">
-        <v>-9.969098091125488</v>
+        <v>-9.9690980911254883</v>
       </c>
       <c r="M106">
-        <v>-5.212706089019775</v>
+        <v>-5.2127060890197754</v>
       </c>
       <c r="N106">
-        <v>-0.2046144008636475</v>
+        <v>-0.20461440086364749</v>
       </c>
       <c r="O106" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="107" spans="1:15">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>120</v>
       </c>
       <c r="B107">
-        <v>-672.0354614257812</v>
+        <v>-672.03546142578125</v>
       </c>
       <c r="C107">
-        <v>128.9279022216797</v>
+        <v>128.92790222167969</v>
       </c>
       <c r="D107">
         <v>14.90855026245117</v>
       </c>
       <c r="E107">
-        <v>-12.91322898864746</v>
+        <v>-12.913228988647459</v>
       </c>
       <c r="F107">
-        <v>8.620636940002441</v>
+        <v>8.6206369400024414</v>
       </c>
       <c r="G107">
-        <v>9.528166770935059</v>
+        <v>9.5281667709350586</v>
       </c>
       <c r="H107">
         <v>-2.853819608688354</v>
       </c>
       <c r="I107">
-        <v>-6.374747753143311</v>
+        <v>-6.3747477531433114</v>
       </c>
       <c r="J107">
-        <v>-5.719085216522217</v>
+        <v>-5.7190852165222168</v>
       </c>
       <c r="K107">
-        <v>-9.19868278503418</v>
+        <v>-9.1986827850341797</v>
       </c>
       <c r="L107">
         <v>-11.76342105865479</v>
       </c>
       <c r="M107">
-        <v>-6.151102542877197</v>
+        <v>-6.1511025428771973</v>
       </c>
       <c r="N107">
-        <v>0.3887936770915985</v>
+        <v>0.38879367709159851</v>
       </c>
       <c r="O107" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="108" spans="1:15">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>121</v>
       </c>
       <c r="B108">
-        <v>-622.7750854492188</v>
+        <v>-622.77508544921875</v>
       </c>
       <c r="C108">
         <v>120.8256149291992</v>
       </c>
       <c r="D108">
-        <v>2.546026706695557</v>
+        <v>2.5460267066955571</v>
       </c>
       <c r="E108">
         <v>-17.92115592956543</v>
       </c>
       <c r="F108">
-        <v>9.467881202697754</v>
+        <v>9.4678812026977539</v>
       </c>
       <c r="G108">
         <v>8.060307502746582</v>
       </c>
       <c r="H108">
-        <v>-7.04064416885376</v>
+        <v>-7.0406441688537598</v>
       </c>
       <c r="I108">
-        <v>-9.684050559997559</v>
+        <v>-9.6840505599975586</v>
       </c>
       <c r="J108">
-        <v>-6.177967071533203</v>
+        <v>-6.1779670715332031</v>
       </c>
       <c r="K108">
-        <v>-8.757323265075684</v>
+        <v>-8.7573232650756836</v>
       </c>
       <c r="L108">
-        <v>-12.98917102813721</v>
+        <v>-12.989171028137211</v>
       </c>
       <c r="M108">
         <v>-6.685150146484375</v>
       </c>
       <c r="N108">
-        <v>0.1485591381788254</v>
+        <v>0.14855913817882541</v>
       </c>
       <c r="O108" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="109" spans="1:15">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>122</v>
       </c>
       <c r="B109">
-        <v>-624.1361694335938</v>
+        <v>-624.13616943359375</v>
       </c>
       <c r="C109">
-        <v>128.9230499267578</v>
+        <v>128.92304992675781</v>
       </c>
       <c r="D109">
-        <v>4.203553199768066</v>
+        <v>4.2035531997680664</v>
       </c>
       <c r="E109">
-        <v>-19.68180847167969</v>
+        <v>-19.681808471679691</v>
       </c>
       <c r="F109">
         <v>10.51578330993652</v>
       </c>
       <c r="G109">
-        <v>11.20615482330322</v>
+        <v>11.206154823303221</v>
       </c>
       <c r="H109">
-        <v>-6.086726665496826</v>
+        <v>-6.0867266654968262</v>
       </c>
       <c r="I109">
-        <v>-10.23622131347656</v>
+        <v>-10.236221313476561</v>
       </c>
       <c r="J109">
-        <v>-6.315536499023438</v>
+        <v>-6.3155364990234384</v>
       </c>
       <c r="K109">
-        <v>-9.230451583862305</v>
+        <v>-9.2304515838623047</v>
       </c>
       <c r="L109">
         <v>-13.97322845458984</v>
       </c>
       <c r="M109">
-        <v>-7.186348915100098</v>
+        <v>-7.1863489151000977</v>
       </c>
       <c r="N109">
-        <v>0.036569993942976</v>
+        <v>3.6569993942975998E-2</v>
       </c>
       <c r="O109" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="110" spans="1:15">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>123</v>
       </c>
@@ -5994,43 +6013,43 @@
         <v>118.089485168457</v>
       </c>
       <c r="D110">
-        <v>-0.1866976916790009</v>
+        <v>-0.18669769167900091</v>
       </c>
       <c r="E110">
-        <v>-16.25811576843262</v>
+        <v>-16.258115768432621</v>
       </c>
       <c r="F110">
-        <v>9.714603424072266</v>
+        <v>9.7146034240722656</v>
       </c>
       <c r="G110">
-        <v>6.651180267333984</v>
+        <v>6.6511802673339844</v>
       </c>
       <c r="H110">
-        <v>-5.461556434631348</v>
+        <v>-5.4615564346313477</v>
       </c>
       <c r="I110">
-        <v>-8.888535499572754</v>
+        <v>-8.8885354995727539</v>
       </c>
       <c r="J110">
-        <v>-8.06535530090332</v>
+        <v>-8.0653553009033203</v>
       </c>
       <c r="K110">
-        <v>-8.907956123352051</v>
+        <v>-8.9079561233520508</v>
       </c>
       <c r="L110">
         <v>-11.95407295227051</v>
       </c>
       <c r="M110">
-        <v>-7.116512298583984</v>
+        <v>-7.1165122985839844</v>
       </c>
       <c r="N110">
-        <v>-0.2470782548189163</v>
+        <v>-0.24707825481891629</v>
       </c>
       <c r="O110" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="111" spans="1:15">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>124</v>
       </c>
@@ -6041,28 +6060,28 @@
         <v>107.857063293457</v>
       </c>
       <c r="D111">
-        <v>5.893554210662842</v>
+        <v>5.8935542106628418</v>
       </c>
       <c r="E111">
         <v>-15.40201568603516</v>
       </c>
       <c r="F111">
-        <v>5.353312492370605</v>
+        <v>5.3533124923706046</v>
       </c>
       <c r="G111">
-        <v>6.004898548126221</v>
+        <v>6.0048985481262207</v>
       </c>
       <c r="H111">
-        <v>-5.411924839019775</v>
+        <v>-5.4119248390197754</v>
       </c>
       <c r="I111">
-        <v>-9.894843101501465</v>
+        <v>-9.8948431015014648</v>
       </c>
       <c r="J111">
-        <v>-8.117015838623047</v>
+        <v>-8.1170158386230469</v>
       </c>
       <c r="K111">
-        <v>-8.738839149475098</v>
+        <v>-8.7388391494750977</v>
       </c>
       <c r="L111">
         <v>-11.522292137146</v>
@@ -6071,13 +6090,13 @@
         <v>-6.267730712890625</v>
       </c>
       <c r="N111">
-        <v>0.08152953535318375</v>
+        <v>8.1529535353183746E-2</v>
       </c>
       <c r="O111" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="112" spans="1:15">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>125</v>
       </c>
@@ -6088,43 +6107,43 @@
         <v>111.7746963500977</v>
       </c>
       <c r="D112">
-        <v>3.705631494522095</v>
+        <v>3.7056314945220952</v>
       </c>
       <c r="E112">
-        <v>-16.77533912658691</v>
+        <v>-16.775339126586911</v>
       </c>
       <c r="F112">
-        <v>7.781208992004395</v>
+        <v>7.7812089920043954</v>
       </c>
       <c r="G112">
-        <v>7.713914394378662</v>
+        <v>7.7139143943786621</v>
       </c>
       <c r="H112">
-        <v>-5.794546604156494</v>
+        <v>-5.7945466041564941</v>
       </c>
       <c r="I112">
-        <v>-9.839217185974121</v>
+        <v>-9.8392171859741211</v>
       </c>
       <c r="J112">
-        <v>-7.370217323303223</v>
+        <v>-7.3702173233032227</v>
       </c>
       <c r="K112">
-        <v>-7.561022281646729</v>
+        <v>-7.5610222816467294</v>
       </c>
       <c r="L112">
         <v>-10.9529914855957</v>
       </c>
       <c r="M112">
-        <v>-8.260942459106445</v>
+        <v>-8.2609424591064453</v>
       </c>
       <c r="N112">
-        <v>-2.469234466552734</v>
+        <v>-2.4692344665527339</v>
       </c>
       <c r="O112" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="113" spans="1:15">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>126</v>
       </c>
@@ -6132,37 +6151,37 @@
         <v>-568.057373046875</v>
       </c>
       <c r="C113">
-        <v>119.4447250366211</v>
+        <v>119.44472503662109</v>
       </c>
       <c r="D113">
-        <v>0.7499434351921082</v>
+        <v>0.74994343519210815</v>
       </c>
       <c r="E113">
         <v>-17.54670524597168</v>
       </c>
       <c r="F113">
-        <v>10.90368366241455</v>
+        <v>10.903683662414551</v>
       </c>
       <c r="G113">
-        <v>7.754883766174316</v>
+        <v>7.7548837661743164</v>
       </c>
       <c r="H113">
-        <v>-8.725979804992676</v>
+        <v>-8.7259798049926758</v>
       </c>
       <c r="I113">
         <v>-10.88920211791992</v>
       </c>
       <c r="J113">
-        <v>-6.285857677459717</v>
+        <v>-6.2858576774597168</v>
       </c>
       <c r="K113">
-        <v>-8.450981140136719</v>
+        <v>-8.4509811401367188</v>
       </c>
       <c r="L113">
         <v>-13.55330848693848</v>
       </c>
       <c r="M113">
-        <v>-7.712388038635254</v>
+        <v>-7.7123880386352539</v>
       </c>
       <c r="N113">
         <v>-0.124753899872303</v>
@@ -6171,54 +6190,54 @@
         <v>159</v>
       </c>
     </row>
-    <row r="114" spans="1:15">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>127</v>
       </c>
       <c r="B114">
-        <v>-535.1483764648438</v>
+        <v>-535.14837646484375</v>
       </c>
       <c r="C114">
-        <v>113.1308364868164</v>
+        <v>113.13083648681641</v>
       </c>
       <c r="D114">
-        <v>0.1498759835958481</v>
+        <v>0.14987598359584811</v>
       </c>
       <c r="E114">
         <v>-19.1635856628418</v>
       </c>
       <c r="F114">
-        <v>7.784899234771729</v>
+        <v>7.7848992347717294</v>
       </c>
       <c r="G114">
-        <v>6.407764434814453</v>
+        <v>6.4077644348144531</v>
       </c>
       <c r="H114">
-        <v>-9.574684143066406</v>
+        <v>-9.5746841430664063</v>
       </c>
       <c r="I114">
-        <v>-13.51733112335205</v>
+        <v>-13.517331123352051</v>
       </c>
       <c r="J114">
-        <v>-9.113383293151855</v>
+        <v>-9.1133832931518555</v>
       </c>
       <c r="K114">
         <v>-8.764073371887207</v>
       </c>
       <c r="L114">
-        <v>-12.14627552032471</v>
+        <v>-12.146275520324711</v>
       </c>
       <c r="M114">
-        <v>-7.64403247833252</v>
+        <v>-7.6440324783325204</v>
       </c>
       <c r="N114">
-        <v>-1.173835635185242</v>
+        <v>-1.1738356351852419</v>
       </c>
       <c r="O114" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="115" spans="1:15">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>128</v>
       </c>
@@ -6226,93 +6245,93 @@
         <v>-547.42724609375</v>
       </c>
       <c r="C115">
-        <v>118.2924575805664</v>
+        <v>118.29245758056641</v>
       </c>
       <c r="D115">
         <v>1.639172315597534</v>
       </c>
       <c r="E115">
-        <v>-19.09528160095215</v>
+        <v>-19.095281600952148</v>
       </c>
       <c r="F115">
-        <v>7.116630554199219</v>
+        <v>7.1166305541992188</v>
       </c>
       <c r="G115">
-        <v>6.815315723419189</v>
+        <v>6.8153157234191886</v>
       </c>
       <c r="H115">
-        <v>-6.62867546081543</v>
+        <v>-6.6286754608154297</v>
       </c>
       <c r="I115">
         <v>-11.10263061523438</v>
       </c>
       <c r="J115">
-        <v>-9.15996265411377</v>
+        <v>-9.1599626541137695</v>
       </c>
       <c r="K115">
-        <v>-9.330996513366699</v>
+        <v>-9.3309965133666992</v>
       </c>
       <c r="L115">
-        <v>-13.13345623016357</v>
+        <v>-13.133456230163571</v>
       </c>
       <c r="M115">
-        <v>-9.266491889953613</v>
+        <v>-9.2664918899536133</v>
       </c>
       <c r="N115">
-        <v>-1.360644221305847</v>
+        <v>-1.3606442213058469</v>
       </c>
       <c r="O115" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="116" spans="1:15">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>129</v>
       </c>
       <c r="B116">
-        <v>-679.4548950195312</v>
+        <v>-679.45489501953125</v>
       </c>
       <c r="C116">
         <v>113.2853698730469</v>
       </c>
       <c r="D116">
-        <v>19.46786499023438</v>
+        <v>19.467864990234379</v>
       </c>
       <c r="E116">
-        <v>-8.665903091430664</v>
+        <v>-8.6659030914306641</v>
       </c>
       <c r="F116">
-        <v>7.855478763580322</v>
+        <v>7.8554787635803223</v>
       </c>
       <c r="G116">
-        <v>9.446945190429688</v>
+        <v>9.4469451904296875</v>
       </c>
       <c r="H116">
-        <v>-2.157731533050537</v>
+        <v>-2.1577315330505371</v>
       </c>
       <c r="I116">
-        <v>-5.924516677856445</v>
+        <v>-5.9245166778564453</v>
       </c>
       <c r="J116">
-        <v>-6.332886219024658</v>
+        <v>-6.3328862190246582</v>
       </c>
       <c r="K116">
-        <v>-10.26478004455566</v>
+        <v>-10.264780044555661</v>
       </c>
       <c r="L116">
         <v>-12.10801982879639</v>
       </c>
       <c r="M116">
-        <v>-8.540922164916992</v>
+        <v>-8.5409221649169922</v>
       </c>
       <c r="N116">
-        <v>-4.297303199768066</v>
+        <v>-4.2973031997680664</v>
       </c>
       <c r="O116" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="117" spans="1:15">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>130</v>
       </c>
@@ -6329,84 +6348,84 @@
         <v>-11.73721504211426</v>
       </c>
       <c r="F117">
-        <v>10.33281517028809</v>
+        <v>10.332815170288089</v>
       </c>
       <c r="G117">
-        <v>8.192758560180664</v>
+        <v>8.1927585601806641</v>
       </c>
       <c r="H117">
-        <v>-6.9532151222229</v>
+        <v>-6.9532151222229004</v>
       </c>
       <c r="I117">
-        <v>-7.33535099029541</v>
+        <v>-7.3353509902954102</v>
       </c>
       <c r="J117">
-        <v>-4.988522529602051</v>
+        <v>-4.9885225296020508</v>
       </c>
       <c r="K117">
         <v>-10.80860042572021</v>
       </c>
       <c r="L117">
-        <v>-13.71560192108154</v>
+        <v>-13.715601921081539</v>
       </c>
       <c r="M117">
-        <v>-8.629569053649902</v>
+        <v>-8.6295690536499023</v>
       </c>
       <c r="N117">
-        <v>-4.050000667572021</v>
+        <v>-4.0500006675720206</v>
       </c>
       <c r="O117" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="118" spans="1:15">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>131</v>
       </c>
       <c r="B118">
-        <v>-686.4758911132812</v>
+        <v>-686.47589111328125</v>
       </c>
       <c r="C118">
-        <v>114.6708755493164</v>
+        <v>114.67087554931641</v>
       </c>
       <c r="D118">
-        <v>20.80254173278809</v>
+        <v>20.802541732788089</v>
       </c>
       <c r="E118">
-        <v>-6.957205772399902</v>
+        <v>-6.9572057723999023</v>
       </c>
       <c r="F118">
-        <v>8.442903518676758</v>
+        <v>8.4429035186767578</v>
       </c>
       <c r="G118">
-        <v>10.18507862091064</v>
+        <v>10.185078620910639</v>
       </c>
       <c r="H118">
-        <v>0.2072363048791885</v>
+        <v>0.20723630487918851</v>
       </c>
       <c r="I118">
-        <v>-4.973252773284912</v>
+        <v>-4.9732527732849121</v>
       </c>
       <c r="J118">
-        <v>-9.193906784057617</v>
+        <v>-9.1939067840576172</v>
       </c>
       <c r="K118">
-        <v>-13.74483394622803</v>
+        <v>-13.744833946228029</v>
       </c>
       <c r="L118">
-        <v>-11.56893539428711</v>
+        <v>-11.568935394287109</v>
       </c>
       <c r="M118">
-        <v>-4.775851726531982</v>
+        <v>-4.7758517265319824</v>
       </c>
       <c r="N118">
-        <v>-2.385403633117676</v>
+        <v>-2.3854036331176758</v>
       </c>
       <c r="O118" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="119" spans="1:15">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>132</v>
       </c>
@@ -6414,57 +6433,57 @@
         <v>-640.2132568359375</v>
       </c>
       <c r="C119">
-        <v>114.7362289428711</v>
+        <v>114.73622894287109</v>
       </c>
       <c r="D119">
-        <v>10.12145614624023</v>
+        <v>10.121456146240231</v>
       </c>
       <c r="E119">
-        <v>-12.5333080291748</v>
+        <v>-12.533308029174799</v>
       </c>
       <c r="F119">
-        <v>8.34662914276123</v>
+        <v>8.3466291427612305</v>
       </c>
       <c r="G119">
-        <v>6.648970127105713</v>
+        <v>6.6489701271057129</v>
       </c>
       <c r="H119">
-        <v>-5.005630016326904</v>
+        <v>-5.0056300163269043</v>
       </c>
       <c r="I119">
         <v>-5.511533260345459</v>
       </c>
       <c r="J119">
-        <v>-5.767886638641357</v>
+        <v>-5.7678866386413574</v>
       </c>
       <c r="K119">
-        <v>-12.10125541687012</v>
+        <v>-12.101255416870121</v>
       </c>
       <c r="L119">
-        <v>-13.57628440856934</v>
+        <v>-13.576284408569339</v>
       </c>
       <c r="M119">
-        <v>-6.656022548675537</v>
+        <v>-6.6560225486755371</v>
       </c>
       <c r="N119">
-        <v>-2.233827829360962</v>
+        <v>-2.2338278293609619</v>
       </c>
       <c r="O119" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="120" spans="1:15">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>133</v>
       </c>
       <c r="B120">
-        <v>-626.3464965820312</v>
+        <v>-626.34649658203125</v>
       </c>
       <c r="C120">
-        <v>111.3801422119141</v>
+        <v>111.38014221191411</v>
       </c>
       <c r="D120">
-        <v>7.598945617675781</v>
+        <v>7.5989456176757813</v>
       </c>
       <c r="E120">
         <v>-15.53870964050293</v>
@@ -6473,10 +6492,10 @@
         <v>8.723353385925293</v>
       </c>
       <c r="G120">
-        <v>9.31660270690918</v>
+        <v>9.3166027069091797</v>
       </c>
       <c r="H120">
-        <v>-4.707769870758057</v>
+        <v>-4.7077698707580566</v>
       </c>
       <c r="I120">
         <v>-6.368372917175293</v>
@@ -6494,13 +6513,13 @@
         <v>-6.085693359375</v>
       </c>
       <c r="N120">
-        <v>-2.484028339385986</v>
+        <v>-2.4840283393859859</v>
       </c>
       <c r="O120" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="121" spans="1:15">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>134</v>
       </c>
@@ -6511,34 +6530,34 @@
         <v>110.2939834594727</v>
       </c>
       <c r="D121">
-        <v>7.575598239898682</v>
+        <v>7.5755982398986816</v>
       </c>
       <c r="E121">
         <v>-12.92796516418457</v>
       </c>
       <c r="F121">
-        <v>9.640111923217773</v>
+        <v>9.6401119232177734</v>
       </c>
       <c r="G121">
-        <v>6.841108798980713</v>
+        <v>6.8411087989807129</v>
       </c>
       <c r="H121">
-        <v>-6.938811302185059</v>
+        <v>-6.9388113021850586</v>
       </c>
       <c r="I121">
-        <v>-7.059916496276855</v>
+        <v>-7.0599164962768546</v>
       </c>
       <c r="J121">
-        <v>-4.958978652954102</v>
+        <v>-4.9589786529541016</v>
       </c>
       <c r="K121">
-        <v>-9.765887260437012</v>
+        <v>-9.7658872604370117</v>
       </c>
       <c r="L121">
-        <v>-12.3872241973877</v>
+        <v>-12.387224197387701</v>
       </c>
       <c r="M121">
-        <v>-7.320592403411865</v>
+        <v>-7.3205924034118652</v>
       </c>
       <c r="N121">
         <v>-3.203553438186646</v>
@@ -6547,12 +6566,12 @@
         <v>157</v>
       </c>
     </row>
-    <row r="122" spans="1:15">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>135</v>
       </c>
       <c r="B122">
-        <v>-607.5016479492188</v>
+        <v>-607.50164794921875</v>
       </c>
       <c r="C122">
         <v>113.5158615112305</v>
@@ -6561,40 +6580,40 @@
         <v>3.491425514221191</v>
       </c>
       <c r="E122">
-        <v>-17.02379989624023</v>
+        <v>-17.023799896240231</v>
       </c>
       <c r="F122">
-        <v>8.096395492553711</v>
+        <v>8.0963954925537109</v>
       </c>
       <c r="G122">
-        <v>7.873996734619141</v>
+        <v>7.8739967346191406</v>
       </c>
       <c r="H122">
-        <v>-5.289663791656494</v>
+        <v>-5.2896637916564941</v>
       </c>
       <c r="I122">
-        <v>-8.366384506225586</v>
+        <v>-8.3663845062255859</v>
       </c>
       <c r="J122">
-        <v>-6.883404731750488</v>
+        <v>-6.8834047317504883</v>
       </c>
       <c r="K122">
-        <v>-10.37791347503662</v>
+        <v>-10.377913475036619</v>
       </c>
       <c r="L122">
         <v>-15.11674213409424</v>
       </c>
       <c r="M122">
-        <v>-9.452289581298828</v>
+        <v>-9.4522895812988281</v>
       </c>
       <c r="N122">
-        <v>-0.303834080696106</v>
+        <v>-0.30383408069610601</v>
       </c>
       <c r="O122" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="123" spans="1:15">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>136</v>
       </c>
@@ -6605,25 +6624,25 @@
         <v>112.784553527832</v>
       </c>
       <c r="D123">
-        <v>4.032879829406738</v>
+        <v>4.0328798294067383</v>
       </c>
       <c r="E123">
-        <v>-17.85508728027344</v>
+        <v>-17.855087280273441</v>
       </c>
       <c r="F123">
         <v>8.847198486328125</v>
       </c>
       <c r="G123">
-        <v>9.063686370849609</v>
+        <v>9.0636863708496094</v>
       </c>
       <c r="H123">
-        <v>-6.389712333679199</v>
+        <v>-6.3897123336791992</v>
       </c>
       <c r="I123">
-        <v>-9.179146766662598</v>
+        <v>-9.1791467666625977</v>
       </c>
       <c r="J123">
-        <v>-7.165602684020996</v>
+        <v>-7.1656026840209961</v>
       </c>
       <c r="K123">
         <v>-11.50309371948242</v>
@@ -6641,7 +6660,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="124" spans="1:15">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>137</v>
       </c>
@@ -6649,37 +6668,37 @@
         <v>-554.143798828125</v>
       </c>
       <c r="C124">
-        <v>117.1950073242188</v>
+        <v>117.19500732421881</v>
       </c>
       <c r="D124">
-        <v>0.895857036113739</v>
+        <v>0.89585703611373901</v>
       </c>
       <c r="E124">
-        <v>-17.14739608764648</v>
+        <v>-17.147396087646481</v>
       </c>
       <c r="F124">
-        <v>10.53898620605469</v>
+        <v>10.538986206054689</v>
       </c>
       <c r="G124">
         <v>6.487581729888916</v>
       </c>
       <c r="H124">
-        <v>-7.514570236206055</v>
+        <v>-7.5145702362060547</v>
       </c>
       <c r="I124">
-        <v>-5.15293550491333</v>
+        <v>-5.1529355049133301</v>
       </c>
       <c r="J124">
-        <v>-0.8687857389450073</v>
+        <v>-0.86878573894500732</v>
       </c>
       <c r="K124">
-        <v>-4.234766006469727</v>
+        <v>-4.2347660064697266</v>
       </c>
       <c r="L124">
-        <v>-7.648736953735352</v>
+        <v>-7.6487369537353516</v>
       </c>
       <c r="M124">
-        <v>-4.990651607513428</v>
+        <v>-4.9906516075134277</v>
       </c>
       <c r="N124">
         <v>-1.466683149337769</v>
@@ -6688,45 +6707,45 @@
         <v>158</v>
       </c>
     </row>
-    <row r="125" spans="1:15">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>138</v>
       </c>
       <c r="B125">
-        <v>-565.0560913085938</v>
+        <v>-565.05609130859375</v>
       </c>
       <c r="C125">
         <v>120.5460586547852</v>
       </c>
       <c r="D125">
-        <v>-1.411228775978088</v>
+        <v>-1.4112287759780879</v>
       </c>
       <c r="E125">
-        <v>-16.41695213317871</v>
+        <v>-16.416952133178711</v>
       </c>
       <c r="F125">
-        <v>11.63525581359863</v>
+        <v>11.635255813598629</v>
       </c>
       <c r="G125">
-        <v>3.222606658935547</v>
+        <v>3.2226066589355469</v>
       </c>
       <c r="H125">
         <v>-10.37705135345459</v>
       </c>
       <c r="I125">
-        <v>-5.029685974121094</v>
+        <v>-5.0296859741210938</v>
       </c>
       <c r="J125">
         <v>-1.936660528182983</v>
       </c>
       <c r="K125">
-        <v>-6.949540138244629</v>
+        <v>-6.9495401382446289</v>
       </c>
       <c r="L125">
-        <v>-8.212431907653809</v>
+        <v>-8.2124319076538086</v>
       </c>
       <c r="M125">
-        <v>-4.0245041847229</v>
+        <v>-4.0245041847229004</v>
       </c>
       <c r="N125">
         <v>-2.215397834777832</v>
@@ -6735,7 +6754,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="126" spans="1:15">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>139</v>
       </c>
@@ -6743,51 +6762,51 @@
         <v>-551.946044921875</v>
       </c>
       <c r="C126">
-        <v>120.8339996337891</v>
+        <v>120.83399963378911</v>
       </c>
       <c r="D126">
-        <v>-3.083616018295288</v>
+        <v>-3.0836160182952881</v>
       </c>
       <c r="E126">
-        <v>-15.25075435638428</v>
+        <v>-15.250754356384279</v>
       </c>
       <c r="F126">
-        <v>12.45151138305664</v>
+        <v>12.451511383056641</v>
       </c>
       <c r="G126">
-        <v>5.162042617797852</v>
+        <v>5.1620426177978516</v>
       </c>
       <c r="H126">
-        <v>-7.990063190460205</v>
+        <v>-7.9900631904602051</v>
       </c>
       <c r="I126">
-        <v>-5.632952690124512</v>
+        <v>-5.6329526901245117</v>
       </c>
       <c r="J126">
-        <v>-2.412765979766846</v>
+        <v>-2.4127659797668461</v>
       </c>
       <c r="K126">
-        <v>-7.834633350372314</v>
+        <v>-7.8346333503723136</v>
       </c>
       <c r="L126">
         <v>-11.49048328399658</v>
       </c>
       <c r="M126">
-        <v>-5.036823272705078</v>
+        <v>-5.0368232727050781</v>
       </c>
       <c r="N126">
-        <v>-1.005486488342285</v>
+        <v>-1.0054864883422849</v>
       </c>
       <c r="O126" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="127" spans="1:15">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>140</v>
       </c>
       <c r="B127">
-        <v>-525.5722045898438</v>
+        <v>-525.57220458984375</v>
       </c>
       <c r="C127">
         <v>109.3502197265625</v>
@@ -6796,60 +6815,60 @@
         <v>2.890671968460083</v>
       </c>
       <c r="E127">
-        <v>-13.86553764343262</v>
+        <v>-13.865537643432621</v>
       </c>
       <c r="F127">
-        <v>9.253619194030762</v>
+        <v>9.2536191940307617</v>
       </c>
       <c r="G127">
-        <v>4.416027545928955</v>
+        <v>4.4160275459289551</v>
       </c>
       <c r="H127">
-        <v>-8.130348205566406</v>
+        <v>-8.1303482055664063</v>
       </c>
       <c r="I127">
-        <v>-6.284925937652588</v>
+        <v>-6.2849259376525879</v>
       </c>
       <c r="J127">
-        <v>-2.240660905838013</v>
+        <v>-2.2406609058380131</v>
       </c>
       <c r="K127">
-        <v>-5.773948669433594</v>
+        <v>-5.7739486694335938</v>
       </c>
       <c r="L127">
         <v>-10.27670288085938</v>
       </c>
       <c r="M127">
-        <v>-7.376398086547852</v>
+        <v>-7.3763980865478516</v>
       </c>
       <c r="N127">
-        <v>-3.208591938018799</v>
+        <v>-3.2085919380187988</v>
       </c>
       <c r="O127" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="128" spans="1:15">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>141</v>
       </c>
       <c r="B128">
-        <v>-471.7763977050781</v>
+        <v>-471.77639770507813</v>
       </c>
       <c r="C128">
-        <v>123.0380630493164</v>
+        <v>123.03806304931641</v>
       </c>
       <c r="D128">
-        <v>-1.229021668434143</v>
+        <v>-1.2290216684341431</v>
       </c>
       <c r="E128">
-        <v>-23.17794609069824</v>
+        <v>-23.177946090698239</v>
       </c>
       <c r="F128">
         <v>7.11456298828125</v>
       </c>
       <c r="G128">
-        <v>6.084470748901367</v>
+        <v>6.0844707489013672</v>
       </c>
       <c r="H128">
         <v>-9.598388671875</v>
@@ -6858,13 +6877,13 @@
         <v>-9.430567741394043</v>
       </c>
       <c r="J128">
-        <v>-4.834344863891602</v>
+        <v>-4.8343448638916016</v>
       </c>
       <c r="K128">
         <v>-8.881962776184082</v>
       </c>
       <c r="L128">
-        <v>-11.97033309936523</v>
+        <v>-11.970333099365231</v>
       </c>
       <c r="M128">
         <v>-5.234220027923584</v>
@@ -6876,18 +6895,18 @@
         <v>158</v>
       </c>
     </row>
-    <row r="129" spans="1:15">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>142</v>
       </c>
       <c r="B129">
-        <v>-490.2208862304688</v>
+        <v>-490.22088623046881</v>
       </c>
       <c r="C129">
         <v>158.1023254394531</v>
       </c>
       <c r="D129">
-        <v>-11.11932182312012</v>
+        <v>-11.119321823120121</v>
       </c>
       <c r="E129">
         <v>-30.39982795715332</v>
@@ -6896,81 +6915,81 @@
         <v>10.02347373962402</v>
       </c>
       <c r="G129">
-        <v>6.764150142669678</v>
+        <v>6.7641501426696777</v>
       </c>
       <c r="H129">
-        <v>-8.747840881347656</v>
+        <v>-8.7478408813476563</v>
       </c>
       <c r="I129">
         <v>-10.80605411529541</v>
       </c>
       <c r="J129">
-        <v>-8.754952430725098</v>
+        <v>-8.7549524307250977</v>
       </c>
       <c r="K129">
         <v>-10.44139957427979</v>
       </c>
       <c r="L129">
-        <v>-13.69956302642822</v>
+        <v>-13.699563026428221</v>
       </c>
       <c r="M129">
-        <v>-6.547871589660645</v>
+        <v>-6.5478715896606454</v>
       </c>
       <c r="N129">
-        <v>0.6248652935028076</v>
+        <v>0.62486529350280762</v>
       </c>
       <c r="O129" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="130" spans="1:15">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>143</v>
       </c>
       <c r="B130">
-        <v>-479.8439636230469</v>
+        <v>-479.84396362304688</v>
       </c>
       <c r="C130">
-        <v>131.6950225830078</v>
+        <v>131.69502258300781</v>
       </c>
       <c r="D130">
-        <v>-5.648481369018555</v>
+        <v>-5.6484813690185547</v>
       </c>
       <c r="E130">
-        <v>-26.49615669250488</v>
+        <v>-26.496156692504879</v>
       </c>
       <c r="F130">
-        <v>4.459750175476074</v>
+        <v>4.4597501754760742</v>
       </c>
       <c r="G130">
-        <v>6.004079341888428</v>
+        <v>6.0040793418884277</v>
       </c>
       <c r="H130">
-        <v>-6.587292194366455</v>
+        <v>-6.5872921943664551</v>
       </c>
       <c r="I130">
-        <v>-10.32966804504395</v>
+        <v>-10.329668045043951</v>
       </c>
       <c r="J130">
-        <v>-8.792357444763184</v>
+        <v>-8.7923574447631836</v>
       </c>
       <c r="K130">
-        <v>-12.43561553955078</v>
+        <v>-12.435615539550779</v>
       </c>
       <c r="L130">
-        <v>-14.33052539825439</v>
+        <v>-14.330525398254389</v>
       </c>
       <c r="M130">
         <v>-5.24005126953125</v>
       </c>
       <c r="N130">
-        <v>-0.04357766360044479</v>
+        <v>-4.3577663600444787E-2</v>
       </c>
       <c r="O130" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="131" spans="1:15">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>144</v>
       </c>
@@ -6984,134 +7003,134 @@
         <v>-3.38495922088623</v>
       </c>
       <c r="E131">
-        <v>-28.2425479888916</v>
+        <v>-28.242547988891602</v>
       </c>
       <c r="F131">
-        <v>5.18669605255127</v>
+        <v>5.1866960525512704</v>
       </c>
       <c r="G131">
-        <v>7.972521781921387</v>
+        <v>7.9725217819213867</v>
       </c>
       <c r="H131">
-        <v>-9.512002944946289</v>
+        <v>-9.5120029449462891</v>
       </c>
       <c r="I131">
         <v>-13.43022441864014</v>
       </c>
       <c r="J131">
-        <v>-6.733055114746094</v>
+        <v>-6.7330551147460938</v>
       </c>
       <c r="K131">
-        <v>-9.47175407409668</v>
+        <v>-9.4717540740966797</v>
       </c>
       <c r="L131">
         <v>-14.28883647918701</v>
       </c>
       <c r="M131">
-        <v>-5.007828712463379</v>
+        <v>-5.0078287124633789</v>
       </c>
       <c r="N131">
-        <v>2.144107103347778</v>
+        <v>2.1441071033477779</v>
       </c>
       <c r="O131" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="132" spans="1:15">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>145</v>
       </c>
       <c r="B132">
-        <v>-631.5912475585938</v>
+        <v>-631.59124755859375</v>
       </c>
       <c r="C132">
         <v>116.0398483276367</v>
       </c>
       <c r="D132">
-        <v>5.339461803436279</v>
+        <v>5.3394618034362793</v>
       </c>
       <c r="E132">
-        <v>-16.35742568969727</v>
+        <v>-16.357425689697269</v>
       </c>
       <c r="F132">
-        <v>9.661428451538086</v>
+        <v>9.6614284515380859</v>
       </c>
       <c r="G132">
-        <v>8.006540298461914</v>
+        <v>8.0065402984619141</v>
       </c>
       <c r="H132">
-        <v>-7.875346183776855</v>
+        <v>-7.8753461837768546</v>
       </c>
       <c r="I132">
-        <v>-9.346081733703613</v>
+        <v>-9.3460817337036133</v>
       </c>
       <c r="J132">
-        <v>-5.419115543365479</v>
+        <v>-5.4191155433654794</v>
       </c>
       <c r="K132">
-        <v>-8.088153839111328</v>
+        <v>-8.0881538391113281</v>
       </c>
       <c r="L132">
         <v>-11.26127910614014</v>
       </c>
       <c r="M132">
-        <v>-6.967031002044678</v>
+        <v>-6.9670310020446777</v>
       </c>
       <c r="N132">
-        <v>-2.290415287017822</v>
+        <v>-2.2904152870178218</v>
       </c>
       <c r="O132" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="133" spans="1:15">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>146</v>
       </c>
       <c r="B133">
-        <v>-655.4281616210938</v>
+        <v>-655.42816162109375</v>
       </c>
       <c r="C133">
-        <v>117.1377944946289</v>
+        <v>117.13779449462891</v>
       </c>
       <c r="D133">
-        <v>4.455345153808594</v>
+        <v>4.4553451538085938</v>
       </c>
       <c r="E133">
-        <v>-16.84619522094727</v>
+        <v>-16.846195220947269</v>
       </c>
       <c r="F133">
         <v>10.05861663818359</v>
       </c>
       <c r="G133">
-        <v>8.046734809875488</v>
+        <v>8.0467348098754883</v>
       </c>
       <c r="H133">
-        <v>-7.838040351867676</v>
+        <v>-7.8380403518676758</v>
       </c>
       <c r="I133">
-        <v>-8.341265678405762</v>
+        <v>-8.3412656784057617</v>
       </c>
       <c r="J133">
-        <v>-4.579712390899658</v>
+        <v>-4.5797123908996582</v>
       </c>
       <c r="K133">
-        <v>-9.10004997253418</v>
+        <v>-9.1000499725341797</v>
       </c>
       <c r="L133">
         <v>-13.26296806335449</v>
       </c>
       <c r="M133">
-        <v>-7.52617883682251</v>
+        <v>-7.5261788368225098</v>
       </c>
       <c r="N133">
-        <v>-0.9208493828773499</v>
+        <v>-0.92084938287734985</v>
       </c>
       <c r="O133" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="134" spans="1:15">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>147</v>
       </c>
@@ -7125,31 +7144,31 @@
         <v>9.167510986328125</v>
       </c>
       <c r="E134">
-        <v>-14.93184566497803</v>
+        <v>-14.931845664978029</v>
       </c>
       <c r="F134">
-        <v>7.805480480194092</v>
+        <v>7.8054804801940918</v>
       </c>
       <c r="G134">
-        <v>9.533634185791016</v>
+        <v>9.5336341857910156</v>
       </c>
       <c r="H134">
-        <v>-4.203392028808594</v>
+        <v>-4.2033920288085938</v>
       </c>
       <c r="I134">
-        <v>-8.849608421325684</v>
+        <v>-8.8496084213256836</v>
       </c>
       <c r="J134">
-        <v>-5.997564792633057</v>
+        <v>-5.9975647926330566</v>
       </c>
       <c r="K134">
-        <v>-6.438222885131836</v>
+        <v>-6.4382228851318359</v>
       </c>
       <c r="L134">
-        <v>-10.43036079406738</v>
+        <v>-10.430360794067379</v>
       </c>
       <c r="M134">
-        <v>-8.85471248626709</v>
+        <v>-8.8547124862670898</v>
       </c>
       <c r="N134">
         <v>-2.990902185440063</v>
@@ -7158,7 +7177,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="135" spans="1:15">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>148</v>
       </c>
@@ -7169,43 +7188,43 @@
         <v>116.2255325317383</v>
       </c>
       <c r="D135">
-        <v>8.268393516540527</v>
+        <v>8.2683935165405273</v>
       </c>
       <c r="E135">
-        <v>-16.27487564086914</v>
+        <v>-16.274875640869141</v>
       </c>
       <c r="F135">
-        <v>8.93943977355957</v>
+        <v>8.9394397735595703</v>
       </c>
       <c r="G135">
         <v>10.0687198638916</v>
       </c>
       <c r="H135">
-        <v>-5.580851554870605</v>
+        <v>-5.5808515548706046</v>
       </c>
       <c r="I135">
-        <v>-9.835829734802246</v>
+        <v>-9.8358297348022461</v>
       </c>
       <c r="J135">
-        <v>-8.16452693939209</v>
+        <v>-8.1645269393920898</v>
       </c>
       <c r="K135">
         <v>-11.17806911468506</v>
       </c>
       <c r="L135">
-        <v>-13.46085643768311</v>
+        <v>-13.460856437683111</v>
       </c>
       <c r="M135">
-        <v>-7.669399261474609</v>
+        <v>-7.6693992614746094</v>
       </c>
       <c r="N135">
-        <v>-1.003647208213806</v>
+        <v>-1.0036472082138059</v>
       </c>
       <c r="O135" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="136" spans="1:15">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>149</v>
       </c>
@@ -7216,43 +7235,43 @@
         <v>112.1175003051758</v>
       </c>
       <c r="D136">
-        <v>5.693538665771484</v>
+        <v>5.6935386657714844</v>
       </c>
       <c r="E136">
-        <v>-19.63511657714844</v>
+        <v>-19.635116577148441</v>
       </c>
       <c r="F136">
-        <v>6.276520729064941</v>
+        <v>6.2765207290649414</v>
       </c>
       <c r="G136">
-        <v>9.46639347076416</v>
+        <v>9.4663934707641602</v>
       </c>
       <c r="H136">
         <v>-6.396644115447998</v>
       </c>
       <c r="I136">
-        <v>-10.44449138641357</v>
+        <v>-10.444491386413571</v>
       </c>
       <c r="J136">
-        <v>-5.54673433303833</v>
+        <v>-5.5467343330383301</v>
       </c>
       <c r="K136">
-        <v>-7.699543952941895</v>
+        <v>-7.6995439529418954</v>
       </c>
       <c r="L136">
-        <v>-13.76116752624512</v>
+        <v>-13.761167526245121</v>
       </c>
       <c r="M136">
-        <v>-10.4839916229248</v>
+        <v>-10.483991622924799</v>
       </c>
       <c r="N136">
-        <v>-2.800752878189087</v>
+        <v>-2.8007528781890869</v>
       </c>
       <c r="O136" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="137" spans="1:15">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>150</v>
       </c>
@@ -7263,43 +7282,43 @@
         <v>122.8736953735352</v>
       </c>
       <c r="D137">
-        <v>5.711935043334961</v>
+        <v>5.7119350433349609</v>
       </c>
       <c r="E137">
         <v>-21.56381797790527</v>
       </c>
       <c r="F137">
-        <v>6.684109210968018</v>
+        <v>6.6841092109680176</v>
       </c>
       <c r="G137">
         <v>10.62635326385498</v>
       </c>
       <c r="H137">
-        <v>-4.334024906158447</v>
+        <v>-4.3340249061584473</v>
       </c>
       <c r="I137">
-        <v>-8.708036422729492</v>
+        <v>-8.7080364227294922</v>
       </c>
       <c r="J137">
-        <v>-7.093338012695312</v>
+        <v>-7.0933380126953116</v>
       </c>
       <c r="K137">
-        <v>-10.69543647766113</v>
+        <v>-10.695436477661129</v>
       </c>
       <c r="L137">
         <v>-14.70582485198975</v>
       </c>
       <c r="M137">
-        <v>-10.0818510055542</v>
+        <v>-10.081851005554199</v>
       </c>
       <c r="N137">
-        <v>-2.65524435043335</v>
+        <v>-2.6552443504333501</v>
       </c>
       <c r="O137" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="138" spans="1:15">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>151</v>
       </c>
@@ -7310,25 +7329,25 @@
         <v>113.3044891357422</v>
       </c>
       <c r="D138">
-        <v>2.127963066101074</v>
+        <v>2.1279630661010742</v>
       </c>
       <c r="E138">
-        <v>-20.08273696899414</v>
+        <v>-20.082736968994141</v>
       </c>
       <c r="F138">
         <v>7.964970588684082</v>
       </c>
       <c r="G138">
-        <v>11.42812824249268</v>
+        <v>11.428128242492679</v>
       </c>
       <c r="H138">
         <v>-3.228728055953979</v>
       </c>
       <c r="I138">
-        <v>-8.830497741699219</v>
+        <v>-8.8304977416992188</v>
       </c>
       <c r="J138">
-        <v>-8.034408569335938</v>
+        <v>-8.0344085693359375</v>
       </c>
       <c r="K138">
         <v>-11.10106182098389</v>
@@ -7337,7 +7356,7 @@
         <v>-13.07141590118408</v>
       </c>
       <c r="M138">
-        <v>-6.682916641235352</v>
+        <v>-6.6829166412353516</v>
       </c>
       <c r="N138">
         <v>-1.20299768447876</v>
@@ -7346,27 +7365,27 @@
         <v>154</v>
       </c>
     </row>
-    <row r="139" spans="1:15">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>152</v>
       </c>
       <c r="B139">
-        <v>-535.5386352539062</v>
+        <v>-535.53863525390625</v>
       </c>
       <c r="C139">
         <v>118.2896194458008</v>
       </c>
       <c r="D139">
-        <v>-1.657000184059143</v>
+        <v>-1.6570001840591431</v>
       </c>
       <c r="E139">
-        <v>-21.92403793334961</v>
+        <v>-21.924037933349609</v>
       </c>
       <c r="F139">
-        <v>8.968427658081055</v>
+        <v>8.9684276580810547</v>
       </c>
       <c r="G139">
-        <v>10.98511028289795</v>
+        <v>10.985110282897949</v>
       </c>
       <c r="H139">
         <v>-4.779883861541748</v>
@@ -7375,19 +7394,19 @@
         <v>-10.1378927230835</v>
       </c>
       <c r="J139">
-        <v>-9.501436233520508</v>
+        <v>-9.5014362335205078</v>
       </c>
       <c r="K139">
-        <v>-13.36428451538086</v>
+        <v>-13.364284515380859</v>
       </c>
       <c r="L139">
-        <v>-15.23303604125977</v>
+        <v>-15.233036041259769</v>
       </c>
       <c r="M139">
-        <v>-6.544880390167236</v>
+        <v>-6.5448803901672363</v>
       </c>
       <c r="N139">
-        <v>0.2965817451477051</v>
+        <v>0.29658174514770508</v>
       </c>
       <c r="O139" t="s">
         <v>154</v>

--- a/output/Actor_01/output_data.xlsx
+++ b/output/Actor_01/output_data.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MCA\4th sem\SER3\output\Actor_01\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D4B6DE-600A-46FA-8810-60641C120104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -508,8 +502,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -572,21 +566,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -624,7 +610,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -658,7 +644,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -693,10 +678,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -869,17 +853,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="34.21875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -926,7 +907,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -937,43 +918,43 @@
         <v>126.3021240234375</v>
       </c>
       <c r="D2">
-        <v>14.451310157775881</v>
+        <v>14.45131015777588</v>
       </c>
       <c r="E2">
-        <v>-6.4719338417053223</v>
+        <v>-6.471933841705322</v>
       </c>
       <c r="F2">
-        <v>9.2409353256225586</v>
+        <v>9.240935325622559</v>
       </c>
       <c r="G2">
-        <v>8.3799324035644531</v>
+        <v>8.379932403564453</v>
       </c>
       <c r="H2">
-        <v>3.5517385005950932</v>
+        <v>3.551738500595093</v>
       </c>
       <c r="I2">
         <v>-1.289262533187866</v>
       </c>
       <c r="J2">
-        <v>-6.6313591003417969</v>
+        <v>-6.631359100341797</v>
       </c>
       <c r="K2">
-        <v>-7.4890918731689453</v>
+        <v>-7.489091873168945</v>
       </c>
       <c r="L2">
-        <v>-4.4608874320983887</v>
+        <v>-4.460887432098389</v>
       </c>
       <c r="M2">
         <v>-1.314007163047791</v>
       </c>
       <c r="N2">
-        <v>-1.0683614015579219</v>
+        <v>-1.068361401557922</v>
       </c>
       <c r="O2" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -993,25 +974,25 @@
         <v>15.17212009429932</v>
       </c>
       <c r="G3">
-        <v>13.261837959289551</v>
+        <v>13.26183795928955</v>
       </c>
       <c r="H3">
         <v>3.14013671875</v>
       </c>
       <c r="I3">
-        <v>0.58589160442352295</v>
+        <v>0.5858916044235229</v>
       </c>
       <c r="J3">
         <v>-1.193271279335022</v>
       </c>
       <c r="K3">
-        <v>-4.6577787399291992</v>
+        <v>-4.657778739929199</v>
       </c>
       <c r="L3">
-        <v>-4.0088820457458496</v>
+        <v>-4.00888204574585</v>
       </c>
       <c r="M3">
-        <v>-0.37366205453872681</v>
+        <v>-0.3736620545387268</v>
       </c>
       <c r="N3">
         <v>0.571491539478302</v>
@@ -1020,101 +1001,101 @@
         <v>154</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
         <v>17</v>
       </c>
       <c r="B4">
-        <v>-749.80072021484375</v>
+        <v>-749.8007202148438</v>
       </c>
       <c r="C4">
-        <v>91.809982299804688</v>
+        <v>91.80998229980469</v>
       </c>
       <c r="D4">
         <v>13.06817626953125</v>
       </c>
       <c r="E4">
-        <v>-4.5012125968933114</v>
+        <v>-4.501212596893311</v>
       </c>
       <c r="F4">
-        <v>9.3968963623046875</v>
+        <v>9.396896362304688</v>
       </c>
       <c r="G4">
-        <v>8.2221651077270508</v>
+        <v>8.222165107727051</v>
       </c>
       <c r="H4">
         <v>1.010908246040344</v>
       </c>
       <c r="I4">
-        <v>-0.66374301910400391</v>
+        <v>-0.6637430191040039</v>
       </c>
       <c r="J4">
-        <v>-2.4873495101928711</v>
+        <v>-2.487349510192871</v>
       </c>
       <c r="K4">
-        <v>-5.5174884796142578</v>
+        <v>-5.517488479614258</v>
       </c>
       <c r="L4">
-        <v>-5.8951549530029297</v>
+        <v>-5.89515495300293</v>
       </c>
       <c r="M4">
         <v>-3.114599466323853</v>
       </c>
       <c r="N4">
-        <v>-0.85929983854293823</v>
+        <v>-0.8592998385429382</v>
       </c>
       <c r="O4" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
         <v>18</v>
       </c>
       <c r="B5">
-        <v>-731.83355712890625</v>
+        <v>-731.8335571289062</v>
       </c>
       <c r="C5">
-        <v>100.71026611328119</v>
+        <v>100.7102661132812</v>
       </c>
       <c r="D5">
-        <v>12.773415565490721</v>
+        <v>12.77341556549072</v>
       </c>
       <c r="E5">
-        <v>-5.8742337226867676</v>
+        <v>-5.874233722686768</v>
       </c>
       <c r="F5">
-        <v>9.9874868392944336</v>
+        <v>9.987486839294434</v>
       </c>
       <c r="G5">
-        <v>7.7121109962463379</v>
+        <v>7.712110996246338</v>
       </c>
       <c r="H5">
-        <v>-0.59241890907287598</v>
+        <v>-0.592418909072876</v>
       </c>
       <c r="I5">
         <v>-1.693369507789612</v>
       </c>
       <c r="J5">
-        <v>-3.6135761737823491</v>
+        <v>-3.613576173782349</v>
       </c>
       <c r="K5">
-        <v>-6.8817286491394043</v>
+        <v>-6.881728649139404</v>
       </c>
       <c r="L5">
-        <v>-6.0578641891479492</v>
+        <v>-6.057864189147949</v>
       </c>
       <c r="M5">
-        <v>-2.2322149276733398</v>
+        <v>-2.23221492767334</v>
       </c>
       <c r="N5">
-        <v>-0.52584308385848999</v>
+        <v>-0.52584308385849</v>
       </c>
       <c r="O5" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -1125,43 +1106,43 @@
         <v>100.4182052612305</v>
       </c>
       <c r="D6">
-        <v>11.768233299255369</v>
+        <v>11.76823329925537</v>
       </c>
       <c r="E6">
-        <v>-6.2747025489807129</v>
+        <v>-6.274702548980713</v>
       </c>
       <c r="F6">
         <v>11.22258472442627</v>
       </c>
       <c r="G6">
-        <v>9.8501462936401367</v>
+        <v>9.850146293640137</v>
       </c>
       <c r="H6">
-        <v>6.5502919256687164E-2</v>
+        <v>0.06550291925668716</v>
       </c>
       <c r="I6">
         <v>-1.67479944229126</v>
       </c>
       <c r="J6">
-        <v>-2.4173038005828862</v>
+        <v>-2.417303800582886</v>
       </c>
       <c r="K6">
-        <v>-6.1881661415100098</v>
+        <v>-6.18816614151001</v>
       </c>
       <c r="L6">
-        <v>-6.7926287651062012</v>
+        <v>-6.792628765106201</v>
       </c>
       <c r="M6">
-        <v>-2.9974997043609619</v>
+        <v>-2.997499704360962</v>
       </c>
       <c r="N6">
-        <v>-0.35839268565177917</v>
+        <v>-0.3583926856517792</v>
       </c>
       <c r="O6" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -1169,51 +1150,51 @@
         <v>-625.1092529296875</v>
       </c>
       <c r="C7">
-        <v>95.224617004394531</v>
+        <v>95.22461700439453</v>
       </c>
       <c r="D7">
-        <v>5.4739260673522949</v>
+        <v>5.473926067352295</v>
       </c>
       <c r="E7">
-        <v>-9.2375516891479492</v>
+        <v>-9.237551689147949</v>
       </c>
       <c r="F7">
-        <v>8.8423433303833008</v>
+        <v>8.842343330383301</v>
       </c>
       <c r="G7">
-        <v>5.3398270606994629</v>
+        <v>5.339827060699463</v>
       </c>
       <c r="H7">
-        <v>-3.2873961925506592</v>
+        <v>-3.287396192550659</v>
       </c>
       <c r="I7">
         <v>-2.148321151733398</v>
       </c>
       <c r="J7">
-        <v>-0.64543324708938599</v>
+        <v>-0.645433247089386</v>
       </c>
       <c r="K7">
-        <v>-4.0181698799133301</v>
+        <v>-4.01816987991333</v>
       </c>
       <c r="L7">
-        <v>-7.0938186645507813</v>
+        <v>-7.093818664550781</v>
       </c>
       <c r="M7">
         <v>-4.32318115234375</v>
       </c>
       <c r="N7">
-        <v>-0.78326213359832764</v>
+        <v>-0.7832621335983276</v>
       </c>
       <c r="O7" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
         <v>21</v>
       </c>
       <c r="B8">
-        <v>-733.31939697265625</v>
+        <v>-733.3193969726562</v>
       </c>
       <c r="C8">
         <v>113.1140975952148</v>
@@ -1222,54 +1203,54 @@
         <v>15.26656532287598</v>
       </c>
       <c r="E8">
-        <v>-11.047562599182131</v>
+        <v>-11.04756259918213</v>
       </c>
       <c r="F8">
-        <v>6.4633989334106454</v>
+        <v>6.463398933410645</v>
       </c>
       <c r="G8">
-        <v>10.089511871337891</v>
+        <v>10.08951187133789</v>
       </c>
       <c r="H8">
         <v>1.241755604743958</v>
       </c>
       <c r="I8">
-        <v>-3.7963728904724121</v>
+        <v>-3.796372890472412</v>
       </c>
       <c r="J8">
-        <v>-4.9833054542541504</v>
+        <v>-4.98330545425415</v>
       </c>
       <c r="K8">
-        <v>-6.9101600646972656</v>
+        <v>-6.910160064697266</v>
       </c>
       <c r="L8">
-        <v>-7.6359734535217294</v>
+        <v>-7.635973453521729</v>
       </c>
       <c r="M8">
-        <v>-3.8053445816040039</v>
+        <v>-3.805344581604004</v>
       </c>
       <c r="N8">
-        <v>-0.71494024991989136</v>
+        <v>-0.7149402499198914</v>
       </c>
       <c r="O8" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
         <v>22</v>
       </c>
       <c r="B9">
-        <v>-664.79632568359375</v>
+        <v>-664.7963256835938</v>
       </c>
       <c r="C9">
-        <v>104.19236755371089</v>
+        <v>104.1923675537109</v>
       </c>
       <c r="D9">
         <v>15.3116512298584</v>
       </c>
       <c r="E9">
-        <v>-5.9360742568969727</v>
+        <v>-5.936074256896973</v>
       </c>
       <c r="F9">
         <v>12.55309391021729</v>
@@ -1278,19 +1259,19 @@
         <v>11.59202194213867</v>
       </c>
       <c r="H9">
-        <v>-0.71485966444015503</v>
+        <v>-0.714859664440155</v>
       </c>
       <c r="I9">
-        <v>-3.2146480083465581</v>
+        <v>-3.214648008346558</v>
       </c>
       <c r="J9">
-        <v>-3.8802299499511719</v>
+        <v>-3.880229949951172</v>
       </c>
       <c r="K9">
-        <v>-7.6954512596130371</v>
+        <v>-7.695451259613037</v>
       </c>
       <c r="L9">
-        <v>-6.9603133201599121</v>
+        <v>-6.960313320159912</v>
       </c>
       <c r="M9">
         <v>-2.560316801071167</v>
@@ -1302,7 +1283,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -1313,28 +1294,28 @@
         <v>105.1659469604492</v>
       </c>
       <c r="D10">
-        <v>12.134355545043951</v>
+        <v>12.13435554504395</v>
       </c>
       <c r="E10">
-        <v>-9.2536687850952148</v>
+        <v>-9.253668785095215</v>
       </c>
       <c r="F10">
-        <v>9.6965122222900391</v>
+        <v>9.696512222290039</v>
       </c>
       <c r="G10">
-        <v>8.9131793975830078</v>
+        <v>8.913179397583008</v>
       </c>
       <c r="H10">
-        <v>-2.3853862285614009</v>
+        <v>-2.385386228561401</v>
       </c>
       <c r="I10">
-        <v>-3.9513463973999019</v>
+        <v>-3.951346397399902</v>
       </c>
       <c r="J10">
-        <v>-3.5616214275360112</v>
+        <v>-3.561621427536011</v>
       </c>
       <c r="K10">
-        <v>-6.7408566474914551</v>
+        <v>-6.740856647491455</v>
       </c>
       <c r="L10">
         <v>-6.608820915222168</v>
@@ -1349,30 +1330,30 @@
         <v>159</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
         <v>24</v>
       </c>
       <c r="B11">
-        <v>-761.83819580078125</v>
+        <v>-761.8381958007812</v>
       </c>
       <c r="C11">
-        <v>91.639251708984375</v>
+        <v>91.63925170898438</v>
       </c>
       <c r="D11">
-        <v>13.514225006103519</v>
+        <v>13.51422500610352</v>
       </c>
       <c r="E11">
-        <v>-6.0484304428100586</v>
+        <v>-6.048430442810059</v>
       </c>
       <c r="F11">
-        <v>9.9646577835083008</v>
+        <v>9.964657783508301</v>
       </c>
       <c r="G11">
         <v>10.597731590271</v>
       </c>
       <c r="H11">
-        <v>0.77296721935272217</v>
+        <v>0.7729672193527222</v>
       </c>
       <c r="I11">
         <v>-1.776009082794189</v>
@@ -1381,22 +1362,22 @@
         <v>-1.767106771469116</v>
       </c>
       <c r="K11">
-        <v>-4.7201976776123047</v>
+        <v>-4.720197677612305</v>
       </c>
       <c r="L11">
-        <v>-6.0699925422668457</v>
+        <v>-6.069992542266846</v>
       </c>
       <c r="M11">
-        <v>-2.9987678527832031</v>
+        <v>-2.998767852783203</v>
       </c>
       <c r="N11">
-        <v>-5.3704526275396347E-2</v>
+        <v>-0.05370452627539635</v>
       </c>
       <c r="O11" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -1404,28 +1385,28 @@
         <v>-711.2864990234375</v>
       </c>
       <c r="C12">
-        <v>84.758682250976563</v>
+        <v>84.75868225097656</v>
       </c>
       <c r="D12">
         <v>14.2618350982666</v>
       </c>
       <c r="E12">
-        <v>-6.7103910446166992</v>
+        <v>-6.710391044616699</v>
       </c>
       <c r="F12">
-        <v>6.3649587631225586</v>
+        <v>6.364958763122559</v>
       </c>
       <c r="G12">
-        <v>8.3141613006591797</v>
+        <v>8.31416130065918</v>
       </c>
       <c r="H12">
-        <v>-0.35970669984817499</v>
+        <v>-0.359706699848175</v>
       </c>
       <c r="I12">
-        <v>-3.6907272338867192</v>
+        <v>-3.690727233886719</v>
       </c>
       <c r="J12">
-        <v>-3.7032332420349121</v>
+        <v>-3.703233242034912</v>
       </c>
       <c r="K12">
         <v>-5.255549430847168</v>
@@ -1437,13 +1418,13 @@
         <v>-3.441436767578125</v>
       </c>
       <c r="N12">
-        <v>-1.4976575374603269</v>
+        <v>-1.497657537460327</v>
       </c>
       <c r="O12" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -1457,16 +1438,16 @@
         <v>15.64713287353516</v>
       </c>
       <c r="E13">
-        <v>-6.6130390167236328</v>
+        <v>-6.613039016723633</v>
       </c>
       <c r="F13">
-        <v>10.056437492370611</v>
+        <v>10.05643749237061</v>
       </c>
       <c r="G13">
-        <v>11.070608139038089</v>
+        <v>11.07060813903809</v>
       </c>
       <c r="H13">
-        <v>0.75457543134689331</v>
+        <v>0.7545754313468933</v>
       </c>
       <c r="I13">
         <v>-2.56621241569519</v>
@@ -1475,13 +1456,13 @@
         <v>-3.251205682754517</v>
       </c>
       <c r="K13">
-        <v>-6.0113911628723136</v>
+        <v>-6.011391162872314</v>
       </c>
       <c r="L13">
-        <v>-6.5714287757873544</v>
+        <v>-6.571428775787354</v>
       </c>
       <c r="M13">
-        <v>-3.9334168434143071</v>
+        <v>-3.933416843414307</v>
       </c>
       <c r="N13">
         <v>-1.92574155330658</v>
@@ -1490,18 +1471,18 @@
         <v>157</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
         <v>27</v>
       </c>
       <c r="B14">
-        <v>-601.37835693359375</v>
+        <v>-601.3783569335938</v>
       </c>
       <c r="C14">
-        <v>92.089523315429688</v>
+        <v>92.08952331542969</v>
       </c>
       <c r="D14">
-        <v>7.2697572708129883</v>
+        <v>7.269757270812988</v>
       </c>
       <c r="E14">
         <v>-6.843989372253418</v>
@@ -1510,81 +1491,81 @@
         <v>7.348447322845459</v>
       </c>
       <c r="G14">
-        <v>4.7686347961425781</v>
+        <v>4.768634796142578</v>
       </c>
       <c r="H14">
-        <v>-2.0221412181854248</v>
+        <v>-2.022141218185425</v>
       </c>
       <c r="I14">
         <v>-2.405852079391479</v>
       </c>
       <c r="J14">
-        <v>-2.4051318168640141</v>
+        <v>-2.405131816864014</v>
       </c>
       <c r="K14">
-        <v>-6.7231040000915527</v>
+        <v>-6.723104000091553</v>
       </c>
       <c r="L14">
-        <v>-8.6604385375976563</v>
+        <v>-8.660438537597656</v>
       </c>
       <c r="M14">
-        <v>-4.3412446975708008</v>
+        <v>-4.341244697570801</v>
       </c>
       <c r="N14">
-        <v>-1.6888735294342041</v>
+        <v>-1.688873529434204</v>
       </c>
       <c r="O14" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15">
       <c r="A15" t="s">
         <v>28</v>
       </c>
       <c r="B15">
-        <v>-741.50201416015625</v>
+        <v>-741.5020141601562</v>
       </c>
       <c r="C15">
-        <v>103.35511779785161</v>
+        <v>103.3551177978516</v>
       </c>
       <c r="D15">
-        <v>11.268649101257321</v>
+        <v>11.26864910125732</v>
       </c>
       <c r="E15">
-        <v>-7.5381321907043457</v>
+        <v>-7.538132190704346</v>
       </c>
       <c r="F15">
         <v>6.60870361328125</v>
       </c>
       <c r="G15">
-        <v>7.1002230644226074</v>
+        <v>7.100223064422607</v>
       </c>
       <c r="H15">
-        <v>2.6455142498016362</v>
+        <v>2.645514249801636</v>
       </c>
       <c r="I15">
         <v>-1.876100540161133</v>
       </c>
       <c r="J15">
-        <v>-6.1663722991943359</v>
+        <v>-6.166372299194336</v>
       </c>
       <c r="K15">
-        <v>-6.7542142868041992</v>
+        <v>-6.754214286804199</v>
       </c>
       <c r="L15">
-        <v>-4.4110879898071289</v>
+        <v>-4.411087989807129</v>
       </c>
       <c r="M15">
-        <v>-0.73132920265197754</v>
+        <v>-0.7313292026519775</v>
       </c>
       <c r="N15">
-        <v>0.21458511054515839</v>
+        <v>0.2145851105451584</v>
       </c>
       <c r="O15" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -1592,51 +1573,51 @@
         <v>-698.590576171875</v>
       </c>
       <c r="C16">
-        <v>113.23728179931641</v>
+        <v>113.2372817993164</v>
       </c>
       <c r="D16">
-        <v>11.166300773620611</v>
+        <v>11.16630077362061</v>
       </c>
       <c r="E16">
-        <v>-7.8993964195251456</v>
+        <v>-7.899396419525146</v>
       </c>
       <c r="F16">
         <v>12.75936985015869</v>
       </c>
       <c r="G16">
-        <v>11.524333000183111</v>
+        <v>11.52433300018311</v>
       </c>
       <c r="H16">
-        <v>0.87970513105392456</v>
+        <v>0.8797051310539246</v>
       </c>
       <c r="I16">
-        <v>-2.2076008319854741</v>
+        <v>-2.207600831985474</v>
       </c>
       <c r="J16">
-        <v>-4.3496766090393066</v>
+        <v>-4.349676609039307</v>
       </c>
       <c r="K16">
-        <v>-7.6704225540161133</v>
+        <v>-7.670422554016113</v>
       </c>
       <c r="L16">
-        <v>-6.2218198776245117</v>
+        <v>-6.221819877624512</v>
       </c>
       <c r="M16">
         <v>-1.490876317024231</v>
       </c>
       <c r="N16">
-        <v>7.3282375931739807E-2</v>
+        <v>0.07328237593173981</v>
       </c>
       <c r="O16" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15">
       <c r="A17" t="s">
         <v>30</v>
       </c>
       <c r="B17">
-        <v>-733.23052978515625</v>
+        <v>-733.2305297851562</v>
       </c>
       <c r="C17">
         <v>108.5578079223633</v>
@@ -1645,40 +1626,40 @@
         <v>10.86987972259521</v>
       </c>
       <c r="E17">
-        <v>-5.2706060409545898</v>
+        <v>-5.27060604095459</v>
       </c>
       <c r="F17">
-        <v>12.435709953308111</v>
+        <v>12.43570995330811</v>
       </c>
       <c r="G17">
-        <v>7.8943448066711426</v>
+        <v>7.894344806671143</v>
       </c>
       <c r="H17">
         <v>-1.076677083969116</v>
       </c>
       <c r="I17">
-        <v>-1.0849786996841431</v>
+        <v>-1.084978699684143</v>
       </c>
       <c r="J17">
         <v>-2.160953283309937</v>
       </c>
       <c r="K17">
-        <v>-7.0632967948913574</v>
+        <v>-7.063296794891357</v>
       </c>
       <c r="L17">
-        <v>-8.1101284027099609</v>
+        <v>-8.110128402709961</v>
       </c>
       <c r="M17">
-        <v>-3.1573410034179692</v>
+        <v>-3.157341003417969</v>
       </c>
       <c r="N17">
-        <v>-0.38623297214508062</v>
+        <v>-0.3862329721450806</v>
       </c>
       <c r="O17" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -1686,19 +1667,19 @@
         <v>-748.200927734375</v>
       </c>
       <c r="C18">
-        <v>90.515457153320313</v>
+        <v>90.51545715332031</v>
       </c>
       <c r="D18">
-        <v>13.884101867675779</v>
+        <v>13.88410186767578</v>
       </c>
       <c r="E18">
-        <v>-3.0584273338317871</v>
+        <v>-3.058427333831787</v>
       </c>
       <c r="F18">
-        <v>9.9274578094482422</v>
+        <v>9.927457809448242</v>
       </c>
       <c r="G18">
-        <v>8.8395004272460938</v>
+        <v>8.839500427246094</v>
       </c>
       <c r="H18">
         <v>2.365149974822998</v>
@@ -1707,25 +1688,25 @@
         <v>0.1804753243923187</v>
       </c>
       <c r="J18">
-        <v>-2.6337301731109619</v>
+        <v>-2.633730173110962</v>
       </c>
       <c r="K18">
-        <v>-5.7414708137512207</v>
+        <v>-5.741470813751221</v>
       </c>
       <c r="L18">
         <v>-5.560582160949707</v>
       </c>
       <c r="M18">
-        <v>-2.3626585006713872</v>
+        <v>-2.362658500671387</v>
       </c>
       <c r="N18">
-        <v>3.8580939173698432E-2</v>
+        <v>0.03858093917369843</v>
       </c>
       <c r="O18" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -1733,37 +1714,37 @@
         <v>-740.63671875</v>
       </c>
       <c r="C19">
-        <v>95.080436706542969</v>
+        <v>95.08043670654297</v>
       </c>
       <c r="D19">
-        <v>8.0432586669921875</v>
+        <v>8.043258666992188</v>
       </c>
       <c r="E19">
-        <v>-7.5465202331542969</v>
+        <v>-7.546520233154297</v>
       </c>
       <c r="F19">
-        <v>7.4753479957580566</v>
+        <v>7.475347995758057</v>
       </c>
       <c r="G19">
-        <v>4.1318874359130859</v>
+        <v>4.131887435913086</v>
       </c>
       <c r="H19">
-        <v>-2.8361952304840088</v>
+        <v>-2.836195230484009</v>
       </c>
       <c r="I19">
         <v>-2.486907958984375</v>
       </c>
       <c r="J19">
-        <v>-2.8358011245727539</v>
+        <v>-2.835801124572754</v>
       </c>
       <c r="K19">
-        <v>-5.5477747917175293</v>
+        <v>-5.547774791717529</v>
       </c>
       <c r="L19">
-        <v>-5.9609084129333496</v>
+        <v>-5.96090841293335</v>
       </c>
       <c r="M19">
-        <v>-2.9896235466003418</v>
+        <v>-2.989623546600342</v>
       </c>
       <c r="N19">
         <v>-1.377714872360229</v>
@@ -1772,54 +1753,54 @@
         <v>156</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15">
       <c r="A20" t="s">
         <v>33</v>
       </c>
       <c r="B20">
-        <v>-774.68572998046875</v>
+        <v>-774.6857299804688</v>
       </c>
       <c r="C20">
-        <v>95.514152526855469</v>
+        <v>95.51415252685547</v>
       </c>
       <c r="D20">
-        <v>13.557437896728519</v>
+        <v>13.55743789672852</v>
       </c>
       <c r="E20">
-        <v>-3.3437056541442871</v>
+        <v>-3.343705654144287</v>
       </c>
       <c r="F20">
         <v>11.41595554351807</v>
       </c>
       <c r="G20">
-        <v>8.9536323547363281</v>
+        <v>8.953632354736328</v>
       </c>
       <c r="H20">
-        <v>0.62659549713134766</v>
+        <v>0.6265954971313477</v>
       </c>
       <c r="I20">
-        <v>0.25790777802467352</v>
+        <v>0.2579077780246735</v>
       </c>
       <c r="J20">
-        <v>-1.3089627027511599</v>
+        <v>-1.30896270275116</v>
       </c>
       <c r="K20">
-        <v>-6.5847315788269043</v>
+        <v>-6.584731578826904</v>
       </c>
       <c r="L20">
-        <v>-7.3451313972473136</v>
+        <v>-7.345131397247314</v>
       </c>
       <c r="M20">
-        <v>-3.5199143886566162</v>
+        <v>-3.519914388656616</v>
       </c>
       <c r="N20">
-        <v>-1.5022555589675901</v>
+        <v>-1.50225555896759</v>
       </c>
       <c r="O20" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -1830,81 +1811,81 @@
         <v>97.21435546875</v>
       </c>
       <c r="D21">
-        <v>3.9121460914611821</v>
+        <v>3.912146091461182</v>
       </c>
       <c r="E21">
         <v>-10.35567474365234</v>
       </c>
       <c r="F21">
-        <v>6.5479960441589364</v>
+        <v>6.547996044158936</v>
       </c>
       <c r="G21">
-        <v>2.9696958065032959</v>
+        <v>2.969695806503296</v>
       </c>
       <c r="H21">
-        <v>-3.2485413551330571</v>
+        <v>-3.248541355133057</v>
       </c>
       <c r="I21">
-        <v>-3.6299653053283691</v>
+        <v>-3.629965305328369</v>
       </c>
       <c r="J21">
-        <v>-5.6344528198242188</v>
+        <v>-5.634452819824219</v>
       </c>
       <c r="K21">
-        <v>-7.7188224792480469</v>
+        <v>-7.718822479248047</v>
       </c>
       <c r="L21">
-        <v>-7.6744656562805176</v>
+        <v>-7.674465656280518</v>
       </c>
       <c r="M21">
-        <v>-5.3501110076904297</v>
+        <v>-5.35011100769043</v>
       </c>
       <c r="N21">
-        <v>-3.2483329772949219</v>
+        <v>-3.248332977294922</v>
       </c>
       <c r="O21" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15">
       <c r="A22" t="s">
         <v>35</v>
       </c>
       <c r="B22">
-        <v>-708.95147705078125</v>
+        <v>-708.9514770507812</v>
       </c>
       <c r="C22">
         <v>106.694206237793</v>
       </c>
       <c r="D22">
-        <v>13.420713424682621</v>
+        <v>13.42071342468262</v>
       </c>
       <c r="E22">
-        <v>-12.642826080322269</v>
+        <v>-12.64282608032227</v>
       </c>
       <c r="F22">
-        <v>3.9272358417510991</v>
+        <v>3.927235841751099</v>
       </c>
       <c r="G22">
-        <v>8.5302877426147461</v>
+        <v>8.530287742614746</v>
       </c>
       <c r="H22">
-        <v>0.24276100099086759</v>
+        <v>0.2427610009908676</v>
       </c>
       <c r="I22">
         <v>-5.221585750579834</v>
       </c>
       <c r="J22">
-        <v>-5.9530477523803711</v>
+        <v>-5.953047752380371</v>
       </c>
       <c r="K22">
-        <v>-7.2251071929931641</v>
+        <v>-7.225107192993164</v>
       </c>
       <c r="L22">
-        <v>-8.0927944183349609</v>
+        <v>-8.092794418334961</v>
       </c>
       <c r="M22">
-        <v>-4.4474968910217294</v>
+        <v>-4.447496891021729</v>
       </c>
       <c r="N22">
         <v>-1.29352343082428</v>
@@ -1913,36 +1894,36 @@
         <v>153</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15">
       <c r="A23" t="s">
         <v>36</v>
       </c>
       <c r="B23">
-        <v>-679.61517333984375</v>
+        <v>-679.6151733398438</v>
       </c>
       <c r="C23">
         <v>101.7909622192383</v>
       </c>
       <c r="D23">
-        <v>9.3495988845825195</v>
+        <v>9.34959888458252</v>
       </c>
       <c r="E23">
-        <v>-11.222541809082029</v>
+        <v>-11.22254180908203</v>
       </c>
       <c r="F23">
-        <v>9.0568265914916992</v>
+        <v>9.056826591491699</v>
       </c>
       <c r="G23">
-        <v>9.1858634948730469</v>
+        <v>9.185863494873047</v>
       </c>
       <c r="H23">
         <v>-2.522400856018066</v>
       </c>
       <c r="I23">
-        <v>-5.1926827430725098</v>
+        <v>-5.19268274307251</v>
       </c>
       <c r="J23">
-        <v>-6.1464085578918457</v>
+        <v>-6.146408557891846</v>
       </c>
       <c r="K23">
         <v>-10.58002281188965</v>
@@ -1951,7 +1932,7 @@
         <v>-10.0765380859375</v>
       </c>
       <c r="M23">
-        <v>-3.9652030467987061</v>
+        <v>-3.965203046798706</v>
       </c>
       <c r="N23">
         <v>-2.121201753616333</v>
@@ -1960,42 +1941,42 @@
         <v>154</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15">
       <c r="A24" t="s">
         <v>37</v>
       </c>
       <c r="B24">
-        <v>-692.43780517578125</v>
+        <v>-692.4378051757812</v>
       </c>
       <c r="C24">
-        <v>99.965400695800781</v>
+        <v>99.96540069580078</v>
       </c>
       <c r="D24">
-        <v>13.238368034362789</v>
+        <v>13.23836803436279</v>
       </c>
       <c r="E24">
-        <v>-7.9474425315856934</v>
+        <v>-7.947442531585693</v>
       </c>
       <c r="F24">
-        <v>11.639467239379879</v>
+        <v>11.63946723937988</v>
       </c>
       <c r="G24">
         <v>12.00570774078369</v>
       </c>
       <c r="H24">
-        <v>-1.3138349056243901</v>
+        <v>-1.31383490562439</v>
       </c>
       <c r="I24">
-        <v>-3.8803777694702148</v>
+        <v>-3.880377769470215</v>
       </c>
       <c r="J24">
         <v>-2.527817010879517</v>
       </c>
       <c r="K24">
-        <v>-6.6422581672668457</v>
+        <v>-6.642258167266846</v>
       </c>
       <c r="L24">
-        <v>-7.3078169822692871</v>
+        <v>-7.307816982269287</v>
       </c>
       <c r="M24">
         <v>-1.463695168495178</v>
@@ -2007,21 +1988,21 @@
         <v>159</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15">
       <c r="A25" t="s">
         <v>38</v>
       </c>
       <c r="B25">
-        <v>-757.43597412109375</v>
+        <v>-757.4359741210938</v>
       </c>
       <c r="C25">
-        <v>94.220146179199219</v>
+        <v>94.22014617919922</v>
       </c>
       <c r="D25">
-        <v>12.348978996276861</v>
+        <v>12.34897899627686</v>
       </c>
       <c r="E25">
-        <v>-5.9227485656738281</v>
+        <v>-5.922748565673828</v>
       </c>
       <c r="F25">
         <v>11.76387786865234</v>
@@ -2030,19 +2011,19 @@
         <v>11.0413932800293</v>
       </c>
       <c r="H25">
-        <v>0.26468423008918762</v>
+        <v>0.2646842300891876</v>
       </c>
       <c r="I25">
-        <v>-1.6230587959289551</v>
+        <v>-1.623058795928955</v>
       </c>
       <c r="J25">
         <v>-1.997456550598145</v>
       </c>
       <c r="K25">
-        <v>-5.9638166427612296</v>
+        <v>-5.96381664276123</v>
       </c>
       <c r="L25">
-        <v>-6.5574698448181152</v>
+        <v>-6.557469844818115</v>
       </c>
       <c r="M25">
         <v>-2.210192203521729</v>
@@ -2054,7 +2035,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15">
       <c r="A26" t="s">
         <v>39</v>
       </c>
@@ -2062,54 +2043,54 @@
         <v>-740.226806640625</v>
       </c>
       <c r="C26">
-        <v>88.281951904296875</v>
+        <v>88.28195190429688</v>
       </c>
       <c r="D26">
-        <v>11.129708290100099</v>
+        <v>11.1297082901001</v>
       </c>
       <c r="E26">
-        <v>-7.9971814155578613</v>
+        <v>-7.997181415557861</v>
       </c>
       <c r="F26">
-        <v>8.8875112533569336</v>
+        <v>8.887511253356934</v>
       </c>
       <c r="G26">
-        <v>9.9954490661621094</v>
+        <v>9.995449066162109</v>
       </c>
       <c r="H26">
-        <v>-0.68665176630020142</v>
+        <v>-0.6866517663002014</v>
       </c>
       <c r="I26">
         <v>-4.041837215423584</v>
       </c>
       <c r="J26">
-        <v>-3.9908022880554199</v>
+        <v>-3.99080228805542</v>
       </c>
       <c r="K26">
-        <v>-6.0055117607116699</v>
+        <v>-6.00551176071167</v>
       </c>
       <c r="L26">
-        <v>-5.4127545356750488</v>
+        <v>-5.412754535675049</v>
       </c>
       <c r="M26">
-        <v>-1.6192150115966799</v>
+        <v>-1.61921501159668</v>
       </c>
       <c r="N26">
-        <v>-0.71612966060638428</v>
+        <v>-0.7161296606063843</v>
       </c>
       <c r="O26" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15">
       <c r="A27" t="s">
         <v>40</v>
       </c>
       <c r="B27">
-        <v>-772.96392822265625</v>
+        <v>-772.9639282226562</v>
       </c>
       <c r="C27">
-        <v>107.06203460693359</v>
+        <v>107.0620346069336</v>
       </c>
       <c r="D27">
         <v>15.13746166229248</v>
@@ -2118,7 +2099,7 @@
         <v>-5.854978084564209</v>
       </c>
       <c r="F27">
-        <v>12.575291633605961</v>
+        <v>12.57529163360596</v>
       </c>
       <c r="G27">
         <v>11.48725032806396</v>
@@ -2127,39 +2108,39 @@
         <v>0.7074350118637085</v>
       </c>
       <c r="I27">
-        <v>-0.84977436065673828</v>
+        <v>-0.8497743606567383</v>
       </c>
       <c r="J27">
         <v>-1.628498911857605</v>
       </c>
       <c r="K27">
-        <v>-5.8499264717102051</v>
+        <v>-5.849926471710205</v>
       </c>
       <c r="L27">
-        <v>-6.9421787261962891</v>
+        <v>-6.942178726196289</v>
       </c>
       <c r="M27">
         <v>-3.971321821212769</v>
       </c>
       <c r="N27">
-        <v>-1.3196063041687009</v>
+        <v>-1.319606304168701</v>
       </c>
       <c r="O27" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15">
       <c r="A28" t="s">
         <v>41</v>
       </c>
       <c r="B28">
-        <v>-502.20706176757813</v>
+        <v>-502.2070617675781</v>
       </c>
       <c r="C28">
-        <v>105.61879730224609</v>
+        <v>105.6187973022461</v>
       </c>
       <c r="D28">
-        <v>-7.9138975143432617</v>
+        <v>-7.913897514343262</v>
       </c>
       <c r="E28">
         <v>-18.37569427490234</v>
@@ -2168,72 +2149,72 @@
         <v>3.75981616973877</v>
       </c>
       <c r="G28">
-        <v>1.0616109371185301</v>
+        <v>1.06161093711853</v>
       </c>
       <c r="H28">
-        <v>-4.7374410629272461</v>
+        <v>-4.737441062927246</v>
       </c>
       <c r="I28">
-        <v>-6.4549121856689453</v>
+        <v>-6.454912185668945</v>
       </c>
       <c r="J28">
-        <v>-7.4869046211242676</v>
+        <v>-7.486904621124268</v>
       </c>
       <c r="K28">
-        <v>-9.5072879791259766</v>
+        <v>-9.507287979125977</v>
       </c>
       <c r="L28">
-        <v>-11.076987266540529</v>
+        <v>-11.07698726654053</v>
       </c>
       <c r="M28">
         <v>-6.523108959197998</v>
       </c>
       <c r="N28">
-        <v>-2.8171918392181401</v>
+        <v>-2.81719183921814</v>
       </c>
       <c r="O28" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15">
       <c r="A29" t="s">
         <v>42</v>
       </c>
       <c r="B29">
-        <v>-607.59686279296875</v>
+        <v>-607.5968627929688</v>
       </c>
       <c r="C29">
-        <v>105.27125549316411</v>
+        <v>105.2712554931641</v>
       </c>
       <c r="D29">
         <v>13.96369743347168</v>
       </c>
       <c r="E29">
-        <v>-6.5105423927307129</v>
+        <v>-6.510542392730713</v>
       </c>
       <c r="F29">
         <v>0.6826779842376709</v>
       </c>
       <c r="G29">
-        <v>0.38583365082740778</v>
+        <v>0.3858336508274078</v>
       </c>
       <c r="H29">
-        <v>0.67800849676132202</v>
+        <v>0.678008496761322</v>
       </c>
       <c r="I29">
-        <v>-4.9828619956970206</v>
+        <v>-4.982861995697021</v>
       </c>
       <c r="J29">
-        <v>-12.338624954223629</v>
+        <v>-12.33862495422363</v>
       </c>
       <c r="K29">
-        <v>-8.5977878570556641</v>
+        <v>-8.597787857055664</v>
       </c>
       <c r="L29">
-        <v>-2.9077532291412349</v>
+        <v>-2.907753229141235</v>
       </c>
       <c r="M29">
-        <v>-5.8658657073974609</v>
+        <v>-5.865865707397461</v>
       </c>
       <c r="N29">
         <v>-8.00677490234375</v>
@@ -2242,21 +2223,21 @@
         <v>153</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15">
       <c r="A30" t="s">
         <v>43</v>
       </c>
       <c r="B30">
-        <v>-459.06634521484381</v>
+        <v>-459.0663452148438</v>
       </c>
       <c r="C30">
-        <v>103.21458435058589</v>
+        <v>103.2145843505859</v>
       </c>
       <c r="D30">
-        <v>2.3731803894042969</v>
+        <v>2.373180389404297</v>
       </c>
       <c r="E30">
-        <v>-21.692546844482418</v>
+        <v>-21.69254684448242</v>
       </c>
       <c r="F30">
         <v>-1.603137254714966</v>
@@ -2265,22 +2246,22 @@
         <v>3.365058422088623</v>
       </c>
       <c r="H30">
-        <v>-1.6675893068313601</v>
+        <v>-1.66758930683136</v>
       </c>
       <c r="I30">
-        <v>-5.2757444381713867</v>
+        <v>-5.275744438171387</v>
       </c>
       <c r="J30">
-        <v>-10.744490623474119</v>
+        <v>-10.74449062347412</v>
       </c>
       <c r="K30">
-        <v>-14.662868499755859</v>
+        <v>-14.66286849975586</v>
       </c>
       <c r="L30">
         <v>-13.14526844024658</v>
       </c>
       <c r="M30">
-        <v>-7.7864284515380859</v>
+        <v>-7.786428451538086</v>
       </c>
       <c r="N30">
         <v>-3.702334880828857</v>
@@ -2289,54 +2270,54 @@
         <v>154</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15">
       <c r="A31" t="s">
         <v>44</v>
       </c>
       <c r="B31">
-        <v>-603.07806396484375</v>
+        <v>-603.0780639648438</v>
       </c>
       <c r="C31">
         <v>103.9883117675781</v>
       </c>
       <c r="D31">
-        <v>6.0566744804382324</v>
+        <v>6.056674480438232</v>
       </c>
       <c r="E31">
         <v>-13.6259822845459</v>
       </c>
       <c r="F31">
-        <v>6.6249041557312012</v>
+        <v>6.624904155731201</v>
       </c>
       <c r="G31">
-        <v>7.4744086265563956</v>
+        <v>7.474408626556396</v>
       </c>
       <c r="H31">
-        <v>-2.2465648651123051</v>
+        <v>-2.246564865112305</v>
       </c>
       <c r="I31">
-        <v>-5.5998964309692383</v>
+        <v>-5.599896430969238</v>
       </c>
       <c r="J31">
-        <v>-5.9617753028869629</v>
+        <v>-5.961775302886963</v>
       </c>
       <c r="K31">
-        <v>-9.4567184448242188</v>
+        <v>-9.456718444824219</v>
       </c>
       <c r="L31">
         <v>-11.1069393157959</v>
       </c>
       <c r="M31">
-        <v>-4.3459839820861816</v>
+        <v>-4.345983982086182</v>
       </c>
       <c r="N31">
-        <v>-4.8729602247476578E-2</v>
+        <v>-0.04872960224747658</v>
       </c>
       <c r="O31" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15">
       <c r="A32" t="s">
         <v>45</v>
       </c>
@@ -2344,19 +2325,19 @@
         <v>-679.282958984375</v>
       </c>
       <c r="C32">
-        <v>104.51222991943359</v>
+        <v>104.5122299194336</v>
       </c>
       <c r="D32">
-        <v>3.6716780662536621</v>
+        <v>3.671678066253662</v>
       </c>
       <c r="E32">
-        <v>-10.128303527832029</v>
+        <v>-10.12830352783203</v>
       </c>
       <c r="F32">
-        <v>9.0514326095581055</v>
+        <v>9.051432609558105</v>
       </c>
       <c r="G32">
-        <v>5.5746049880981454</v>
+        <v>5.574604988098145</v>
       </c>
       <c r="H32">
         <v>-3.036236047744751</v>
@@ -2365,25 +2346,25 @@
         <v>-3.658408641815186</v>
       </c>
       <c r="J32">
-        <v>-4.4747858047485352</v>
+        <v>-4.474785804748535</v>
       </c>
       <c r="K32">
-        <v>-8.5980281829833984</v>
+        <v>-8.598028182983398</v>
       </c>
       <c r="L32">
-        <v>-8.2474870681762695</v>
+        <v>-8.24748706817627</v>
       </c>
       <c r="M32">
-        <v>-2.5963907241821289</v>
+        <v>-2.596390724182129</v>
       </c>
       <c r="N32">
-        <v>-1.0697916746139531</v>
+        <v>-1.069791674613953</v>
       </c>
       <c r="O32" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15">
       <c r="A33" t="s">
         <v>46</v>
       </c>
@@ -2391,34 +2372,34 @@
         <v>-688.9306640625</v>
       </c>
       <c r="C33">
-        <v>97.626747131347656</v>
+        <v>97.62674713134766</v>
       </c>
       <c r="D33">
         <v>10.29131507873535</v>
       </c>
       <c r="E33">
-        <v>-7.2125205993652344</v>
+        <v>-7.212520599365234</v>
       </c>
       <c r="F33">
-        <v>11.042970657348629</v>
+        <v>11.04297065734863</v>
       </c>
       <c r="G33">
-        <v>9.2985191345214844</v>
+        <v>9.298519134521484</v>
       </c>
       <c r="H33">
-        <v>-1.5481798648834231</v>
+        <v>-1.548179864883423</v>
       </c>
       <c r="I33">
-        <v>-3.7378618717193599</v>
+        <v>-3.73786187171936</v>
       </c>
       <c r="J33">
         <v>-4.778904914855957</v>
       </c>
       <c r="K33">
-        <v>-9.5628538131713867</v>
+        <v>-9.562853813171387</v>
       </c>
       <c r="L33">
-        <v>-10.620803833007811</v>
+        <v>-10.62080383300781</v>
       </c>
       <c r="M33">
         <v>-4.796562671661377</v>
@@ -2430,33 +2411,33 @@
         <v>157</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15">
       <c r="A34" t="s">
         <v>47</v>
       </c>
       <c r="B34">
-        <v>-442.79855346679688</v>
+        <v>-442.7985534667969</v>
       </c>
       <c r="C34">
-        <v>99.090156555175781</v>
+        <v>99.09015655517578</v>
       </c>
       <c r="D34">
-        <v>-8.4897165298461914</v>
+        <v>-8.489716529846191</v>
       </c>
       <c r="E34">
         <v>-22.38094520568848</v>
       </c>
       <c r="F34">
-        <v>-0.36877503991127009</v>
+        <v>-0.3687750399112701</v>
       </c>
       <c r="G34">
-        <v>-2.1656672954559331</v>
+        <v>-2.165667295455933</v>
       </c>
       <c r="H34">
-        <v>-6.3870201110839844</v>
+        <v>-6.387020111083984</v>
       </c>
       <c r="I34">
-        <v>-7.1578950881958008</v>
+        <v>-7.157895088195801</v>
       </c>
       <c r="J34">
         <v>-11.52310276031494</v>
@@ -2465,19 +2446,19 @@
         <v>-11.90273475646973</v>
       </c>
       <c r="L34">
-        <v>-9.4900913238525391</v>
+        <v>-9.490091323852539</v>
       </c>
       <c r="M34">
-        <v>-7.9757661819458008</v>
+        <v>-7.975766181945801</v>
       </c>
       <c r="N34">
-        <v>-5.6780791282653809</v>
+        <v>-5.678079128265381</v>
       </c>
       <c r="O34" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15">
       <c r="A35" t="s">
         <v>48</v>
       </c>
@@ -2485,60 +2466,60 @@
         <v>-562.4847412109375</v>
       </c>
       <c r="C35">
-        <v>94.085433959960938</v>
+        <v>94.08543395996094</v>
       </c>
       <c r="D35">
         <v>10.40447902679443</v>
       </c>
       <c r="E35">
-        <v>-16.962051391601559</v>
+        <v>-16.96205139160156</v>
       </c>
       <c r="F35">
-        <v>-6.3611321449279794</v>
+        <v>-6.361132144927979</v>
       </c>
       <c r="G35">
-        <v>-0.23444712162017819</v>
+        <v>-0.2344471216201782</v>
       </c>
       <c r="H35">
-        <v>-2.1681079864501949</v>
+        <v>-2.168107986450195</v>
       </c>
       <c r="I35">
-        <v>-6.7427239418029794</v>
+        <v>-6.742723941802979</v>
       </c>
       <c r="J35">
         <v>-11.28624439239502</v>
       </c>
       <c r="K35">
-        <v>-12.360940933227541</v>
+        <v>-12.36094093322754</v>
       </c>
       <c r="L35">
-        <v>-9.7866964340209961</v>
+        <v>-9.786696434020996</v>
       </c>
       <c r="M35">
-        <v>-5.9656820297241211</v>
+        <v>-5.965682029724121</v>
       </c>
       <c r="N35">
-        <v>-3.5594131946563721</v>
+        <v>-3.559413194656372</v>
       </c>
       <c r="O35" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15">
       <c r="A36" t="s">
         <v>49</v>
       </c>
       <c r="B36">
-        <v>-534.42462158203125</v>
+        <v>-534.4246215820312</v>
       </c>
       <c r="C36">
         <v>115.9189910888672</v>
       </c>
       <c r="D36">
-        <v>6.2999520301818848</v>
+        <v>6.299952030181885</v>
       </c>
       <c r="E36">
-        <v>-20.167629241943359</v>
+        <v>-20.16762924194336</v>
       </c>
       <c r="F36">
         <v>3.090681791305542</v>
@@ -2556,22 +2537,22 @@
         <v>-6.686375617980957</v>
       </c>
       <c r="K36">
-        <v>-10.724016189575201</v>
+        <v>-10.7240161895752</v>
       </c>
       <c r="L36">
-        <v>-9.1831350326538086</v>
+        <v>-9.183135032653809</v>
       </c>
       <c r="M36">
         <v>-2.614314079284668</v>
       </c>
       <c r="N36">
-        <v>1.3887491226196289</v>
+        <v>1.388749122619629</v>
       </c>
       <c r="O36" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15">
       <c r="A37" t="s">
         <v>50</v>
       </c>
@@ -2582,51 +2563,51 @@
         <v>96.1781005859375</v>
       </c>
       <c r="D37">
-        <v>7.2845597267150879</v>
+        <v>7.284559726715088</v>
       </c>
       <c r="E37">
         <v>-13.21272087097168</v>
       </c>
       <c r="F37">
-        <v>4.2165732383728027</v>
+        <v>4.216573238372803</v>
       </c>
       <c r="G37">
-        <v>5.7401027679443359</v>
+        <v>5.740102767944336</v>
       </c>
       <c r="H37">
-        <v>-2.8424468040466309</v>
+        <v>-2.842446804046631</v>
       </c>
       <c r="I37">
-        <v>-6.9278254508972168</v>
+        <v>-6.927825450897217</v>
       </c>
       <c r="J37">
-        <v>-7.5712075233459473</v>
+        <v>-7.571207523345947</v>
       </c>
       <c r="K37">
-        <v>-7.3035850524902344</v>
+        <v>-7.303585052490234</v>
       </c>
       <c r="L37">
-        <v>-7.2815217971801758</v>
+        <v>-7.281521797180176</v>
       </c>
       <c r="M37">
         <v>-5.866337776184082</v>
       </c>
       <c r="N37">
-        <v>-3.3269972801208501</v>
+        <v>-3.32699728012085</v>
       </c>
       <c r="O37" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15">
       <c r="A38" t="s">
         <v>51</v>
       </c>
       <c r="B38">
-        <v>-670.77740478515625</v>
+        <v>-670.7774047851562</v>
       </c>
       <c r="C38">
-        <v>98.245063781738281</v>
+        <v>98.24506378173828</v>
       </c>
       <c r="D38">
         <v>7.03564453125</v>
@@ -2635,37 +2616,37 @@
         <v>-10.96970272064209</v>
       </c>
       <c r="F38">
-        <v>9.3438758850097656</v>
+        <v>9.343875885009766</v>
       </c>
       <c r="G38">
-        <v>8.5959463119506836</v>
+        <v>8.595946311950684</v>
       </c>
       <c r="H38">
-        <v>-2.4961004257202148</v>
+        <v>-2.496100425720215</v>
       </c>
       <c r="I38">
-        <v>-4.5003008842468262</v>
+        <v>-4.500300884246826</v>
       </c>
       <c r="J38">
-        <v>-3.8036375045776372</v>
+        <v>-3.803637504577637</v>
       </c>
       <c r="K38">
-        <v>-6.1844358444213867</v>
+        <v>-6.184435844421387</v>
       </c>
       <c r="L38">
-        <v>-6.9438977241516113</v>
+        <v>-6.943897724151611</v>
       </c>
       <c r="M38">
-        <v>-2.7413721084594731</v>
+        <v>-2.741372108459473</v>
       </c>
       <c r="N38">
-        <v>-0.43144026398658752</v>
+        <v>-0.4314402639865875</v>
       </c>
       <c r="O38" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15">
       <c r="A39" t="s">
         <v>52</v>
       </c>
@@ -2676,31 +2657,31 @@
         <v>105.4238204956055</v>
       </c>
       <c r="D39">
-        <v>17.411619186401371</v>
+        <v>17.41161918640137</v>
       </c>
       <c r="E39">
         <v>-3.847408771514893</v>
       </c>
       <c r="F39">
-        <v>12.525528907775881</v>
+        <v>12.52552890777588</v>
       </c>
       <c r="G39">
-        <v>11.659939765930179</v>
+        <v>11.65993976593018</v>
       </c>
       <c r="H39">
         <v>1.107364416122437</v>
       </c>
       <c r="I39">
-        <v>-1.5962462425231929</v>
+        <v>-1.596246242523193</v>
       </c>
       <c r="J39">
-        <v>-2.5821092128753662</v>
+        <v>-2.582109212875366</v>
       </c>
       <c r="K39">
-        <v>-5.8640041351318359</v>
+        <v>-5.864004135131836</v>
       </c>
       <c r="L39">
-        <v>-5.5698995590209961</v>
+        <v>-5.569899559020996</v>
       </c>
       <c r="M39">
         <v>-1.944620728492737</v>
@@ -2712,12 +2693,12 @@
         <v>157</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15">
       <c r="A40" t="s">
         <v>53</v>
       </c>
       <c r="B40">
-        <v>-409.14642333984381</v>
+        <v>-409.1464233398438</v>
       </c>
       <c r="C40">
         <v>101.808349609375</v>
@@ -2726,40 +2707,40 @@
         <v>-14.48292064666748</v>
       </c>
       <c r="E40">
-        <v>-24.582578659057621</v>
+        <v>-24.58257865905762</v>
       </c>
       <c r="F40">
-        <v>1.249347161501646E-2</v>
+        <v>0.01249347161501646</v>
       </c>
       <c r="G40">
-        <v>-2.8211879730224609</v>
+        <v>-2.821187973022461</v>
       </c>
       <c r="H40">
-        <v>-8.1501989364624023</v>
+        <v>-8.150198936462402</v>
       </c>
       <c r="I40">
-        <v>-10.323099136352541</v>
+        <v>-10.32309913635254</v>
       </c>
       <c r="J40">
         <v>-12.26287174224854</v>
       </c>
       <c r="K40">
-        <v>-11.009641647338871</v>
+        <v>-11.00964164733887</v>
       </c>
       <c r="L40">
         <v>-11.93728733062744</v>
       </c>
       <c r="M40">
-        <v>-9.2760086059570313</v>
+        <v>-9.276008605957031</v>
       </c>
       <c r="N40">
-        <v>-3.1025323867797852</v>
+        <v>-3.102532386779785</v>
       </c>
       <c r="O40" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15">
       <c r="A41" t="s">
         <v>54</v>
       </c>
@@ -2767,7 +2748,7 @@
         <v>-569.4638671875</v>
       </c>
       <c r="C41">
-        <v>87.983497619628906</v>
+        <v>87.98349761962891</v>
       </c>
       <c r="D41">
         <v>11.34543514251709</v>
@@ -2779,72 +2760,72 @@
         <v>-0.6040031909942627</v>
       </c>
       <c r="G41">
-        <v>3.0171244144439702</v>
+        <v>3.01712441444397</v>
       </c>
       <c r="H41">
-        <v>-0.95811408758163452</v>
+        <v>-0.9581140875816345</v>
       </c>
       <c r="I41">
-        <v>-7.4978909492492676</v>
+        <v>-7.497890949249268</v>
       </c>
       <c r="J41">
         <v>-11.8196964263916</v>
       </c>
       <c r="K41">
-        <v>-9.9005594253540039</v>
+        <v>-9.900559425354004</v>
       </c>
       <c r="L41">
-        <v>-5.0442776679992676</v>
+        <v>-5.044277667999268</v>
       </c>
       <c r="M41">
         <v>-3.882565021514893</v>
       </c>
       <c r="N41">
-        <v>-5.5615897178649902</v>
+        <v>-5.56158971786499</v>
       </c>
       <c r="O41" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15">
       <c r="A42" t="s">
         <v>55</v>
       </c>
       <c r="B42">
-        <v>-506.58377075195313</v>
+        <v>-506.5837707519531</v>
       </c>
       <c r="C42">
         <v>102.6557235717773</v>
       </c>
       <c r="D42">
-        <v>2.5921494960784912</v>
+        <v>2.592149496078491</v>
       </c>
       <c r="E42">
-        <v>-20.309022903442379</v>
+        <v>-20.30902290344238</v>
       </c>
       <c r="F42">
-        <v>0.79499644041061401</v>
+        <v>0.794996440410614</v>
       </c>
       <c r="G42">
-        <v>6.5438480377197266</v>
+        <v>6.543848037719727</v>
       </c>
       <c r="H42">
-        <v>0.11916413903236391</v>
+        <v>0.1191641390323639</v>
       </c>
       <c r="I42">
-        <v>-6.2250428199768066</v>
+        <v>-6.225042819976807</v>
       </c>
       <c r="J42">
-        <v>-10.794450759887701</v>
+        <v>-10.7944507598877</v>
       </c>
       <c r="K42">
         <v>-12.28552722930908</v>
       </c>
       <c r="L42">
-        <v>-12.024544715881349</v>
+        <v>-12.02454471588135</v>
       </c>
       <c r="M42">
-        <v>-7.3991193771362296</v>
+        <v>-7.39911937713623</v>
       </c>
       <c r="N42">
         <v>-0.6853710412979126</v>
@@ -2853,7 +2834,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15">
       <c r="A43" t="s">
         <v>56</v>
       </c>
@@ -2861,37 +2842,37 @@
         <v>-618.13134765625</v>
       </c>
       <c r="C43">
-        <v>106.80738830566411</v>
+        <v>106.8073883056641</v>
       </c>
       <c r="D43">
-        <v>6.3085145950317383</v>
+        <v>6.308514595031738</v>
       </c>
       <c r="E43">
         <v>-13.36422634124756</v>
       </c>
       <c r="F43">
-        <v>5.9627962112426758</v>
+        <v>5.962796211242676</v>
       </c>
       <c r="G43">
-        <v>6.5251965522766113</v>
+        <v>6.525196552276611</v>
       </c>
       <c r="H43">
-        <v>-2.7235815525054932</v>
+        <v>-2.723581552505493</v>
       </c>
       <c r="I43">
-        <v>-5.7236948013305664</v>
+        <v>-5.723694801330566</v>
       </c>
       <c r="J43">
-        <v>-5.8328757286071777</v>
+        <v>-5.832875728607178</v>
       </c>
       <c r="K43">
-        <v>-9.1432838439941406</v>
+        <v>-9.143283843994141</v>
       </c>
       <c r="L43">
-        <v>-10.785566329956049</v>
+        <v>-10.78556632995605</v>
       </c>
       <c r="M43">
-        <v>-5.8451051712036133</v>
+        <v>-5.845105171203613</v>
       </c>
       <c r="N43">
         <v>-1.833431720733643</v>
@@ -2900,148 +2881,148 @@
         <v>159</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15">
       <c r="A44" t="s">
         <v>57</v>
       </c>
       <c r="B44">
-        <v>-654.74078369140625</v>
+        <v>-654.7407836914062</v>
       </c>
       <c r="C44">
-        <v>96.054641723632813</v>
+        <v>96.05464172363281</v>
       </c>
       <c r="D44">
-        <v>5.1886353492736816</v>
+        <v>5.188635349273682</v>
       </c>
       <c r="E44">
-        <v>-11.364895820617679</v>
+        <v>-11.36489582061768</v>
       </c>
       <c r="F44">
-        <v>5.8767185211181641</v>
+        <v>5.876718521118164</v>
       </c>
       <c r="G44">
-        <v>5.1953039169311523</v>
+        <v>5.195303916931152</v>
       </c>
       <c r="H44">
         <v>-1.444872140884399</v>
       </c>
       <c r="I44">
-        <v>-3.9656715393066411</v>
+        <v>-3.965671539306641</v>
       </c>
       <c r="J44">
-        <v>-6.4413785934448242</v>
+        <v>-6.441378593444824</v>
       </c>
       <c r="K44">
-        <v>-8.1100473403930664</v>
+        <v>-8.110047340393066</v>
       </c>
       <c r="L44">
-        <v>-7.2836017608642578</v>
+        <v>-7.283601760864258</v>
       </c>
       <c r="M44">
-        <v>-3.7336657047271729</v>
+        <v>-3.733665704727173</v>
       </c>
       <c r="N44">
-        <v>-1.5612238645553591</v>
+        <v>-1.561223864555359</v>
       </c>
       <c r="O44" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15">
       <c r="A45" t="s">
         <v>58</v>
       </c>
       <c r="B45">
-        <v>-682.56341552734375</v>
+        <v>-682.5634155273438</v>
       </c>
       <c r="C45">
-        <v>104.62233734130859</v>
+        <v>104.6223373413086</v>
       </c>
       <c r="D45">
-        <v>7.7998590469360352</v>
+        <v>7.799859046936035</v>
       </c>
       <c r="E45">
-        <v>-7.8078913688659668</v>
+        <v>-7.807891368865967</v>
       </c>
       <c r="F45">
-        <v>11.572269439697269</v>
+        <v>11.57226943969727</v>
       </c>
       <c r="G45">
         <v>7.830352783203125</v>
       </c>
       <c r="H45">
-        <v>-2.5257160663604741</v>
+        <v>-2.525716066360474</v>
       </c>
       <c r="I45">
         <v>-3.799691915512085</v>
       </c>
       <c r="J45">
-        <v>-4.6787128448486328</v>
+        <v>-4.678712844848633</v>
       </c>
       <c r="K45">
-        <v>-8.9176082611083984</v>
+        <v>-8.917608261108398</v>
       </c>
       <c r="L45">
-        <v>-9.3324518203735352</v>
+        <v>-9.332451820373535</v>
       </c>
       <c r="M45">
         <v>-3.494943380355835</v>
       </c>
       <c r="N45">
-        <v>-0.58809775114059448</v>
+        <v>-0.5880977511405945</v>
       </c>
       <c r="O45" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15">
       <c r="A46" t="s">
         <v>59</v>
       </c>
       <c r="B46">
-        <v>-466.82278442382813</v>
+        <v>-466.8227844238281</v>
       </c>
       <c r="C46">
-        <v>102.52442932128911</v>
+        <v>102.5244293212891</v>
       </c>
       <c r="D46">
-        <v>-7.2598977088928223</v>
+        <v>-7.259897708892822</v>
       </c>
       <c r="E46">
-        <v>-23.581821441650391</v>
+        <v>-23.58182144165039</v>
       </c>
       <c r="F46">
-        <v>2.3055508136749272</v>
+        <v>2.305550813674927</v>
       </c>
       <c r="G46">
-        <v>1.5739420652389531</v>
+        <v>1.573942065238953</v>
       </c>
       <c r="H46">
         <v>-8.0810546875</v>
       </c>
       <c r="I46">
-        <v>-7.7813606262207031</v>
+        <v>-7.781360626220703</v>
       </c>
       <c r="J46">
-        <v>-6.6646442413330078</v>
+        <v>-6.664644241333008</v>
       </c>
       <c r="K46">
-        <v>-9.5765342712402344</v>
+        <v>-9.576534271240234</v>
       </c>
       <c r="L46">
-        <v>-11.636842727661129</v>
+        <v>-11.63684272766113</v>
       </c>
       <c r="M46">
-        <v>-8.2195053100585938</v>
+        <v>-8.219505310058594</v>
       </c>
       <c r="N46">
-        <v>-4.3612523078918457</v>
+        <v>-4.361252307891846</v>
       </c>
       <c r="O46" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15">
       <c r="A47" t="s">
         <v>60</v>
       </c>
@@ -3049,22 +3030,22 @@
         <v>-573.42626953125</v>
       </c>
       <c r="C47">
-        <v>92.679893493652344</v>
+        <v>92.67989349365234</v>
       </c>
       <c r="D47">
-        <v>4.9706912040710449</v>
+        <v>4.970691204071045</v>
       </c>
       <c r="E47">
         <v>-16.0430793762207</v>
       </c>
       <c r="F47">
-        <v>-0.78764349222183228</v>
+        <v>-0.7876434922218323</v>
       </c>
       <c r="G47">
         <v>1.375015497207642</v>
       </c>
       <c r="H47">
-        <v>-5.5289030075073242</v>
+        <v>-5.528903007507324</v>
       </c>
       <c r="I47">
         <v>-11.23466205596924</v>
@@ -3076,30 +3057,30 @@
         <v>-10.85079383850098</v>
       </c>
       <c r="L47">
-        <v>-5.9769682884216309</v>
+        <v>-5.976968288421631</v>
       </c>
       <c r="M47">
         <v>-4.184516429901123</v>
       </c>
       <c r="N47">
-        <v>-4.5217351913452148</v>
+        <v>-4.521735191345215</v>
       </c>
       <c r="O47" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15">
       <c r="A48" t="s">
         <v>61</v>
       </c>
       <c r="B48">
-        <v>-477.89031982421881</v>
+        <v>-477.8903198242188</v>
       </c>
       <c r="C48">
-        <v>90.284095764160156</v>
+        <v>90.28409576416016</v>
       </c>
       <c r="D48">
-        <v>5.0398802757263184</v>
+        <v>5.039880275726318</v>
       </c>
       <c r="E48">
         <v>-21.81935882568359</v>
@@ -3108,13 +3089,13 @@
         <v>-2.336316823959351</v>
       </c>
       <c r="G48">
-        <v>7.8657693862915039</v>
+        <v>7.865769386291504</v>
       </c>
       <c r="H48">
-        <v>0.57980436086654663</v>
+        <v>0.5798043608665466</v>
       </c>
       <c r="I48">
-        <v>-6.7189369201660156</v>
+        <v>-6.718936920166016</v>
       </c>
       <c r="J48">
         <v>-10.6816349029541</v>
@@ -3123,10 +3104,10 @@
         <v>-13.21717739105225</v>
       </c>
       <c r="L48">
-        <v>-11.573521614074711</v>
+        <v>-11.57352161407471</v>
       </c>
       <c r="M48">
-        <v>-6.5212244987487793</v>
+        <v>-6.521224498748779</v>
       </c>
       <c r="N48">
         <v>-4.106600284576416</v>
@@ -3135,7 +3116,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15">
       <c r="A49" t="s">
         <v>62</v>
       </c>
@@ -3143,140 +3124,140 @@
         <v>-629.1240234375</v>
       </c>
       <c r="C49">
-        <v>95.568710327148438</v>
+        <v>95.56871032714844</v>
       </c>
       <c r="D49">
-        <v>8.6729917526245117</v>
+        <v>8.672991752624512</v>
       </c>
       <c r="E49">
         <v>-14.27839183807373</v>
       </c>
       <c r="F49">
-        <v>4.4466137886047363</v>
+        <v>4.446613788604736</v>
       </c>
       <c r="G49">
-        <v>8.6574945449829102</v>
+        <v>8.65749454498291</v>
       </c>
       <c r="H49">
-        <v>-1.5925518274307251</v>
+        <v>-1.592551827430725</v>
       </c>
       <c r="I49">
-        <v>-6.5553855895996094</v>
+        <v>-6.555385589599609</v>
       </c>
       <c r="J49">
-        <v>-5.9544391632080078</v>
+        <v>-5.954439163208008</v>
       </c>
       <c r="K49">
         <v>-7.623776912689209</v>
       </c>
       <c r="L49">
-        <v>-9.6660900115966797</v>
+        <v>-9.66609001159668</v>
       </c>
       <c r="M49">
-        <v>-5.2879605293273926</v>
+        <v>-5.287960529327393</v>
       </c>
       <c r="N49">
-        <v>2.0705729722976681E-2</v>
+        <v>0.02070572972297668</v>
       </c>
       <c r="O49" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15">
       <c r="A50" t="s">
         <v>63</v>
       </c>
       <c r="B50">
-        <v>-628.25482177734375</v>
+        <v>-628.2548217773438</v>
       </c>
       <c r="C50">
-        <v>91.968841552734375</v>
+        <v>91.96884155273438</v>
       </c>
       <c r="D50">
-        <v>5.4465169906616211</v>
+        <v>5.446516990661621</v>
       </c>
       <c r="E50">
         <v>-11.772292137146</v>
       </c>
       <c r="F50">
-        <v>6.8358368873596191</v>
+        <v>6.835836887359619</v>
       </c>
       <c r="G50">
-        <v>6.0094451904296884</v>
+        <v>6.009445190429688</v>
       </c>
       <c r="H50">
-        <v>-3.3009414672851558</v>
+        <v>-3.300941467285156</v>
       </c>
       <c r="I50">
-        <v>-4.3369951248168954</v>
+        <v>-4.336995124816895</v>
       </c>
       <c r="J50">
-        <v>-4.1553006172180176</v>
+        <v>-4.155300617218018</v>
       </c>
       <c r="K50">
-        <v>-6.8419609069824219</v>
+        <v>-6.841960906982422</v>
       </c>
       <c r="L50">
-        <v>-7.8705615997314453</v>
+        <v>-7.870561599731445</v>
       </c>
       <c r="M50">
-        <v>-4.5170059204101563</v>
+        <v>-4.517005920410156</v>
       </c>
       <c r="N50">
-        <v>-1.6425085067749019</v>
+        <v>-1.642508506774902</v>
       </c>
       <c r="O50" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15">
       <c r="A51" t="s">
         <v>64</v>
       </c>
       <c r="B51">
-        <v>-689.91522216796875</v>
+        <v>-689.9152221679688</v>
       </c>
       <c r="C51">
-        <v>94.246253967285156</v>
+        <v>94.24625396728516</v>
       </c>
       <c r="D51">
-        <v>11.218220710754389</v>
+        <v>11.21822071075439</v>
       </c>
       <c r="E51">
-        <v>-8.9289207458496094</v>
+        <v>-8.928920745849609</v>
       </c>
       <c r="F51">
-        <v>8.9744596481323242</v>
+        <v>8.974459648132324</v>
       </c>
       <c r="G51">
-        <v>9.4603052139282227</v>
+        <v>9.460305213928223</v>
       </c>
       <c r="H51">
         <v>-2.150776624679565</v>
       </c>
       <c r="I51">
-        <v>-5.1342897415161133</v>
+        <v>-5.134289741516113</v>
       </c>
       <c r="J51">
-        <v>-4.6821322441101074</v>
+        <v>-4.682132244110107</v>
       </c>
       <c r="K51">
-        <v>-7.9448690414428711</v>
+        <v>-7.944869041442871</v>
       </c>
       <c r="L51">
-        <v>-8.6983699798583984</v>
+        <v>-8.698369979858398</v>
       </c>
       <c r="M51">
-        <v>-4.1045160293579102</v>
+        <v>-4.10451602935791</v>
       </c>
       <c r="N51">
-        <v>-1.7255973815917971</v>
+        <v>-1.725597381591797</v>
       </c>
       <c r="O51" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15">
       <c r="A52" t="s">
         <v>65</v>
       </c>
@@ -3284,46 +3265,46 @@
         <v>-551.946044921875</v>
       </c>
       <c r="C52">
-        <v>120.83399963378911</v>
+        <v>120.8339996337891</v>
       </c>
       <c r="D52">
-        <v>-3.0836160182952881</v>
+        <v>-3.083616018295288</v>
       </c>
       <c r="E52">
-        <v>-15.250754356384279</v>
+        <v>-15.25075435638428</v>
       </c>
       <c r="F52">
-        <v>12.451511383056641</v>
+        <v>12.45151138305664</v>
       </c>
       <c r="G52">
-        <v>5.1620426177978516</v>
+        <v>5.162042617797852</v>
       </c>
       <c r="H52">
-        <v>-7.9900631904602051</v>
+        <v>-7.990063190460205</v>
       </c>
       <c r="I52">
-        <v>-5.6329526901245117</v>
+        <v>-5.632952690124512</v>
       </c>
       <c r="J52">
-        <v>-2.4127659797668461</v>
+        <v>-2.412765979766846</v>
       </c>
       <c r="K52">
-        <v>-7.8346333503723136</v>
+        <v>-7.834633350372314</v>
       </c>
       <c r="L52">
         <v>-11.49048328399658</v>
       </c>
       <c r="M52">
-        <v>-5.0368232727050781</v>
+        <v>-5.036823272705078</v>
       </c>
       <c r="N52">
-        <v>-1.0054864883422849</v>
+        <v>-1.005486488342285</v>
       </c>
       <c r="O52" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15">
       <c r="A53" t="s">
         <v>66</v>
       </c>
@@ -3337,31 +3318,31 @@
         <v>9.167510986328125</v>
       </c>
       <c r="E53">
-        <v>-14.931845664978029</v>
+        <v>-14.93184566497803</v>
       </c>
       <c r="F53">
-        <v>7.8054804801940918</v>
+        <v>7.805480480194092</v>
       </c>
       <c r="G53">
-        <v>9.5336341857910156</v>
+        <v>9.533634185791016</v>
       </c>
       <c r="H53">
-        <v>-4.2033920288085938</v>
+        <v>-4.203392028808594</v>
       </c>
       <c r="I53">
-        <v>-8.8496084213256836</v>
+        <v>-8.849608421325684</v>
       </c>
       <c r="J53">
-        <v>-5.9975647926330566</v>
+        <v>-5.997564792633057</v>
       </c>
       <c r="K53">
-        <v>-6.4382228851318359</v>
+        <v>-6.438222885131836</v>
       </c>
       <c r="L53">
-        <v>-10.430360794067379</v>
+        <v>-10.43036079406738</v>
       </c>
       <c r="M53">
-        <v>-8.8547124862670898</v>
+        <v>-8.85471248626709</v>
       </c>
       <c r="N53">
         <v>-2.990902185440063</v>
@@ -3370,7 +3351,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15">
       <c r="A54" t="s">
         <v>67</v>
       </c>
@@ -3381,43 +3362,43 @@
         <v>118.089485168457</v>
       </c>
       <c r="D54">
-        <v>-0.18669769167900091</v>
+        <v>-0.1866976916790009</v>
       </c>
       <c r="E54">
-        <v>-16.258115768432621</v>
+        <v>-16.25811576843262</v>
       </c>
       <c r="F54">
-        <v>9.7146034240722656</v>
+        <v>9.714603424072266</v>
       </c>
       <c r="G54">
-        <v>6.6511802673339844</v>
+        <v>6.651180267333984</v>
       </c>
       <c r="H54">
-        <v>-5.4615564346313477</v>
+        <v>-5.461556434631348</v>
       </c>
       <c r="I54">
-        <v>-8.8885354995727539</v>
+        <v>-8.888535499572754</v>
       </c>
       <c r="J54">
-        <v>-8.0653553009033203</v>
+        <v>-8.06535530090332</v>
       </c>
       <c r="K54">
-        <v>-8.9079561233520508</v>
+        <v>-8.907956123352051</v>
       </c>
       <c r="L54">
         <v>-11.95407295227051</v>
       </c>
       <c r="M54">
-        <v>-7.1165122985839844</v>
+        <v>-7.116512298583984</v>
       </c>
       <c r="N54">
-        <v>-0.24707825481891629</v>
+        <v>-0.2470782548189163</v>
       </c>
       <c r="O54" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15">
       <c r="A55" t="s">
         <v>68</v>
       </c>
@@ -3425,10 +3406,10 @@
         <v>-655.13818359375</v>
       </c>
       <c r="C55">
-        <v>110.38775634765619</v>
+        <v>110.3877563476562</v>
       </c>
       <c r="D55">
-        <v>5.7774839401245117</v>
+        <v>5.777483940124512</v>
       </c>
       <c r="E55">
         <v>-10.94571685791016</v>
@@ -3437,81 +3418,81 @@
         <v>11.14215183258057</v>
       </c>
       <c r="G55">
-        <v>7.3426213264465332</v>
+        <v>7.342621326446533</v>
       </c>
       <c r="H55">
         <v>-4.457341194152832</v>
       </c>
       <c r="I55">
-        <v>-5.5457139015197754</v>
+        <v>-5.545713901519775</v>
       </c>
       <c r="J55">
-        <v>-5.5254030227661133</v>
+        <v>-5.525403022766113</v>
       </c>
       <c r="K55">
-        <v>-9.6761245727539063</v>
+        <v>-9.676124572753906</v>
       </c>
       <c r="L55">
-        <v>-11.105476379394529</v>
+        <v>-11.10547637939453</v>
       </c>
       <c r="M55">
-        <v>-5.8191800117492676</v>
+        <v>-5.819180011749268</v>
       </c>
       <c r="N55">
-        <v>-1.9659185409545901</v>
+        <v>-1.96591854095459</v>
       </c>
       <c r="O55" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15">
       <c r="A56" t="s">
         <v>69</v>
       </c>
       <c r="B56">
-        <v>-686.47589111328125</v>
+        <v>-686.4758911132812</v>
       </c>
       <c r="C56">
-        <v>114.67087554931641</v>
+        <v>114.6708755493164</v>
       </c>
       <c r="D56">
-        <v>20.802541732788089</v>
+        <v>20.80254173278809</v>
       </c>
       <c r="E56">
-        <v>-6.9572057723999023</v>
+        <v>-6.957205772399902</v>
       </c>
       <c r="F56">
-        <v>8.4429035186767578</v>
+        <v>8.442903518676758</v>
       </c>
       <c r="G56">
-        <v>10.185078620910639</v>
+        <v>10.18507862091064</v>
       </c>
       <c r="H56">
-        <v>0.20723630487918851</v>
+        <v>0.2072363048791885</v>
       </c>
       <c r="I56">
-        <v>-4.9732527732849121</v>
+        <v>-4.973252773284912</v>
       </c>
       <c r="J56">
-        <v>-9.1939067840576172</v>
+        <v>-9.193906784057617</v>
       </c>
       <c r="K56">
-        <v>-13.744833946228029</v>
+        <v>-13.74483394622803</v>
       </c>
       <c r="L56">
-        <v>-11.568935394287109</v>
+        <v>-11.56893539428711</v>
       </c>
       <c r="M56">
-        <v>-4.7758517265319824</v>
+        <v>-4.775851726531982</v>
       </c>
       <c r="N56">
-        <v>-2.3854036331176758</v>
+        <v>-2.385403633117676</v>
       </c>
       <c r="O56" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15">
       <c r="A57" t="s">
         <v>70</v>
       </c>
@@ -3519,37 +3500,37 @@
         <v>-554.143798828125</v>
       </c>
       <c r="C57">
-        <v>117.19500732421881</v>
+        <v>117.1950073242188</v>
       </c>
       <c r="D57">
-        <v>0.89585703611373901</v>
+        <v>0.895857036113739</v>
       </c>
       <c r="E57">
-        <v>-17.147396087646481</v>
+        <v>-17.14739608764648</v>
       </c>
       <c r="F57">
-        <v>10.538986206054689</v>
+        <v>10.53898620605469</v>
       </c>
       <c r="G57">
         <v>6.487581729888916</v>
       </c>
       <c r="H57">
-        <v>-7.5145702362060547</v>
+        <v>-7.514570236206055</v>
       </c>
       <c r="I57">
-        <v>-5.1529355049133301</v>
+        <v>-5.15293550491333</v>
       </c>
       <c r="J57">
-        <v>-0.86878573894500732</v>
+        <v>-0.8687857389450073</v>
       </c>
       <c r="K57">
-        <v>-4.2347660064697266</v>
+        <v>-4.234766006469727</v>
       </c>
       <c r="L57">
-        <v>-7.6487369537353516</v>
+        <v>-7.648736953735352</v>
       </c>
       <c r="M57">
-        <v>-4.9906516075134277</v>
+        <v>-4.990651607513428</v>
       </c>
       <c r="N57">
         <v>-1.466683149337769</v>
@@ -3558,101 +3539,101 @@
         <v>158</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15">
       <c r="A58" t="s">
         <v>71</v>
       </c>
       <c r="B58">
-        <v>-631.59124755859375</v>
+        <v>-631.5912475585938</v>
       </c>
       <c r="C58">
         <v>116.0398483276367</v>
       </c>
       <c r="D58">
-        <v>5.3394618034362793</v>
+        <v>5.339461803436279</v>
       </c>
       <c r="E58">
-        <v>-16.357425689697269</v>
+        <v>-16.35742568969727</v>
       </c>
       <c r="F58">
-        <v>9.6614284515380859</v>
+        <v>9.661428451538086</v>
       </c>
       <c r="G58">
-        <v>8.0065402984619141</v>
+        <v>8.006540298461914</v>
       </c>
       <c r="H58">
-        <v>-7.8753461837768546</v>
+        <v>-7.875346183776855</v>
       </c>
       <c r="I58">
-        <v>-9.3460817337036133</v>
+        <v>-9.346081733703613</v>
       </c>
       <c r="J58">
-        <v>-5.4191155433654794</v>
+        <v>-5.419115543365479</v>
       </c>
       <c r="K58">
-        <v>-8.0881538391113281</v>
+        <v>-8.088153839111328</v>
       </c>
       <c r="L58">
         <v>-11.26127910614014</v>
       </c>
       <c r="M58">
-        <v>-6.9670310020446777</v>
+        <v>-6.967031002044678</v>
       </c>
       <c r="N58">
-        <v>-2.2904152870178218</v>
+        <v>-2.290415287017822</v>
       </c>
       <c r="O58" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15">
       <c r="A59" t="s">
         <v>72</v>
       </c>
       <c r="B59">
-        <v>-622.77508544921875</v>
+        <v>-622.7750854492188</v>
       </c>
       <c r="C59">
         <v>120.8256149291992</v>
       </c>
       <c r="D59">
-        <v>2.5460267066955571</v>
+        <v>2.546026706695557</v>
       </c>
       <c r="E59">
         <v>-17.92115592956543</v>
       </c>
       <c r="F59">
-        <v>9.4678812026977539</v>
+        <v>9.467881202697754</v>
       </c>
       <c r="G59">
         <v>8.060307502746582</v>
       </c>
       <c r="H59">
-        <v>-7.0406441688537598</v>
+        <v>-7.04064416885376</v>
       </c>
       <c r="I59">
-        <v>-9.6840505599975586</v>
+        <v>-9.684050559997559</v>
       </c>
       <c r="J59">
-        <v>-6.1779670715332031</v>
+        <v>-6.177967071533203</v>
       </c>
       <c r="K59">
-        <v>-8.7573232650756836</v>
+        <v>-8.757323265075684</v>
       </c>
       <c r="L59">
-        <v>-12.989171028137211</v>
+        <v>-12.98917102813721</v>
       </c>
       <c r="M59">
         <v>-6.685150146484375</v>
       </c>
       <c r="N59">
-        <v>0.14855913817882541</v>
+        <v>0.1485591381788254</v>
       </c>
       <c r="O59" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:15">
       <c r="A60" t="s">
         <v>73</v>
       </c>
@@ -3663,95 +3644,95 @@
         <v>116.2307815551758</v>
       </c>
       <c r="D60">
-        <v>4.4147863388061523</v>
+        <v>4.414786338806152</v>
       </c>
       <c r="E60">
-        <v>-15.695793151855471</v>
+        <v>-15.69579315185547</v>
       </c>
       <c r="F60">
-        <v>9.6302642822265625</v>
+        <v>9.630264282226562</v>
       </c>
       <c r="G60">
         <v>8.686039924621582</v>
       </c>
       <c r="H60">
-        <v>-5.1849641799926758</v>
+        <v>-5.184964179992676</v>
       </c>
       <c r="I60">
-        <v>-7.7792625427246094</v>
+        <v>-7.779262542724609</v>
       </c>
       <c r="J60">
-        <v>-5.6162576675415039</v>
+        <v>-5.616257667541504</v>
       </c>
       <c r="K60">
-        <v>-9.6407327651977539</v>
+        <v>-9.640732765197754</v>
       </c>
       <c r="L60">
-        <v>-13.398647308349609</v>
+        <v>-13.39864730834961</v>
       </c>
       <c r="M60">
-        <v>-6.9507622718811044</v>
+        <v>-6.950762271881104</v>
       </c>
       <c r="N60">
-        <v>-1.1290445327758789</v>
+        <v>-1.129044532775879</v>
       </c>
       <c r="O60" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:15">
       <c r="A61" t="s">
         <v>74</v>
       </c>
       <c r="B61">
-        <v>-679.45489501953125</v>
+        <v>-679.4548950195312</v>
       </c>
       <c r="C61">
         <v>113.2853698730469</v>
       </c>
       <c r="D61">
-        <v>19.467864990234379</v>
+        <v>19.46786499023438</v>
       </c>
       <c r="E61">
-        <v>-8.6659030914306641</v>
+        <v>-8.665903091430664</v>
       </c>
       <c r="F61">
-        <v>7.8554787635803223</v>
+        <v>7.855478763580322</v>
       </c>
       <c r="G61">
-        <v>9.4469451904296875</v>
+        <v>9.446945190429688</v>
       </c>
       <c r="H61">
-        <v>-2.1577315330505371</v>
+        <v>-2.157731533050537</v>
       </c>
       <c r="I61">
-        <v>-5.9245166778564453</v>
+        <v>-5.924516677856445</v>
       </c>
       <c r="J61">
-        <v>-6.3328862190246582</v>
+        <v>-6.332886219024658</v>
       </c>
       <c r="K61">
-        <v>-10.264780044555661</v>
+        <v>-10.26478004455566</v>
       </c>
       <c r="L61">
         <v>-12.10801982879639</v>
       </c>
       <c r="M61">
-        <v>-8.5409221649169922</v>
+        <v>-8.540922164916992</v>
       </c>
       <c r="N61">
-        <v>-4.2973031997680664</v>
+        <v>-4.297303199768066</v>
       </c>
       <c r="O61" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:15">
       <c r="A62" t="s">
         <v>75</v>
       </c>
       <c r="B62">
-        <v>-525.57220458984375</v>
+        <v>-525.5722045898438</v>
       </c>
       <c r="C62">
         <v>109.3502197265625</v>
@@ -3760,40 +3741,40 @@
         <v>2.890671968460083</v>
       </c>
       <c r="E62">
-        <v>-13.865537643432621</v>
+        <v>-13.86553764343262</v>
       </c>
       <c r="F62">
-        <v>9.2536191940307617</v>
+        <v>9.253619194030762</v>
       </c>
       <c r="G62">
-        <v>4.4160275459289551</v>
+        <v>4.416027545928955</v>
       </c>
       <c r="H62">
-        <v>-8.1303482055664063</v>
+        <v>-8.130348205566406</v>
       </c>
       <c r="I62">
-        <v>-6.2849259376525879</v>
+        <v>-6.284925937652588</v>
       </c>
       <c r="J62">
-        <v>-2.2406609058380131</v>
+        <v>-2.240660905838013</v>
       </c>
       <c r="K62">
-        <v>-5.7739486694335938</v>
+        <v>-5.773948669433594</v>
       </c>
       <c r="L62">
         <v>-10.27670288085938</v>
       </c>
       <c r="M62">
-        <v>-7.3763980865478516</v>
+        <v>-7.376398086547852</v>
       </c>
       <c r="N62">
-        <v>-3.2085919380187988</v>
+        <v>-3.208591938018799</v>
       </c>
       <c r="O62" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15">
       <c r="A63" t="s">
         <v>76</v>
       </c>
@@ -3804,43 +3785,43 @@
         <v>116.2255325317383</v>
       </c>
       <c r="D63">
-        <v>8.2683935165405273</v>
+        <v>8.268393516540527</v>
       </c>
       <c r="E63">
-        <v>-16.274875640869141</v>
+        <v>-16.27487564086914</v>
       </c>
       <c r="F63">
-        <v>8.9394397735595703</v>
+        <v>8.93943977355957</v>
       </c>
       <c r="G63">
         <v>10.0687198638916</v>
       </c>
       <c r="H63">
-        <v>-5.5808515548706046</v>
+        <v>-5.580851554870605</v>
       </c>
       <c r="I63">
-        <v>-9.8358297348022461</v>
+        <v>-9.835829734802246</v>
       </c>
       <c r="J63">
-        <v>-8.1645269393920898</v>
+        <v>-8.16452693939209</v>
       </c>
       <c r="K63">
         <v>-11.17806911468506</v>
       </c>
       <c r="L63">
-        <v>-13.460856437683111</v>
+        <v>-13.46085643768311</v>
       </c>
       <c r="M63">
-        <v>-7.6693992614746094</v>
+        <v>-7.669399261474609</v>
       </c>
       <c r="N63">
-        <v>-1.0036472082138059</v>
+        <v>-1.003647208213806</v>
       </c>
       <c r="O63" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:15">
       <c r="A64" t="s">
         <v>77</v>
       </c>
@@ -3851,28 +3832,28 @@
         <v>107.857063293457</v>
       </c>
       <c r="D64">
-        <v>5.8935542106628418</v>
+        <v>5.893554210662842</v>
       </c>
       <c r="E64">
         <v>-15.40201568603516</v>
       </c>
       <c r="F64">
-        <v>5.3533124923706046</v>
+        <v>5.353312492370605</v>
       </c>
       <c r="G64">
-        <v>6.0048985481262207</v>
+        <v>6.004898548126221</v>
       </c>
       <c r="H64">
-        <v>-5.4119248390197754</v>
+        <v>-5.411924839019775</v>
       </c>
       <c r="I64">
-        <v>-9.8948431015014648</v>
+        <v>-9.894843101501465</v>
       </c>
       <c r="J64">
-        <v>-8.1170158386230469</v>
+        <v>-8.117015838623047</v>
       </c>
       <c r="K64">
-        <v>-8.7388391494750977</v>
+        <v>-8.738839149475098</v>
       </c>
       <c r="L64">
         <v>-11.522292137146</v>
@@ -3881,51 +3862,51 @@
         <v>-6.267730712890625</v>
       </c>
       <c r="N64">
-        <v>8.1529535353183746E-2</v>
+        <v>0.08152953535318375</v>
       </c>
       <c r="O64" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:15">
       <c r="A65" t="s">
         <v>78</v>
       </c>
       <c r="B65">
-        <v>-658.30767822265625</v>
+        <v>-658.3076782226562</v>
       </c>
       <c r="C65">
         <v>116.7070846557617</v>
       </c>
       <c r="D65">
-        <v>2.2049779891967769</v>
+        <v>2.204977989196777</v>
       </c>
       <c r="E65">
-        <v>-14.012308120727541</v>
+        <v>-14.01230812072754</v>
       </c>
       <c r="F65">
-        <v>11.304726600646971</v>
+        <v>11.30472660064697</v>
       </c>
       <c r="G65">
-        <v>7.6457099914550781</v>
+        <v>7.645709991455078</v>
       </c>
       <c r="H65">
-        <v>-4.4928650856018066</v>
+        <v>-4.492865085601807</v>
       </c>
       <c r="I65">
-        <v>-6.6951236724853516</v>
+        <v>-6.695123672485352</v>
       </c>
       <c r="J65">
-        <v>-7.2023940086364746</v>
+        <v>-7.202394008636475</v>
       </c>
       <c r="K65">
-        <v>-10.350362777709959</v>
+        <v>-10.35036277770996</v>
       </c>
       <c r="L65">
-        <v>-11.762960433959959</v>
+        <v>-11.76296043395996</v>
       </c>
       <c r="M65">
-        <v>-5.4483499526977539</v>
+        <v>-5.448349952697754</v>
       </c>
       <c r="N65">
         <v>0.1005182936787605</v>
@@ -3934,7 +3915,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:15">
       <c r="A66" t="s">
         <v>79</v>
       </c>
@@ -3942,84 +3923,84 @@
         <v>-640.2132568359375</v>
       </c>
       <c r="C66">
-        <v>114.73622894287109</v>
+        <v>114.7362289428711</v>
       </c>
       <c r="D66">
-        <v>10.121456146240231</v>
+        <v>10.12145614624023</v>
       </c>
       <c r="E66">
-        <v>-12.533308029174799</v>
+        <v>-12.5333080291748</v>
       </c>
       <c r="F66">
-        <v>8.3466291427612305</v>
+        <v>8.34662914276123</v>
       </c>
       <c r="G66">
-        <v>6.6489701271057129</v>
+        <v>6.648970127105713</v>
       </c>
       <c r="H66">
-        <v>-5.0056300163269043</v>
+        <v>-5.005630016326904</v>
       </c>
       <c r="I66">
         <v>-5.511533260345459</v>
       </c>
       <c r="J66">
-        <v>-5.7678866386413574</v>
+        <v>-5.767886638641357</v>
       </c>
       <c r="K66">
-        <v>-12.101255416870121</v>
+        <v>-12.10125541687012</v>
       </c>
       <c r="L66">
-        <v>-13.576284408569339</v>
+        <v>-13.57628440856934</v>
       </c>
       <c r="M66">
-        <v>-6.6560225486755371</v>
+        <v>-6.656022548675537</v>
       </c>
       <c r="N66">
-        <v>-2.2338278293609619</v>
+        <v>-2.233827829360962</v>
       </c>
       <c r="O66" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:15">
       <c r="A67" t="s">
         <v>80</v>
       </c>
       <c r="B67">
-        <v>-565.05609130859375</v>
+        <v>-565.0560913085938</v>
       </c>
       <c r="C67">
         <v>120.5460586547852</v>
       </c>
       <c r="D67">
-        <v>-1.4112287759780879</v>
+        <v>-1.411228775978088</v>
       </c>
       <c r="E67">
-        <v>-16.416952133178711</v>
+        <v>-16.41695213317871</v>
       </c>
       <c r="F67">
-        <v>11.635255813598629</v>
+        <v>11.63525581359863</v>
       </c>
       <c r="G67">
-        <v>3.2226066589355469</v>
+        <v>3.222606658935547</v>
       </c>
       <c r="H67">
         <v>-10.37705135345459</v>
       </c>
       <c r="I67">
-        <v>-5.0296859741210938</v>
+        <v>-5.029685974121094</v>
       </c>
       <c r="J67">
         <v>-1.936660528182983</v>
       </c>
       <c r="K67">
-        <v>-6.9495401382446289</v>
+        <v>-6.949540138244629</v>
       </c>
       <c r="L67">
-        <v>-8.2124319076538086</v>
+        <v>-8.212431907653809</v>
       </c>
       <c r="M67">
-        <v>-4.0245041847229004</v>
+        <v>-4.0245041847229</v>
       </c>
       <c r="N67">
         <v>-2.215397834777832</v>
@@ -4028,101 +4009,101 @@
         <v>158</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:15">
       <c r="A68" t="s">
         <v>81</v>
       </c>
       <c r="B68">
-        <v>-655.42816162109375</v>
+        <v>-655.4281616210938</v>
       </c>
       <c r="C68">
-        <v>117.13779449462891</v>
+        <v>117.1377944946289</v>
       </c>
       <c r="D68">
-        <v>4.4553451538085938</v>
+        <v>4.455345153808594</v>
       </c>
       <c r="E68">
-        <v>-16.846195220947269</v>
+        <v>-16.84619522094727</v>
       </c>
       <c r="F68">
         <v>10.05861663818359</v>
       </c>
       <c r="G68">
-        <v>8.0467348098754883</v>
+        <v>8.046734809875488</v>
       </c>
       <c r="H68">
-        <v>-7.8380403518676758</v>
+        <v>-7.838040351867676</v>
       </c>
       <c r="I68">
-        <v>-8.3412656784057617</v>
+        <v>-8.341265678405762</v>
       </c>
       <c r="J68">
-        <v>-4.5797123908996582</v>
+        <v>-4.579712390899658</v>
       </c>
       <c r="K68">
-        <v>-9.1000499725341797</v>
+        <v>-9.10004997253418</v>
       </c>
       <c r="L68">
         <v>-13.26296806335449</v>
       </c>
       <c r="M68">
-        <v>-7.5261788368225098</v>
+        <v>-7.52617883682251</v>
       </c>
       <c r="N68">
-        <v>-0.92084938287734985</v>
+        <v>-0.9208493828773499</v>
       </c>
       <c r="O68" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:15">
       <c r="A69" t="s">
         <v>82</v>
       </c>
       <c r="B69">
-        <v>-624.13616943359375</v>
+        <v>-624.1361694335938</v>
       </c>
       <c r="C69">
-        <v>128.92304992675781</v>
+        <v>128.9230499267578</v>
       </c>
       <c r="D69">
-        <v>4.2035531997680664</v>
+        <v>4.203553199768066</v>
       </c>
       <c r="E69">
-        <v>-19.681808471679691</v>
+        <v>-19.68180847167969</v>
       </c>
       <c r="F69">
         <v>10.51578330993652</v>
       </c>
       <c r="G69">
-        <v>11.206154823303221</v>
+        <v>11.20615482330322</v>
       </c>
       <c r="H69">
-        <v>-6.0867266654968262</v>
+        <v>-6.086726665496826</v>
       </c>
       <c r="I69">
-        <v>-10.236221313476561</v>
+        <v>-10.23622131347656</v>
       </c>
       <c r="J69">
-        <v>-6.3155364990234384</v>
+        <v>-6.315536499023438</v>
       </c>
       <c r="K69">
-        <v>-9.2304515838623047</v>
+        <v>-9.230451583862305</v>
       </c>
       <c r="L69">
         <v>-13.97322845458984</v>
       </c>
       <c r="M69">
-        <v>-7.1863489151000977</v>
+        <v>-7.186348915100098</v>
       </c>
       <c r="N69">
-        <v>3.6569993942975998E-2</v>
+        <v>0.036569993942976</v>
       </c>
       <c r="O69" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:15">
       <c r="A70" t="s">
         <v>83</v>
       </c>
@@ -4136,22 +4117,22 @@
         <v>3.842246294021606</v>
       </c>
       <c r="E70">
-        <v>-17.002717971801761</v>
+        <v>-17.00271797180176</v>
       </c>
       <c r="F70">
         <v>10.45376586914062</v>
       </c>
       <c r="G70">
-        <v>9.0793790817260742</v>
+        <v>9.079379081726074</v>
       </c>
       <c r="H70">
-        <v>-6.9553046226501456</v>
+        <v>-6.955304622650146</v>
       </c>
       <c r="I70">
-        <v>-8.0347042083740234</v>
+        <v>-8.034704208374023</v>
       </c>
       <c r="J70">
-        <v>-5.1006340980529794</v>
+        <v>-5.100634098052979</v>
       </c>
       <c r="K70">
         <v>-9.8253173828125</v>
@@ -4169,7 +4150,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:15">
       <c r="A71" t="s">
         <v>84</v>
       </c>
@@ -4186,84 +4167,84 @@
         <v>-11.73721504211426</v>
       </c>
       <c r="F71">
-        <v>10.332815170288089</v>
+        <v>10.33281517028809</v>
       </c>
       <c r="G71">
-        <v>8.1927585601806641</v>
+        <v>8.192758560180664</v>
       </c>
       <c r="H71">
-        <v>-6.9532151222229004</v>
+        <v>-6.9532151222229</v>
       </c>
       <c r="I71">
-        <v>-7.3353509902954102</v>
+        <v>-7.33535099029541</v>
       </c>
       <c r="J71">
-        <v>-4.9885225296020508</v>
+        <v>-4.988522529602051</v>
       </c>
       <c r="K71">
         <v>-10.80860042572021</v>
       </c>
       <c r="L71">
-        <v>-13.715601921081539</v>
+        <v>-13.71560192108154</v>
       </c>
       <c r="M71">
-        <v>-8.6295690536499023</v>
+        <v>-8.629569053649902</v>
       </c>
       <c r="N71">
-        <v>-4.0500006675720206</v>
+        <v>-4.050000667572021</v>
       </c>
       <c r="O71" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:15">
       <c r="A72" t="s">
         <v>85</v>
       </c>
       <c r="B72">
-        <v>-479.84396362304688</v>
+        <v>-479.8439636230469</v>
       </c>
       <c r="C72">
-        <v>131.69502258300781</v>
+        <v>131.6950225830078</v>
       </c>
       <c r="D72">
-        <v>-5.6484813690185547</v>
+        <v>-5.648481369018555</v>
       </c>
       <c r="E72">
-        <v>-26.496156692504879</v>
+        <v>-26.49615669250488</v>
       </c>
       <c r="F72">
-        <v>4.4597501754760742</v>
+        <v>4.459750175476074</v>
       </c>
       <c r="G72">
-        <v>6.0040793418884277</v>
+        <v>6.004079341888428</v>
       </c>
       <c r="H72">
-        <v>-6.5872921943664551</v>
+        <v>-6.587292194366455</v>
       </c>
       <c r="I72">
-        <v>-10.329668045043951</v>
+        <v>-10.32966804504395</v>
       </c>
       <c r="J72">
-        <v>-8.7923574447631836</v>
+        <v>-8.792357444763184</v>
       </c>
       <c r="K72">
-        <v>-12.435615539550779</v>
+        <v>-12.43561553955078</v>
       </c>
       <c r="L72">
-        <v>-14.330525398254389</v>
+        <v>-14.33052539825439</v>
       </c>
       <c r="M72">
         <v>-5.24005126953125</v>
       </c>
       <c r="N72">
-        <v>-4.3577663600444787E-2</v>
+        <v>-0.04357766360044479</v>
       </c>
       <c r="O72" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:15">
       <c r="A73" t="s">
         <v>86</v>
       </c>
@@ -4274,25 +4255,25 @@
         <v>113.3044891357422</v>
       </c>
       <c r="D73">
-        <v>2.1279630661010742</v>
+        <v>2.127963066101074</v>
       </c>
       <c r="E73">
-        <v>-20.082736968994141</v>
+        <v>-20.08273696899414</v>
       </c>
       <c r="F73">
         <v>7.964970588684082</v>
       </c>
       <c r="G73">
-        <v>11.428128242492679</v>
+        <v>11.42812824249268</v>
       </c>
       <c r="H73">
         <v>-3.228728055953979</v>
       </c>
       <c r="I73">
-        <v>-8.8304977416992188</v>
+        <v>-8.830497741699219</v>
       </c>
       <c r="J73">
-        <v>-8.0344085693359375</v>
+        <v>-8.034408569335938</v>
       </c>
       <c r="K73">
         <v>-11.10106182098389</v>
@@ -4301,7 +4282,7 @@
         <v>-13.07141590118408</v>
       </c>
       <c r="M73">
-        <v>-6.6829166412353516</v>
+        <v>-6.682916641235352</v>
       </c>
       <c r="N73">
         <v>-1.20299768447876</v>
@@ -4310,59 +4291,59 @@
         <v>154</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:15">
       <c r="A74" t="s">
         <v>87</v>
       </c>
       <c r="B74">
-        <v>-535.14837646484375</v>
+        <v>-535.1483764648438</v>
       </c>
       <c r="C74">
-        <v>113.13083648681641</v>
+        <v>113.1308364868164</v>
       </c>
       <c r="D74">
-        <v>0.14987598359584811</v>
+        <v>0.1498759835958481</v>
       </c>
       <c r="E74">
         <v>-19.1635856628418</v>
       </c>
       <c r="F74">
-        <v>7.7848992347717294</v>
+        <v>7.784899234771729</v>
       </c>
       <c r="G74">
-        <v>6.4077644348144531</v>
+        <v>6.407764434814453</v>
       </c>
       <c r="H74">
-        <v>-9.5746841430664063</v>
+        <v>-9.574684143066406</v>
       </c>
       <c r="I74">
-        <v>-13.517331123352051</v>
+        <v>-13.51733112335205</v>
       </c>
       <c r="J74">
-        <v>-9.1133832931518555</v>
+        <v>-9.113383293151855</v>
       </c>
       <c r="K74">
         <v>-8.764073371887207</v>
       </c>
       <c r="L74">
-        <v>-12.146275520324711</v>
+        <v>-12.14627552032471</v>
       </c>
       <c r="M74">
-        <v>-7.6440324783325204</v>
+        <v>-7.64403247833252</v>
       </c>
       <c r="N74">
-        <v>-1.1738356351852419</v>
+        <v>-1.173835635185242</v>
       </c>
       <c r="O74" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:15">
       <c r="A75" t="s">
         <v>88</v>
       </c>
       <c r="B75">
-        <v>-607.50164794921875</v>
+        <v>-607.5016479492188</v>
       </c>
       <c r="C75">
         <v>113.5158615112305</v>
@@ -4371,60 +4352,60 @@
         <v>3.491425514221191</v>
       </c>
       <c r="E75">
-        <v>-17.023799896240231</v>
+        <v>-17.02379989624023</v>
       </c>
       <c r="F75">
-        <v>8.0963954925537109</v>
+        <v>8.096395492553711</v>
       </c>
       <c r="G75">
-        <v>7.8739967346191406</v>
+        <v>7.873996734619141</v>
       </c>
       <c r="H75">
-        <v>-5.2896637916564941</v>
+        <v>-5.289663791656494</v>
       </c>
       <c r="I75">
-        <v>-8.3663845062255859</v>
+        <v>-8.366384506225586</v>
       </c>
       <c r="J75">
-        <v>-6.8834047317504883</v>
+        <v>-6.883404731750488</v>
       </c>
       <c r="K75">
-        <v>-10.377913475036619</v>
+        <v>-10.37791347503662</v>
       </c>
       <c r="L75">
         <v>-15.11674213409424</v>
       </c>
       <c r="M75">
-        <v>-9.4522895812988281</v>
+        <v>-9.452289581298828</v>
       </c>
       <c r="N75">
-        <v>-0.30383408069610601</v>
+        <v>-0.303834080696106</v>
       </c>
       <c r="O75" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:15">
       <c r="A76" t="s">
         <v>89</v>
       </c>
       <c r="B76">
-        <v>-471.77639770507813</v>
+        <v>-471.7763977050781</v>
       </c>
       <c r="C76">
-        <v>123.03806304931641</v>
+        <v>123.0380630493164</v>
       </c>
       <c r="D76">
-        <v>-1.2290216684341431</v>
+        <v>-1.229021668434143</v>
       </c>
       <c r="E76">
-        <v>-23.177946090698239</v>
+        <v>-23.17794609069824</v>
       </c>
       <c r="F76">
         <v>7.11456298828125</v>
       </c>
       <c r="G76">
-        <v>6.0844707489013672</v>
+        <v>6.084470748901367</v>
       </c>
       <c r="H76">
         <v>-9.598388671875</v>
@@ -4433,13 +4414,13 @@
         <v>-9.430567741394043</v>
       </c>
       <c r="J76">
-        <v>-4.8343448638916016</v>
+        <v>-4.834344863891602</v>
       </c>
       <c r="K76">
         <v>-8.881962776184082</v>
       </c>
       <c r="L76">
-        <v>-11.970333099365231</v>
+        <v>-11.97033309936523</v>
       </c>
       <c r="M76">
         <v>-5.234220027923584</v>
@@ -4451,7 +4432,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:15">
       <c r="A77" t="s">
         <v>90</v>
       </c>
@@ -4462,43 +4443,43 @@
         <v>112.1175003051758</v>
       </c>
       <c r="D77">
-        <v>5.6935386657714844</v>
+        <v>5.693538665771484</v>
       </c>
       <c r="E77">
-        <v>-19.635116577148441</v>
+        <v>-19.63511657714844</v>
       </c>
       <c r="F77">
-        <v>6.2765207290649414</v>
+        <v>6.276520729064941</v>
       </c>
       <c r="G77">
-        <v>9.4663934707641602</v>
+        <v>9.46639347076416</v>
       </c>
       <c r="H77">
         <v>-6.396644115447998</v>
       </c>
       <c r="I77">
-        <v>-10.444491386413571</v>
+        <v>-10.44449138641357</v>
       </c>
       <c r="J77">
-        <v>-5.5467343330383301</v>
+        <v>-5.54673433303833</v>
       </c>
       <c r="K77">
-        <v>-7.6995439529418954</v>
+        <v>-7.699543952941895</v>
       </c>
       <c r="L77">
-        <v>-13.761167526245121</v>
+        <v>-13.76116752624512</v>
       </c>
       <c r="M77">
-        <v>-10.483991622924799</v>
+        <v>-10.4839916229248</v>
       </c>
       <c r="N77">
-        <v>-2.8007528781890869</v>
+        <v>-2.800752878189087</v>
       </c>
       <c r="O77" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:15">
       <c r="A78" t="s">
         <v>91</v>
       </c>
@@ -4509,54 +4490,54 @@
         <v>111.7746963500977</v>
       </c>
       <c r="D78">
-        <v>3.7056314945220952</v>
+        <v>3.705631494522095</v>
       </c>
       <c r="E78">
-        <v>-16.775339126586911</v>
+        <v>-16.77533912658691</v>
       </c>
       <c r="F78">
-        <v>7.7812089920043954</v>
+        <v>7.781208992004395</v>
       </c>
       <c r="G78">
-        <v>7.7139143943786621</v>
+        <v>7.713914394378662</v>
       </c>
       <c r="H78">
-        <v>-5.7945466041564941</v>
+        <v>-5.794546604156494</v>
       </c>
       <c r="I78">
-        <v>-9.8392171859741211</v>
+        <v>-9.839217185974121</v>
       </c>
       <c r="J78">
-        <v>-7.3702173233032227</v>
+        <v>-7.370217323303223</v>
       </c>
       <c r="K78">
-        <v>-7.5610222816467294</v>
+        <v>-7.561022281646729</v>
       </c>
       <c r="L78">
         <v>-10.9529914855957</v>
       </c>
       <c r="M78">
-        <v>-8.2609424591064453</v>
+        <v>-8.260942459106445</v>
       </c>
       <c r="N78">
-        <v>-2.4692344665527339</v>
+        <v>-2.469234466552734</v>
       </c>
       <c r="O78" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:15">
       <c r="A79" t="s">
         <v>92</v>
       </c>
       <c r="B79">
-        <v>-626.34649658203125</v>
+        <v>-626.3464965820312</v>
       </c>
       <c r="C79">
-        <v>111.38014221191411</v>
+        <v>111.3801422119141</v>
       </c>
       <c r="D79">
-        <v>7.5989456176757813</v>
+        <v>7.598945617675781</v>
       </c>
       <c r="E79">
         <v>-15.53870964050293</v>
@@ -4565,10 +4546,10 @@
         <v>8.723353385925293</v>
       </c>
       <c r="G79">
-        <v>9.3166027069091797</v>
+        <v>9.31660270690918</v>
       </c>
       <c r="H79">
-        <v>-4.7077698707580566</v>
+        <v>-4.707769870758057</v>
       </c>
       <c r="I79">
         <v>-6.368372917175293</v>
@@ -4586,13 +4567,13 @@
         <v>-6.085693359375</v>
       </c>
       <c r="N79">
-        <v>-2.4840283393859859</v>
+        <v>-2.484028339385986</v>
       </c>
       <c r="O79" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:15">
       <c r="A80" t="s">
         <v>93</v>
       </c>
@@ -4606,60 +4587,60 @@
         <v>-3.38495922088623</v>
       </c>
       <c r="E80">
-        <v>-28.242547988891602</v>
+        <v>-28.2425479888916</v>
       </c>
       <c r="F80">
-        <v>5.1866960525512704</v>
+        <v>5.18669605255127</v>
       </c>
       <c r="G80">
-        <v>7.9725217819213867</v>
+        <v>7.972521781921387</v>
       </c>
       <c r="H80">
-        <v>-9.5120029449462891</v>
+        <v>-9.512002944946289</v>
       </c>
       <c r="I80">
         <v>-13.43022441864014</v>
       </c>
       <c r="J80">
-        <v>-6.7330551147460938</v>
+        <v>-6.733055114746094</v>
       </c>
       <c r="K80">
-        <v>-9.4717540740966797</v>
+        <v>-9.47175407409668</v>
       </c>
       <c r="L80">
         <v>-14.28883647918701</v>
       </c>
       <c r="M80">
-        <v>-5.0078287124633789</v>
+        <v>-5.007828712463379</v>
       </c>
       <c r="N80">
-        <v>2.1441071033477779</v>
+        <v>2.144107103347778</v>
       </c>
       <c r="O80" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:15">
       <c r="A81" t="s">
         <v>94</v>
       </c>
       <c r="B81">
-        <v>-535.53863525390625</v>
+        <v>-535.5386352539062</v>
       </c>
       <c r="C81">
         <v>118.2896194458008</v>
       </c>
       <c r="D81">
-        <v>-1.6570001840591431</v>
+        <v>-1.657000184059143</v>
       </c>
       <c r="E81">
-        <v>-21.924037933349609</v>
+        <v>-21.92403793334961</v>
       </c>
       <c r="F81">
-        <v>8.9684276580810547</v>
+        <v>8.968427658081055</v>
       </c>
       <c r="G81">
-        <v>10.985110282897949</v>
+        <v>10.98511028289795</v>
       </c>
       <c r="H81">
         <v>-4.779883861541748</v>
@@ -4668,25 +4649,25 @@
         <v>-10.1378927230835</v>
       </c>
       <c r="J81">
-        <v>-9.5014362335205078</v>
+        <v>-9.501436233520508</v>
       </c>
       <c r="K81">
-        <v>-13.364284515380859</v>
+        <v>-13.36428451538086</v>
       </c>
       <c r="L81">
-        <v>-15.233036041259769</v>
+        <v>-15.23303604125977</v>
       </c>
       <c r="M81">
-        <v>-6.5448803901672363</v>
+        <v>-6.544880390167236</v>
       </c>
       <c r="N81">
-        <v>0.29658174514770508</v>
+        <v>0.2965817451477051</v>
       </c>
       <c r="O81" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:15">
       <c r="A82" t="s">
         <v>95</v>
       </c>
@@ -4694,46 +4675,46 @@
         <v>-547.42724609375</v>
       </c>
       <c r="C82">
-        <v>118.29245758056641</v>
+        <v>118.2924575805664</v>
       </c>
       <c r="D82">
         <v>1.639172315597534</v>
       </c>
       <c r="E82">
-        <v>-19.095281600952148</v>
+        <v>-19.09528160095215</v>
       </c>
       <c r="F82">
-        <v>7.1166305541992188</v>
+        <v>7.116630554199219</v>
       </c>
       <c r="G82">
-        <v>6.8153157234191886</v>
+        <v>6.815315723419189</v>
       </c>
       <c r="H82">
-        <v>-6.6286754608154297</v>
+        <v>-6.62867546081543</v>
       </c>
       <c r="I82">
         <v>-11.10263061523438</v>
       </c>
       <c r="J82">
-        <v>-9.1599626541137695</v>
+        <v>-9.15996265411377</v>
       </c>
       <c r="K82">
-        <v>-9.3309965133666992</v>
+        <v>-9.330996513366699</v>
       </c>
       <c r="L82">
-        <v>-13.133456230163571</v>
+        <v>-13.13345623016357</v>
       </c>
       <c r="M82">
-        <v>-9.2664918899536133</v>
+        <v>-9.266491889953613</v>
       </c>
       <c r="N82">
-        <v>-1.3606442213058469</v>
+        <v>-1.360644221305847</v>
       </c>
       <c r="O82" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:15">
       <c r="A83" t="s">
         <v>96</v>
       </c>
@@ -4744,25 +4725,25 @@
         <v>112.784553527832</v>
       </c>
       <c r="D83">
-        <v>4.0328798294067383</v>
+        <v>4.032879829406738</v>
       </c>
       <c r="E83">
-        <v>-17.855087280273441</v>
+        <v>-17.85508728027344</v>
       </c>
       <c r="F83">
         <v>8.847198486328125</v>
       </c>
       <c r="G83">
-        <v>9.0636863708496094</v>
+        <v>9.063686370849609</v>
       </c>
       <c r="H83">
-        <v>-6.3897123336791992</v>
+        <v>-6.389712333679199</v>
       </c>
       <c r="I83">
-        <v>-9.1791467666625977</v>
+        <v>-9.179146766662598</v>
       </c>
       <c r="J83">
-        <v>-7.1656026840209961</v>
+        <v>-7.165602684020996</v>
       </c>
       <c r="K83">
         <v>-11.50309371948242</v>
@@ -4780,18 +4761,18 @@
         <v>157</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:15">
       <c r="A84" t="s">
         <v>97</v>
       </c>
       <c r="B84">
-        <v>-490.22088623046881</v>
+        <v>-490.2208862304688</v>
       </c>
       <c r="C84">
         <v>158.1023254394531</v>
       </c>
       <c r="D84">
-        <v>-11.119321823120121</v>
+        <v>-11.11932182312012</v>
       </c>
       <c r="E84">
         <v>-30.39982795715332</v>
@@ -4800,34 +4781,34 @@
         <v>10.02347373962402</v>
       </c>
       <c r="G84">
-        <v>6.7641501426696777</v>
+        <v>6.764150142669678</v>
       </c>
       <c r="H84">
-        <v>-8.7478408813476563</v>
+        <v>-8.747840881347656</v>
       </c>
       <c r="I84">
         <v>-10.80605411529541</v>
       </c>
       <c r="J84">
-        <v>-8.7549524307250977</v>
+        <v>-8.754952430725098</v>
       </c>
       <c r="K84">
         <v>-10.44139957427979</v>
       </c>
       <c r="L84">
-        <v>-13.699563026428221</v>
+        <v>-13.69956302642822</v>
       </c>
       <c r="M84">
-        <v>-6.5478715896606454</v>
+        <v>-6.547871589660645</v>
       </c>
       <c r="N84">
-        <v>0.62486529350280762</v>
+        <v>0.6248652935028076</v>
       </c>
       <c r="O84" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:15">
       <c r="A85" t="s">
         <v>98</v>
       </c>
@@ -4838,43 +4819,43 @@
         <v>122.8736953735352</v>
       </c>
       <c r="D85">
-        <v>5.7119350433349609</v>
+        <v>5.711935043334961</v>
       </c>
       <c r="E85">
         <v>-21.56381797790527</v>
       </c>
       <c r="F85">
-        <v>6.6841092109680176</v>
+        <v>6.684109210968018</v>
       </c>
       <c r="G85">
         <v>10.62635326385498</v>
       </c>
       <c r="H85">
-        <v>-4.3340249061584473</v>
+        <v>-4.334024906158447</v>
       </c>
       <c r="I85">
-        <v>-8.7080364227294922</v>
+        <v>-8.708036422729492</v>
       </c>
       <c r="J85">
-        <v>-7.0933380126953116</v>
+        <v>-7.093338012695312</v>
       </c>
       <c r="K85">
-        <v>-10.695436477661129</v>
+        <v>-10.69543647766113</v>
       </c>
       <c r="L85">
         <v>-14.70582485198975</v>
       </c>
       <c r="M85">
-        <v>-10.081851005554199</v>
+        <v>-10.0818510055542</v>
       </c>
       <c r="N85">
-        <v>-2.6552443504333501</v>
+        <v>-2.65524435043335</v>
       </c>
       <c r="O85" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:15">
       <c r="A86" t="s">
         <v>99</v>
       </c>
@@ -4882,37 +4863,37 @@
         <v>-568.057373046875</v>
       </c>
       <c r="C86">
-        <v>119.44472503662109</v>
+        <v>119.4447250366211</v>
       </c>
       <c r="D86">
-        <v>0.74994343519210815</v>
+        <v>0.7499434351921082</v>
       </c>
       <c r="E86">
         <v>-17.54670524597168</v>
       </c>
       <c r="F86">
-        <v>10.903683662414551</v>
+        <v>10.90368366241455</v>
       </c>
       <c r="G86">
-        <v>7.7548837661743164</v>
+        <v>7.754883766174316</v>
       </c>
       <c r="H86">
-        <v>-8.7259798049926758</v>
+        <v>-8.725979804992676</v>
       </c>
       <c r="I86">
         <v>-10.88920211791992</v>
       </c>
       <c r="J86">
-        <v>-6.2858576774597168</v>
+        <v>-6.285857677459717</v>
       </c>
       <c r="K86">
-        <v>-8.4509811401367188</v>
+        <v>-8.450981140136719</v>
       </c>
       <c r="L86">
         <v>-13.55330848693848</v>
       </c>
       <c r="M86">
-        <v>-7.7123880386352539</v>
+        <v>-7.712388038635254</v>
       </c>
       <c r="N86">
         <v>-0.124753899872303</v>
@@ -4921,7 +4902,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:15">
       <c r="A87" t="s">
         <v>100</v>
       </c>
@@ -4932,34 +4913,34 @@
         <v>110.2939834594727</v>
       </c>
       <c r="D87">
-        <v>7.5755982398986816</v>
+        <v>7.575598239898682</v>
       </c>
       <c r="E87">
         <v>-12.92796516418457</v>
       </c>
       <c r="F87">
-        <v>9.6401119232177734</v>
+        <v>9.640111923217773</v>
       </c>
       <c r="G87">
-        <v>6.8411087989807129</v>
+        <v>6.841108798980713</v>
       </c>
       <c r="H87">
-        <v>-6.9388113021850586</v>
+        <v>-6.938811302185059</v>
       </c>
       <c r="I87">
-        <v>-7.0599164962768546</v>
+        <v>-7.059916496276855</v>
       </c>
       <c r="J87">
-        <v>-4.9589786529541016</v>
+        <v>-4.958978652954102</v>
       </c>
       <c r="K87">
-        <v>-9.7658872604370117</v>
+        <v>-9.765887260437012</v>
       </c>
       <c r="L87">
-        <v>-12.387224197387701</v>
+        <v>-12.3872241973877</v>
       </c>
       <c r="M87">
-        <v>-7.3205924034118652</v>
+        <v>-7.320592403411865</v>
       </c>
       <c r="N87">
         <v>-3.203553438186646</v>
@@ -4968,7 +4949,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:15">
       <c r="A88" t="s">
         <v>101</v>
       </c>
@@ -4982,145 +4963,145 @@
         <v>15.49854850769043</v>
       </c>
       <c r="E88">
-        <v>-5.4749541282653809</v>
+        <v>-5.474954128265381</v>
       </c>
       <c r="F88">
-        <v>10.785444259643549</v>
+        <v>10.78544425964355</v>
       </c>
       <c r="G88">
-        <v>11.229972839355471</v>
+        <v>11.22997283935547</v>
       </c>
       <c r="H88">
         <v>1.632831215858459</v>
       </c>
       <c r="I88">
-        <v>-2.0826315879821782</v>
+        <v>-2.082631587982178</v>
       </c>
       <c r="J88">
-        <v>-2.2067663669586182</v>
+        <v>-2.206766366958618</v>
       </c>
       <c r="K88">
-        <v>-4.3685116767883301</v>
+        <v>-4.36851167678833</v>
       </c>
       <c r="L88">
-        <v>-6.3481149673461914</v>
+        <v>-6.348114967346191</v>
       </c>
       <c r="M88">
-        <v>-3.6360981464385991</v>
+        <v>-3.636098146438599</v>
       </c>
       <c r="N88">
-        <v>-0.27434918284416199</v>
+        <v>-0.274349182844162</v>
       </c>
       <c r="O88" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:15">
       <c r="A89" t="s">
         <v>102</v>
       </c>
       <c r="B89">
-        <v>-769.87799072265625</v>
+        <v>-769.8779907226562</v>
       </c>
       <c r="C89">
         <v>101.2859191894531</v>
       </c>
       <c r="D89">
-        <v>20.509370803833011</v>
+        <v>20.50937080383301</v>
       </c>
       <c r="E89">
-        <v>-5.2341580390930176</v>
+        <v>-5.234158039093018</v>
       </c>
       <c r="F89">
-        <v>8.2897748947143555</v>
+        <v>8.289774894714355</v>
       </c>
       <c r="G89">
-        <v>12.201992034912109</v>
+        <v>12.20199203491211</v>
       </c>
       <c r="H89">
         <v>3.321749210357666</v>
       </c>
       <c r="I89">
-        <v>-2.6371128559112549</v>
+        <v>-2.637112855911255</v>
       </c>
       <c r="J89">
-        <v>-3.2857134342193599</v>
+        <v>-3.28571343421936</v>
       </c>
       <c r="K89">
-        <v>-3.6478416919708252</v>
+        <v>-3.647841691970825</v>
       </c>
       <c r="L89">
-        <v>-4.7236065864562988</v>
+        <v>-4.723606586456299</v>
       </c>
       <c r="M89">
-        <v>-3.1233062744140621</v>
+        <v>-3.123306274414062</v>
       </c>
       <c r="N89">
-        <v>0.17144107818603521</v>
+        <v>0.1714410781860352</v>
       </c>
       <c r="O89" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:15">
       <c r="A90" t="s">
         <v>103</v>
       </c>
       <c r="B90">
-        <v>-780.54974365234375</v>
+        <v>-780.5497436523438</v>
       </c>
       <c r="C90">
         <v>113.6954345703125</v>
       </c>
       <c r="D90">
-        <v>14.108699798583981</v>
+        <v>14.10869979858398</v>
       </c>
       <c r="E90">
-        <v>-6.3396658897399902</v>
+        <v>-6.33966588973999</v>
       </c>
       <c r="F90">
         <v>10.58032894134521</v>
       </c>
       <c r="G90">
-        <v>10.005266189575201</v>
+        <v>10.0052661895752</v>
       </c>
       <c r="H90">
         <v>2.33958911895752</v>
       </c>
       <c r="I90">
-        <v>9.4724245369434357E-2</v>
+        <v>0.09472424536943436</v>
       </c>
       <c r="J90">
-        <v>-1.4875632524490361</v>
+        <v>-1.487563252449036</v>
       </c>
       <c r="K90">
-        <v>-4.2239518165588379</v>
+        <v>-4.223951816558838</v>
       </c>
       <c r="L90">
-        <v>-5.3518586158752441</v>
+        <v>-5.351858615875244</v>
       </c>
       <c r="M90">
         <v>-3.229521512985229</v>
       </c>
       <c r="N90">
-        <v>4.4097206555306911E-3</v>
+        <v>0.004409720655530691</v>
       </c>
       <c r="O90" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:15">
       <c r="A91" t="s">
         <v>104</v>
       </c>
       <c r="B91">
-        <v>-772.24237060546875</v>
+        <v>-772.2423706054688</v>
       </c>
       <c r="C91">
         <v>110.7996292114258</v>
       </c>
       <c r="D91">
-        <v>15.457118034362789</v>
+        <v>15.45711803436279</v>
       </c>
       <c r="E91">
         <v>-6.749941349029541</v>
@@ -5132,45 +5113,45 @@
         <v>10.72115993499756</v>
       </c>
       <c r="H91">
-        <v>2.3222379684448242</v>
+        <v>2.322237968444824</v>
       </c>
       <c r="I91">
-        <v>-0.75172895193099976</v>
+        <v>-0.7517289519309998</v>
       </c>
       <c r="J91">
-        <v>-2.1259806156158452</v>
+        <v>-2.125980615615845</v>
       </c>
       <c r="K91">
-        <v>-4.5590419769287109</v>
+        <v>-4.559041976928711</v>
       </c>
       <c r="L91">
-        <v>-5.4065008163452148</v>
+        <v>-5.406500816345215</v>
       </c>
       <c r="M91">
-        <v>-3.0474178791046138</v>
+        <v>-3.047417879104614</v>
       </c>
       <c r="N91">
-        <v>-0.47237133979797358</v>
+        <v>-0.4723713397979736</v>
       </c>
       <c r="O91" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:15">
       <c r="A92" t="s">
         <v>105</v>
       </c>
       <c r="B92">
-        <v>-824.92401123046875</v>
+        <v>-824.9240112304688</v>
       </c>
       <c r="C92">
-        <v>121.24440002441411</v>
+        <v>121.2444000244141</v>
       </c>
       <c r="D92">
-        <v>17.028572082519531</v>
+        <v>17.02857208251953</v>
       </c>
       <c r="E92">
-        <v>-6.5642476081848136</v>
+        <v>-6.564247608184814</v>
       </c>
       <c r="F92">
         <v>11.38442993164062</v>
@@ -5179,22 +5160,22 @@
         <v>12.25363922119141</v>
       </c>
       <c r="H92">
-        <v>2.0385022163391109</v>
+        <v>2.038502216339111</v>
       </c>
       <c r="I92">
-        <v>-2.5831573009490971</v>
+        <v>-2.583157300949097</v>
       </c>
       <c r="J92">
-        <v>-2.2694566249847412</v>
+        <v>-2.269456624984741</v>
       </c>
       <c r="K92">
-        <v>-2.4633042812347412</v>
+        <v>-2.463304281234741</v>
       </c>
       <c r="L92">
-        <v>-4.1510891914367676</v>
+        <v>-4.151089191436768</v>
       </c>
       <c r="M92">
-        <v>-3.2011756896972661</v>
+        <v>-3.201175689697266</v>
       </c>
       <c r="N92">
         <v>0.3440590500831604</v>
@@ -5203,30 +5184,30 @@
         <v>160</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:15">
       <c r="A93" t="s">
         <v>106</v>
       </c>
       <c r="B93">
-        <v>-782.83160400390625</v>
+        <v>-782.8316040039062</v>
       </c>
       <c r="C93">
         <v>116.5546798706055</v>
       </c>
       <c r="D93">
-        <v>16.975564956665039</v>
+        <v>16.97556495666504</v>
       </c>
       <c r="E93">
-        <v>-8.6632099151611328</v>
+        <v>-8.663209915161133</v>
       </c>
       <c r="F93">
-        <v>9.3089189529418945</v>
+        <v>9.308918952941895</v>
       </c>
       <c r="G93">
-        <v>12.145759582519529</v>
+        <v>12.14575958251953</v>
       </c>
       <c r="H93">
-        <v>2.4094307422637939</v>
+        <v>2.409430742263794</v>
       </c>
       <c r="I93">
         <v>-3.192581415176392</v>
@@ -5235,10 +5216,10 @@
         <v>-3.429777860641479</v>
       </c>
       <c r="K93">
-        <v>-3.4884686470031738</v>
+        <v>-3.488468647003174</v>
       </c>
       <c r="L93">
-        <v>-4.9847831726074219</v>
+        <v>-4.984783172607422</v>
       </c>
       <c r="M93">
         <v>-3.171483039855957</v>
@@ -5250,7 +5231,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:15">
       <c r="A94" t="s">
         <v>107</v>
       </c>
@@ -5258,37 +5239,37 @@
         <v>-802.92529296875</v>
       </c>
       <c r="C94">
-        <v>133.86564636230469</v>
+        <v>133.8656463623047</v>
       </c>
       <c r="D94">
         <v>12.93902683258057</v>
       </c>
       <c r="E94">
-        <v>-6.9271965026855469</v>
+        <v>-6.927196502685547</v>
       </c>
       <c r="F94">
         <v>10.03154182434082</v>
       </c>
       <c r="G94">
-        <v>9.8144989013671875</v>
+        <v>9.814498901367188</v>
       </c>
       <c r="H94">
-        <v>4.0715541839599609</v>
+        <v>4.071554183959961</v>
       </c>
       <c r="I94">
-        <v>-0.69312453269958496</v>
+        <v>-0.693124532699585</v>
       </c>
       <c r="J94">
-        <v>-3.8159291744232182</v>
+        <v>-3.815929174423218</v>
       </c>
       <c r="K94">
-        <v>-4.3286285400390616</v>
+        <v>-4.328628540039062</v>
       </c>
       <c r="L94">
-        <v>-5.0443940162658691</v>
+        <v>-5.044394016265869</v>
       </c>
       <c r="M94">
-        <v>-3.7753312587738042</v>
+        <v>-3.775331258773804</v>
       </c>
       <c r="N94">
         <v>0.4984150230884552</v>
@@ -5297,7 +5278,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:15">
       <c r="A95" t="s">
         <v>108</v>
       </c>
@@ -5308,13 +5289,13 @@
         <v>125.5385665893555</v>
       </c>
       <c r="D95">
-        <v>10.527169227600099</v>
+        <v>10.5271692276001</v>
       </c>
       <c r="E95">
-        <v>-9.0516891479492188</v>
+        <v>-9.051689147949219</v>
       </c>
       <c r="F95">
-        <v>11.788182258605961</v>
+        <v>11.78818225860596</v>
       </c>
       <c r="G95">
         <v>11.55663967132568</v>
@@ -5326,13 +5307,13 @@
         <v>-1.855208039283752</v>
       </c>
       <c r="J95">
-        <v>-4.1742691993713379</v>
+        <v>-4.174269199371338</v>
       </c>
       <c r="K95">
-        <v>-5.7757749557495117</v>
+        <v>-5.775774955749512</v>
       </c>
       <c r="L95">
-        <v>-6.1343669891357422</v>
+        <v>-6.134366989135742</v>
       </c>
       <c r="M95">
         <v>-2.450527429580688</v>
@@ -5344,7 +5325,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:15">
       <c r="A96" t="s">
         <v>109</v>
       </c>
@@ -5355,43 +5336,43 @@
         <v>116.2307815551758</v>
       </c>
       <c r="D96">
-        <v>4.4147863388061523</v>
+        <v>4.414786338806152</v>
       </c>
       <c r="E96">
-        <v>-15.695793151855471</v>
+        <v>-15.69579315185547</v>
       </c>
       <c r="F96">
-        <v>9.6302642822265625</v>
+        <v>9.630264282226562</v>
       </c>
       <c r="G96">
         <v>8.686039924621582</v>
       </c>
       <c r="H96">
-        <v>-5.1849641799926758</v>
+        <v>-5.184964179992676</v>
       </c>
       <c r="I96">
-        <v>-7.7792625427246094</v>
+        <v>-7.779262542724609</v>
       </c>
       <c r="J96">
-        <v>-5.6162576675415039</v>
+        <v>-5.616257667541504</v>
       </c>
       <c r="K96">
-        <v>-9.6407327651977539</v>
+        <v>-9.640732765197754</v>
       </c>
       <c r="L96">
-        <v>-13.398647308349609</v>
+        <v>-13.39864730834961</v>
       </c>
       <c r="M96">
-        <v>-6.9507622718811044</v>
+        <v>-6.950762271881104</v>
       </c>
       <c r="N96">
-        <v>-1.1290445327758789</v>
+        <v>-1.129044532775879</v>
       </c>
       <c r="O96" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:15">
       <c r="A97" t="s">
         <v>110</v>
       </c>
@@ -5405,22 +5386,22 @@
         <v>3.842246294021606</v>
       </c>
       <c r="E97">
-        <v>-17.002717971801761</v>
+        <v>-17.00271797180176</v>
       </c>
       <c r="F97">
         <v>10.45376586914062</v>
       </c>
       <c r="G97">
-        <v>9.0793790817260742</v>
+        <v>9.079379081726074</v>
       </c>
       <c r="H97">
-        <v>-6.9553046226501456</v>
+        <v>-6.955304622650146</v>
       </c>
       <c r="I97">
-        <v>-8.0347042083740234</v>
+        <v>-8.034704208374023</v>
       </c>
       <c r="J97">
-        <v>-5.1006340980529794</v>
+        <v>-5.100634098052979</v>
       </c>
       <c r="K97">
         <v>-9.8253173828125</v>
@@ -5438,7 +5419,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:15">
       <c r="A98" t="s">
         <v>111</v>
       </c>
@@ -5446,10 +5427,10 @@
         <v>-655.13818359375</v>
       </c>
       <c r="C98">
-        <v>110.38775634765619</v>
+        <v>110.3877563476562</v>
       </c>
       <c r="D98">
-        <v>5.7774839401245117</v>
+        <v>5.777483940124512</v>
       </c>
       <c r="E98">
         <v>-10.94571685791016</v>
@@ -5458,72 +5439,72 @@
         <v>11.14215183258057</v>
       </c>
       <c r="G98">
-        <v>7.3426213264465332</v>
+        <v>7.342621326446533</v>
       </c>
       <c r="H98">
         <v>-4.457341194152832</v>
       </c>
       <c r="I98">
-        <v>-5.5457139015197754</v>
+        <v>-5.545713901519775</v>
       </c>
       <c r="J98">
-        <v>-5.5254030227661133</v>
+        <v>-5.525403022766113</v>
       </c>
       <c r="K98">
-        <v>-9.6761245727539063</v>
+        <v>-9.676124572753906</v>
       </c>
       <c r="L98">
-        <v>-11.105476379394529</v>
+        <v>-11.10547637939453</v>
       </c>
       <c r="M98">
-        <v>-5.8191800117492676</v>
+        <v>-5.819180011749268</v>
       </c>
       <c r="N98">
-        <v>-1.9659185409545901</v>
+        <v>-1.96591854095459</v>
       </c>
       <c r="O98" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:15">
       <c r="A99" t="s">
         <v>112</v>
       </c>
       <c r="B99">
-        <v>-658.30767822265625</v>
+        <v>-658.3076782226562</v>
       </c>
       <c r="C99">
         <v>116.7070846557617</v>
       </c>
       <c r="D99">
-        <v>2.2049779891967769</v>
+        <v>2.204977989196777</v>
       </c>
       <c r="E99">
-        <v>-14.012308120727541</v>
+        <v>-14.01230812072754</v>
       </c>
       <c r="F99">
-        <v>11.304726600646971</v>
+        <v>11.30472660064697</v>
       </c>
       <c r="G99">
-        <v>7.6457099914550781</v>
+        <v>7.645709991455078</v>
       </c>
       <c r="H99">
-        <v>-4.4928650856018066</v>
+        <v>-4.492865085601807</v>
       </c>
       <c r="I99">
-        <v>-6.6951236724853516</v>
+        <v>-6.695123672485352</v>
       </c>
       <c r="J99">
-        <v>-7.2023940086364746</v>
+        <v>-7.202394008636475</v>
       </c>
       <c r="K99">
-        <v>-10.350362777709959</v>
+        <v>-10.35036277770996</v>
       </c>
       <c r="L99">
-        <v>-11.762960433959959</v>
+        <v>-11.76296043395996</v>
       </c>
       <c r="M99">
-        <v>-5.4483499526977539</v>
+        <v>-5.448349952697754</v>
       </c>
       <c r="N99">
         <v>0.1005182936787605</v>
@@ -5532,7 +5513,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:15">
       <c r="A100" t="s">
         <v>113</v>
       </c>
@@ -5546,7 +5527,7 @@
         <v>8.988133430480957</v>
       </c>
       <c r="E100">
-        <v>-14.396120071411129</v>
+        <v>-14.39612007141113</v>
       </c>
       <c r="F100">
         <v>12.01978588104248</v>
@@ -5555,31 +5536,31 @@
         <v>11.47454738616943</v>
       </c>
       <c r="H100">
-        <v>-5.0667324066162109</v>
+        <v>-5.066732406616211</v>
       </c>
       <c r="I100">
-        <v>-8.0388202667236328</v>
+        <v>-8.038820266723633</v>
       </c>
       <c r="J100">
-        <v>-4.3240694999694824</v>
+        <v>-4.324069499969482</v>
       </c>
       <c r="K100">
-        <v>-7.4659562110900879</v>
+        <v>-7.465956211090088</v>
       </c>
       <c r="L100">
         <v>-11.27092266082764</v>
       </c>
       <c r="M100">
-        <v>-5.8177995681762704</v>
+        <v>-5.81779956817627</v>
       </c>
       <c r="N100">
-        <v>0.41308102011680597</v>
+        <v>0.413081020116806</v>
       </c>
       <c r="O100" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:15">
       <c r="A101" t="s">
         <v>114</v>
       </c>
@@ -5590,81 +5571,81 @@
         <v>119.8795852661133</v>
       </c>
       <c r="D101">
-        <v>6.3120932579040527</v>
+        <v>6.312093257904053</v>
       </c>
       <c r="E101">
-        <v>-15.119974136352541</v>
+        <v>-15.11997413635254</v>
       </c>
       <c r="F101">
-        <v>12.025712013244631</v>
+        <v>12.02571201324463</v>
       </c>
       <c r="G101">
-        <v>10.616189956665041</v>
+        <v>10.61618995666504</v>
       </c>
       <c r="H101">
-        <v>-5.1482653617858887</v>
+        <v>-5.148265361785889</v>
       </c>
       <c r="I101">
         <v>-6.661898136138916</v>
       </c>
       <c r="J101">
-        <v>-4.4463658332824707</v>
+        <v>-4.446365833282471</v>
       </c>
       <c r="K101">
-        <v>-9.8945322036743164</v>
+        <v>-9.894532203674316</v>
       </c>
       <c r="L101">
         <v>-12.75477886199951</v>
       </c>
       <c r="M101">
-        <v>-5.1631498336791992</v>
+        <v>-5.163149833679199</v>
       </c>
       <c r="N101">
-        <v>0.48507401347160339</v>
+        <v>0.4850740134716034</v>
       </c>
       <c r="O101" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:15">
       <c r="A102" t="s">
         <v>115</v>
       </c>
       <c r="B102">
-        <v>-676.89434814453125</v>
+        <v>-676.8943481445312</v>
       </c>
       <c r="C102">
         <v>120.9994430541992</v>
       </c>
       <c r="D102">
-        <v>15.108296394348139</v>
+        <v>15.10829639434814</v>
       </c>
       <c r="E102">
-        <v>-7.8013710975646973</v>
+        <v>-7.801371097564697</v>
       </c>
       <c r="F102">
-        <v>9.7495393753051758</v>
+        <v>9.749539375305176</v>
       </c>
       <c r="G102">
-        <v>7.0631003379821777</v>
+        <v>7.063100337982178</v>
       </c>
       <c r="H102">
-        <v>-3.2312390804290771</v>
+        <v>-3.231239080429077</v>
       </c>
       <c r="I102">
-        <v>-4.0983095169067383</v>
+        <v>-4.098309516906738</v>
       </c>
       <c r="J102">
-        <v>-2.9070060253143311</v>
+        <v>-2.907006025314331</v>
       </c>
       <c r="K102">
-        <v>-7.5382509231567383</v>
+        <v>-7.538250923156738</v>
       </c>
       <c r="L102">
-        <v>-11.693173408508301</v>
+        <v>-11.6931734085083</v>
       </c>
       <c r="M102">
-        <v>-7.1706924438476563</v>
+        <v>-7.170692443847656</v>
       </c>
       <c r="N102">
         <v>-1.154793858528137</v>
@@ -5673,7 +5654,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:15">
       <c r="A103" t="s">
         <v>116</v>
       </c>
@@ -5684,7 +5665,7 @@
         <v>117.6017150878906</v>
       </c>
       <c r="D103">
-        <v>8.9263324737548828</v>
+        <v>8.926332473754883</v>
       </c>
       <c r="E103">
         <v>-12.92720890045166</v>
@@ -5693,48 +5674,48 @@
         <v>9.393977165222168</v>
       </c>
       <c r="G103">
-        <v>7.7653522491455078</v>
+        <v>7.765352249145508</v>
       </c>
       <c r="H103">
         <v>-5.485816478729248</v>
       </c>
       <c r="I103">
-        <v>-7.5085854530334473</v>
+        <v>-7.508585453033447</v>
       </c>
       <c r="J103">
-        <v>-5.5417652130126953</v>
+        <v>-5.541765213012695</v>
       </c>
       <c r="K103">
-        <v>-9.4851646423339844</v>
+        <v>-9.485164642333984</v>
       </c>
       <c r="L103">
         <v>-12.51342678070068</v>
       </c>
       <c r="M103">
-        <v>-6.4492988586425781</v>
+        <v>-6.449298858642578</v>
       </c>
       <c r="N103">
-        <v>-0.32154813408851618</v>
+        <v>-0.3215481340885162</v>
       </c>
       <c r="O103" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:15">
       <c r="A104" t="s">
         <v>117</v>
       </c>
       <c r="B104">
-        <v>-698.62322998046875</v>
+        <v>-698.6232299804688</v>
       </c>
       <c r="C104">
         <v>133.2915344238281</v>
       </c>
       <c r="D104">
-        <v>10.263811111450201</v>
+        <v>10.2638111114502</v>
       </c>
       <c r="E104">
-        <v>-16.556877136230469</v>
+        <v>-16.55687713623047</v>
       </c>
       <c r="F104">
         <v>11.19948196411133</v>
@@ -5743,31 +5724,31 @@
         <v>10.46938991546631</v>
       </c>
       <c r="H104">
-        <v>-6.1381373405456543</v>
+        <v>-6.138137340545654</v>
       </c>
       <c r="I104">
         <v>-7.821439266204834</v>
       </c>
       <c r="J104">
-        <v>-6.2908387184143066</v>
+        <v>-6.290838718414307</v>
       </c>
       <c r="K104">
-        <v>-11.370547294616699</v>
+        <v>-11.3705472946167</v>
       </c>
       <c r="L104">
         <v>-10.68507766723633</v>
       </c>
       <c r="M104">
-        <v>-2.1125857830047612</v>
+        <v>-2.112585783004761</v>
       </c>
       <c r="N104">
-        <v>0.50383305549621582</v>
+        <v>0.5038330554962158</v>
       </c>
       <c r="O104" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:15">
       <c r="A105" t="s">
         <v>118</v>
       </c>
@@ -5775,46 +5756,46 @@
         <v>-690.0948486328125</v>
       </c>
       <c r="C105">
-        <v>118.05678558349609</v>
+        <v>118.0567855834961</v>
       </c>
       <c r="D105">
-        <v>8.8230905532836914</v>
+        <v>8.823090553283691</v>
       </c>
       <c r="E105">
-        <v>-14.328866004943849</v>
+        <v>-14.32886600494385</v>
       </c>
       <c r="F105">
-        <v>9.6481847763061523</v>
+        <v>9.648184776306152</v>
       </c>
       <c r="G105">
         <v>10.24283027648926</v>
       </c>
       <c r="H105">
-        <v>-3.7852835655212398</v>
+        <v>-3.78528356552124</v>
       </c>
       <c r="I105">
-        <v>-8.6694936752319336</v>
+        <v>-8.669493675231934</v>
       </c>
       <c r="J105">
-        <v>-7.9330754280090332</v>
+        <v>-7.933075428009033</v>
       </c>
       <c r="K105">
         <v>-9.623621940612793</v>
       </c>
       <c r="L105">
-        <v>-10.730155944824221</v>
+        <v>-10.73015594482422</v>
       </c>
       <c r="M105">
-        <v>-5.7136731147766113</v>
+        <v>-5.713673114776611</v>
       </c>
       <c r="N105">
-        <v>-0.81032395362854004</v>
+        <v>-0.81032395362854</v>
       </c>
       <c r="O105" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:15">
       <c r="A106" t="s">
         <v>119</v>
       </c>
@@ -5822,187 +5803,187 @@
         <v>-675.3245849609375</v>
       </c>
       <c r="C106">
-        <v>123.81910705566411</v>
+        <v>123.8191070556641</v>
       </c>
       <c r="D106">
-        <v>18.900197982788089</v>
+        <v>18.90019798278809</v>
       </c>
       <c r="E106">
-        <v>-9.3322858810424805</v>
+        <v>-9.33228588104248</v>
       </c>
       <c r="F106">
-        <v>8.3331489562988281</v>
+        <v>8.333148956298828</v>
       </c>
       <c r="G106">
-        <v>10.481388092041019</v>
+        <v>10.48138809204102</v>
       </c>
       <c r="H106">
         <v>-0.178649827837944</v>
       </c>
       <c r="I106">
-        <v>-5.9475111961364746</v>
+        <v>-5.947511196136475</v>
       </c>
       <c r="J106">
-        <v>-7.0636711120605469</v>
+        <v>-7.063671112060547</v>
       </c>
       <c r="K106">
-        <v>-9.0355405807495117</v>
+        <v>-9.035540580749512</v>
       </c>
       <c r="L106">
-        <v>-9.9690980911254883</v>
+        <v>-9.969098091125488</v>
       </c>
       <c r="M106">
-        <v>-5.2127060890197754</v>
+        <v>-5.212706089019775</v>
       </c>
       <c r="N106">
-        <v>-0.20461440086364749</v>
+        <v>-0.2046144008636475</v>
       </c>
       <c r="O106" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:15">
       <c r="A107" t="s">
         <v>120</v>
       </c>
       <c r="B107">
-        <v>-672.03546142578125</v>
+        <v>-672.0354614257812</v>
       </c>
       <c r="C107">
-        <v>128.92790222167969</v>
+        <v>128.9279022216797</v>
       </c>
       <c r="D107">
         <v>14.90855026245117</v>
       </c>
       <c r="E107">
-        <v>-12.913228988647459</v>
+        <v>-12.91322898864746</v>
       </c>
       <c r="F107">
-        <v>8.6206369400024414</v>
+        <v>8.620636940002441</v>
       </c>
       <c r="G107">
-        <v>9.5281667709350586</v>
+        <v>9.528166770935059</v>
       </c>
       <c r="H107">
         <v>-2.853819608688354</v>
       </c>
       <c r="I107">
-        <v>-6.3747477531433114</v>
+        <v>-6.374747753143311</v>
       </c>
       <c r="J107">
-        <v>-5.7190852165222168</v>
+        <v>-5.719085216522217</v>
       </c>
       <c r="K107">
-        <v>-9.1986827850341797</v>
+        <v>-9.19868278503418</v>
       </c>
       <c r="L107">
         <v>-11.76342105865479</v>
       </c>
       <c r="M107">
-        <v>-6.1511025428771973</v>
+        <v>-6.151102542877197</v>
       </c>
       <c r="N107">
-        <v>0.38879367709159851</v>
+        <v>0.3887936770915985</v>
       </c>
       <c r="O107" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:15">
       <c r="A108" t="s">
         <v>121</v>
       </c>
       <c r="B108">
-        <v>-622.77508544921875</v>
+        <v>-622.7750854492188</v>
       </c>
       <c r="C108">
         <v>120.8256149291992</v>
       </c>
       <c r="D108">
-        <v>2.5460267066955571</v>
+        <v>2.546026706695557</v>
       </c>
       <c r="E108">
         <v>-17.92115592956543</v>
       </c>
       <c r="F108">
-        <v>9.4678812026977539</v>
+        <v>9.467881202697754</v>
       </c>
       <c r="G108">
         <v>8.060307502746582</v>
       </c>
       <c r="H108">
-        <v>-7.0406441688537598</v>
+        <v>-7.04064416885376</v>
       </c>
       <c r="I108">
-        <v>-9.6840505599975586</v>
+        <v>-9.684050559997559</v>
       </c>
       <c r="J108">
-        <v>-6.1779670715332031</v>
+        <v>-6.177967071533203</v>
       </c>
       <c r="K108">
-        <v>-8.7573232650756836</v>
+        <v>-8.757323265075684</v>
       </c>
       <c r="L108">
-        <v>-12.989171028137211</v>
+        <v>-12.98917102813721</v>
       </c>
       <c r="M108">
         <v>-6.685150146484375</v>
       </c>
       <c r="N108">
-        <v>0.14855913817882541</v>
+        <v>0.1485591381788254</v>
       </c>
       <c r="O108" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:15">
       <c r="A109" t="s">
         <v>122</v>
       </c>
       <c r="B109">
-        <v>-624.13616943359375</v>
+        <v>-624.1361694335938</v>
       </c>
       <c r="C109">
-        <v>128.92304992675781</v>
+        <v>128.9230499267578</v>
       </c>
       <c r="D109">
-        <v>4.2035531997680664</v>
+        <v>4.203553199768066</v>
       </c>
       <c r="E109">
-        <v>-19.681808471679691</v>
+        <v>-19.68180847167969</v>
       </c>
       <c r="F109">
         <v>10.51578330993652</v>
       </c>
       <c r="G109">
-        <v>11.206154823303221</v>
+        <v>11.20615482330322</v>
       </c>
       <c r="H109">
-        <v>-6.0867266654968262</v>
+        <v>-6.086726665496826</v>
       </c>
       <c r="I109">
-        <v>-10.236221313476561</v>
+        <v>-10.23622131347656</v>
       </c>
       <c r="J109">
-        <v>-6.3155364990234384</v>
+        <v>-6.315536499023438</v>
       </c>
       <c r="K109">
-        <v>-9.2304515838623047</v>
+        <v>-9.230451583862305</v>
       </c>
       <c r="L109">
         <v>-13.97322845458984</v>
       </c>
       <c r="M109">
-        <v>-7.1863489151000977</v>
+        <v>-7.186348915100098</v>
       </c>
       <c r="N109">
-        <v>3.6569993942975998E-2</v>
+        <v>0.036569993942976</v>
       </c>
       <c r="O109" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:15">
       <c r="A110" t="s">
         <v>123</v>
       </c>
@@ -6013,43 +5994,43 @@
         <v>118.089485168457</v>
       </c>
       <c r="D110">
-        <v>-0.18669769167900091</v>
+        <v>-0.1866976916790009</v>
       </c>
       <c r="E110">
-        <v>-16.258115768432621</v>
+        <v>-16.25811576843262</v>
       </c>
       <c r="F110">
-        <v>9.7146034240722656</v>
+        <v>9.714603424072266</v>
       </c>
       <c r="G110">
-        <v>6.6511802673339844</v>
+        <v>6.651180267333984</v>
       </c>
       <c r="H110">
-        <v>-5.4615564346313477</v>
+        <v>-5.461556434631348</v>
       </c>
       <c r="I110">
-        <v>-8.8885354995727539</v>
+        <v>-8.888535499572754</v>
       </c>
       <c r="J110">
-        <v>-8.0653553009033203</v>
+        <v>-8.06535530090332</v>
       </c>
       <c r="K110">
-        <v>-8.9079561233520508</v>
+        <v>-8.907956123352051</v>
       </c>
       <c r="L110">
         <v>-11.95407295227051</v>
       </c>
       <c r="M110">
-        <v>-7.1165122985839844</v>
+        <v>-7.116512298583984</v>
       </c>
       <c r="N110">
-        <v>-0.24707825481891629</v>
+        <v>-0.2470782548189163</v>
       </c>
       <c r="O110" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:15">
       <c r="A111" t="s">
         <v>124</v>
       </c>
@@ -6060,28 +6041,28 @@
         <v>107.857063293457</v>
       </c>
       <c r="D111">
-        <v>5.8935542106628418</v>
+        <v>5.893554210662842</v>
       </c>
       <c r="E111">
         <v>-15.40201568603516</v>
       </c>
       <c r="F111">
-        <v>5.3533124923706046</v>
+        <v>5.353312492370605</v>
       </c>
       <c r="G111">
-        <v>6.0048985481262207</v>
+        <v>6.004898548126221</v>
       </c>
       <c r="H111">
-        <v>-5.4119248390197754</v>
+        <v>-5.411924839019775</v>
       </c>
       <c r="I111">
-        <v>-9.8948431015014648</v>
+        <v>-9.894843101501465</v>
       </c>
       <c r="J111">
-        <v>-8.1170158386230469</v>
+        <v>-8.117015838623047</v>
       </c>
       <c r="K111">
-        <v>-8.7388391494750977</v>
+        <v>-8.738839149475098</v>
       </c>
       <c r="L111">
         <v>-11.522292137146</v>
@@ -6090,13 +6071,13 @@
         <v>-6.267730712890625</v>
       </c>
       <c r="N111">
-        <v>8.1529535353183746E-2</v>
+        <v>0.08152953535318375</v>
       </c>
       <c r="O111" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:15">
       <c r="A112" t="s">
         <v>125</v>
       </c>
@@ -6107,43 +6088,43 @@
         <v>111.7746963500977</v>
       </c>
       <c r="D112">
-        <v>3.7056314945220952</v>
+        <v>3.705631494522095</v>
       </c>
       <c r="E112">
-        <v>-16.775339126586911</v>
+        <v>-16.77533912658691</v>
       </c>
       <c r="F112">
-        <v>7.7812089920043954</v>
+        <v>7.781208992004395</v>
       </c>
       <c r="G112">
-        <v>7.7139143943786621</v>
+        <v>7.713914394378662</v>
       </c>
       <c r="H112">
-        <v>-5.7945466041564941</v>
+        <v>-5.794546604156494</v>
       </c>
       <c r="I112">
-        <v>-9.8392171859741211</v>
+        <v>-9.839217185974121</v>
       </c>
       <c r="J112">
-        <v>-7.3702173233032227</v>
+        <v>-7.370217323303223</v>
       </c>
       <c r="K112">
-        <v>-7.5610222816467294</v>
+        <v>-7.561022281646729</v>
       </c>
       <c r="L112">
         <v>-10.9529914855957</v>
       </c>
       <c r="M112">
-        <v>-8.2609424591064453</v>
+        <v>-8.260942459106445</v>
       </c>
       <c r="N112">
-        <v>-2.4692344665527339</v>
+        <v>-2.469234466552734</v>
       </c>
       <c r="O112" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:15">
       <c r="A113" t="s">
         <v>126</v>
       </c>
@@ -6151,37 +6132,37 @@
         <v>-568.057373046875</v>
       </c>
       <c r="C113">
-        <v>119.44472503662109</v>
+        <v>119.4447250366211</v>
       </c>
       <c r="D113">
-        <v>0.74994343519210815</v>
+        <v>0.7499434351921082</v>
       </c>
       <c r="E113">
         <v>-17.54670524597168</v>
       </c>
       <c r="F113">
-        <v>10.903683662414551</v>
+        <v>10.90368366241455</v>
       </c>
       <c r="G113">
-        <v>7.7548837661743164</v>
+        <v>7.754883766174316</v>
       </c>
       <c r="H113">
-        <v>-8.7259798049926758</v>
+        <v>-8.725979804992676</v>
       </c>
       <c r="I113">
         <v>-10.88920211791992</v>
       </c>
       <c r="J113">
-        <v>-6.2858576774597168</v>
+        <v>-6.285857677459717</v>
       </c>
       <c r="K113">
-        <v>-8.4509811401367188</v>
+        <v>-8.450981140136719</v>
       </c>
       <c r="L113">
         <v>-13.55330848693848</v>
       </c>
       <c r="M113">
-        <v>-7.7123880386352539</v>
+        <v>-7.712388038635254</v>
       </c>
       <c r="N113">
         <v>-0.124753899872303</v>
@@ -6190,54 +6171,54 @@
         <v>159</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:15">
       <c r="A114" t="s">
         <v>127</v>
       </c>
       <c r="B114">
-        <v>-535.14837646484375</v>
+        <v>-535.1483764648438</v>
       </c>
       <c r="C114">
-        <v>113.13083648681641</v>
+        <v>113.1308364868164</v>
       </c>
       <c r="D114">
-        <v>0.14987598359584811</v>
+        <v>0.1498759835958481</v>
       </c>
       <c r="E114">
         <v>-19.1635856628418</v>
       </c>
       <c r="F114">
-        <v>7.7848992347717294</v>
+        <v>7.784899234771729</v>
       </c>
       <c r="G114">
-        <v>6.4077644348144531</v>
+        <v>6.407764434814453</v>
       </c>
       <c r="H114">
-        <v>-9.5746841430664063</v>
+        <v>-9.574684143066406</v>
       </c>
       <c r="I114">
-        <v>-13.517331123352051</v>
+        <v>-13.51733112335205</v>
       </c>
       <c r="J114">
-        <v>-9.1133832931518555</v>
+        <v>-9.113383293151855</v>
       </c>
       <c r="K114">
         <v>-8.764073371887207</v>
       </c>
       <c r="L114">
-        <v>-12.146275520324711</v>
+        <v>-12.14627552032471</v>
       </c>
       <c r="M114">
-        <v>-7.6440324783325204</v>
+        <v>-7.64403247833252</v>
       </c>
       <c r="N114">
-        <v>-1.1738356351852419</v>
+        <v>-1.173835635185242</v>
       </c>
       <c r="O114" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:15">
       <c r="A115" t="s">
         <v>128</v>
       </c>
@@ -6245,93 +6226,93 @@
         <v>-547.42724609375</v>
       </c>
       <c r="C115">
-        <v>118.29245758056641</v>
+        <v>118.2924575805664</v>
       </c>
       <c r="D115">
         <v>1.639172315597534</v>
       </c>
       <c r="E115">
-        <v>-19.095281600952148</v>
+        <v>-19.09528160095215</v>
       </c>
       <c r="F115">
-        <v>7.1166305541992188</v>
+        <v>7.116630554199219</v>
       </c>
       <c r="G115">
-        <v>6.8153157234191886</v>
+        <v>6.815315723419189</v>
       </c>
       <c r="H115">
-        <v>-6.6286754608154297</v>
+        <v>-6.62867546081543</v>
       </c>
       <c r="I115">
         <v>-11.10263061523438</v>
       </c>
       <c r="J115">
-        <v>-9.1599626541137695</v>
+        <v>-9.15996265411377</v>
       </c>
       <c r="K115">
-        <v>-9.3309965133666992</v>
+        <v>-9.330996513366699</v>
       </c>
       <c r="L115">
-        <v>-13.133456230163571</v>
+        <v>-13.13345623016357</v>
       </c>
       <c r="M115">
-        <v>-9.2664918899536133</v>
+        <v>-9.266491889953613</v>
       </c>
       <c r="N115">
-        <v>-1.3606442213058469</v>
+        <v>-1.360644221305847</v>
       </c>
       <c r="O115" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:15">
       <c r="A116" t="s">
         <v>129</v>
       </c>
       <c r="B116">
-        <v>-679.45489501953125</v>
+        <v>-679.4548950195312</v>
       </c>
       <c r="C116">
         <v>113.2853698730469</v>
       </c>
       <c r="D116">
-        <v>19.467864990234379</v>
+        <v>19.46786499023438</v>
       </c>
       <c r="E116">
-        <v>-8.6659030914306641</v>
+        <v>-8.665903091430664</v>
       </c>
       <c r="F116">
-        <v>7.8554787635803223</v>
+        <v>7.855478763580322</v>
       </c>
       <c r="G116">
-        <v>9.4469451904296875</v>
+        <v>9.446945190429688</v>
       </c>
       <c r="H116">
-        <v>-2.1577315330505371</v>
+        <v>-2.157731533050537</v>
       </c>
       <c r="I116">
-        <v>-5.9245166778564453</v>
+        <v>-5.924516677856445</v>
       </c>
       <c r="J116">
-        <v>-6.3328862190246582</v>
+        <v>-6.332886219024658</v>
       </c>
       <c r="K116">
-        <v>-10.264780044555661</v>
+        <v>-10.26478004455566</v>
       </c>
       <c r="L116">
         <v>-12.10801982879639</v>
       </c>
       <c r="M116">
-        <v>-8.5409221649169922</v>
+        <v>-8.540922164916992</v>
       </c>
       <c r="N116">
-        <v>-4.2973031997680664</v>
+        <v>-4.297303199768066</v>
       </c>
       <c r="O116" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:15">
       <c r="A117" t="s">
         <v>130</v>
       </c>
@@ -6348,84 +6329,84 @@
         <v>-11.73721504211426</v>
       </c>
       <c r="F117">
-        <v>10.332815170288089</v>
+        <v>10.33281517028809</v>
       </c>
       <c r="G117">
-        <v>8.1927585601806641</v>
+        <v>8.192758560180664</v>
       </c>
       <c r="H117">
-        <v>-6.9532151222229004</v>
+        <v>-6.9532151222229</v>
       </c>
       <c r="I117">
-        <v>-7.3353509902954102</v>
+        <v>-7.33535099029541</v>
       </c>
       <c r="J117">
-        <v>-4.9885225296020508</v>
+        <v>-4.988522529602051</v>
       </c>
       <c r="K117">
         <v>-10.80860042572021</v>
       </c>
       <c r="L117">
-        <v>-13.715601921081539</v>
+        <v>-13.71560192108154</v>
       </c>
       <c r="M117">
-        <v>-8.6295690536499023</v>
+        <v>-8.629569053649902</v>
       </c>
       <c r="N117">
-        <v>-4.0500006675720206</v>
+        <v>-4.050000667572021</v>
       </c>
       <c r="O117" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:15">
       <c r="A118" t="s">
         <v>131</v>
       </c>
       <c r="B118">
-        <v>-686.47589111328125</v>
+        <v>-686.4758911132812</v>
       </c>
       <c r="C118">
-        <v>114.67087554931641</v>
+        <v>114.6708755493164</v>
       </c>
       <c r="D118">
-        <v>20.802541732788089</v>
+        <v>20.80254173278809</v>
       </c>
       <c r="E118">
-        <v>-6.9572057723999023</v>
+        <v>-6.957205772399902</v>
       </c>
       <c r="F118">
-        <v>8.4429035186767578</v>
+        <v>8.442903518676758</v>
       </c>
       <c r="G118">
-        <v>10.185078620910639</v>
+        <v>10.18507862091064</v>
       </c>
       <c r="H118">
-        <v>0.20723630487918851</v>
+        <v>0.2072363048791885</v>
       </c>
       <c r="I118">
-        <v>-4.9732527732849121</v>
+        <v>-4.973252773284912</v>
       </c>
       <c r="J118">
-        <v>-9.1939067840576172</v>
+        <v>-9.193906784057617</v>
       </c>
       <c r="K118">
-        <v>-13.744833946228029</v>
+        <v>-13.74483394622803</v>
       </c>
       <c r="L118">
-        <v>-11.568935394287109</v>
+        <v>-11.56893539428711</v>
       </c>
       <c r="M118">
-        <v>-4.7758517265319824</v>
+        <v>-4.775851726531982</v>
       </c>
       <c r="N118">
-        <v>-2.3854036331176758</v>
+        <v>-2.385403633117676</v>
       </c>
       <c r="O118" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:15">
       <c r="A119" t="s">
         <v>132</v>
       </c>
@@ -6433,57 +6414,57 @@
         <v>-640.2132568359375</v>
       </c>
       <c r="C119">
-        <v>114.73622894287109</v>
+        <v>114.7362289428711</v>
       </c>
       <c r="D119">
-        <v>10.121456146240231</v>
+        <v>10.12145614624023</v>
       </c>
       <c r="E119">
-        <v>-12.533308029174799</v>
+        <v>-12.5333080291748</v>
       </c>
       <c r="F119">
-        <v>8.3466291427612305</v>
+        <v>8.34662914276123</v>
       </c>
       <c r="G119">
-        <v>6.6489701271057129</v>
+        <v>6.648970127105713</v>
       </c>
       <c r="H119">
-        <v>-5.0056300163269043</v>
+        <v>-5.005630016326904</v>
       </c>
       <c r="I119">
         <v>-5.511533260345459</v>
       </c>
       <c r="J119">
-        <v>-5.7678866386413574</v>
+        <v>-5.767886638641357</v>
       </c>
       <c r="K119">
-        <v>-12.101255416870121</v>
+        <v>-12.10125541687012</v>
       </c>
       <c r="L119">
-        <v>-13.576284408569339</v>
+        <v>-13.57628440856934</v>
       </c>
       <c r="M119">
-        <v>-6.6560225486755371</v>
+        <v>-6.656022548675537</v>
       </c>
       <c r="N119">
-        <v>-2.2338278293609619</v>
+        <v>-2.233827829360962</v>
       </c>
       <c r="O119" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:15">
       <c r="A120" t="s">
         <v>133</v>
       </c>
       <c r="B120">
-        <v>-626.34649658203125</v>
+        <v>-626.3464965820312</v>
       </c>
       <c r="C120">
-        <v>111.38014221191411</v>
+        <v>111.3801422119141</v>
       </c>
       <c r="D120">
-        <v>7.5989456176757813</v>
+        <v>7.598945617675781</v>
       </c>
       <c r="E120">
         <v>-15.53870964050293</v>
@@ -6492,10 +6473,10 @@
         <v>8.723353385925293</v>
       </c>
       <c r="G120">
-        <v>9.3166027069091797</v>
+        <v>9.31660270690918</v>
       </c>
       <c r="H120">
-        <v>-4.7077698707580566</v>
+        <v>-4.707769870758057</v>
       </c>
       <c r="I120">
         <v>-6.368372917175293</v>
@@ -6513,13 +6494,13 @@
         <v>-6.085693359375</v>
       </c>
       <c r="N120">
-        <v>-2.4840283393859859</v>
+        <v>-2.484028339385986</v>
       </c>
       <c r="O120" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:15">
       <c r="A121" t="s">
         <v>134</v>
       </c>
@@ -6530,34 +6511,34 @@
         <v>110.2939834594727</v>
       </c>
       <c r="D121">
-        <v>7.5755982398986816</v>
+        <v>7.575598239898682</v>
       </c>
       <c r="E121">
         <v>-12.92796516418457</v>
       </c>
       <c r="F121">
-        <v>9.6401119232177734</v>
+        <v>9.640111923217773</v>
       </c>
       <c r="G121">
-        <v>6.8411087989807129</v>
+        <v>6.841108798980713</v>
       </c>
       <c r="H121">
-        <v>-6.9388113021850586</v>
+        <v>-6.938811302185059</v>
       </c>
       <c r="I121">
-        <v>-7.0599164962768546</v>
+        <v>-7.059916496276855</v>
       </c>
       <c r="J121">
-        <v>-4.9589786529541016</v>
+        <v>-4.958978652954102</v>
       </c>
       <c r="K121">
-        <v>-9.7658872604370117</v>
+        <v>-9.765887260437012</v>
       </c>
       <c r="L121">
-        <v>-12.387224197387701</v>
+        <v>-12.3872241973877</v>
       </c>
       <c r="M121">
-        <v>-7.3205924034118652</v>
+        <v>-7.320592403411865</v>
       </c>
       <c r="N121">
         <v>-3.203553438186646</v>
@@ -6566,12 +6547,12 @@
         <v>157</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:15">
       <c r="A122" t="s">
         <v>135</v>
       </c>
       <c r="B122">
-        <v>-607.50164794921875</v>
+        <v>-607.5016479492188</v>
       </c>
       <c r="C122">
         <v>113.5158615112305</v>
@@ -6580,40 +6561,40 @@
         <v>3.491425514221191</v>
       </c>
       <c r="E122">
-        <v>-17.023799896240231</v>
+        <v>-17.02379989624023</v>
       </c>
       <c r="F122">
-        <v>8.0963954925537109</v>
+        <v>8.096395492553711</v>
       </c>
       <c r="G122">
-        <v>7.8739967346191406</v>
+        <v>7.873996734619141</v>
       </c>
       <c r="H122">
-        <v>-5.2896637916564941</v>
+        <v>-5.289663791656494</v>
       </c>
       <c r="I122">
-        <v>-8.3663845062255859</v>
+        <v>-8.366384506225586</v>
       </c>
       <c r="J122">
-        <v>-6.8834047317504883</v>
+        <v>-6.883404731750488</v>
       </c>
       <c r="K122">
-        <v>-10.377913475036619</v>
+        <v>-10.37791347503662</v>
       </c>
       <c r="L122">
         <v>-15.11674213409424</v>
       </c>
       <c r="M122">
-        <v>-9.4522895812988281</v>
+        <v>-9.452289581298828</v>
       </c>
       <c r="N122">
-        <v>-0.30383408069610601</v>
+        <v>-0.303834080696106</v>
       </c>
       <c r="O122" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:15">
       <c r="A123" t="s">
         <v>136</v>
       </c>
@@ -6624,25 +6605,25 @@
         <v>112.784553527832</v>
       </c>
       <c r="D123">
-        <v>4.0328798294067383</v>
+        <v>4.032879829406738</v>
       </c>
       <c r="E123">
-        <v>-17.855087280273441</v>
+        <v>-17.85508728027344</v>
       </c>
       <c r="F123">
         <v>8.847198486328125</v>
       </c>
       <c r="G123">
-        <v>9.0636863708496094</v>
+        <v>9.063686370849609</v>
       </c>
       <c r="H123">
-        <v>-6.3897123336791992</v>
+        <v>-6.389712333679199</v>
       </c>
       <c r="I123">
-        <v>-9.1791467666625977</v>
+        <v>-9.179146766662598</v>
       </c>
       <c r="J123">
-        <v>-7.1656026840209961</v>
+        <v>-7.165602684020996</v>
       </c>
       <c r="K123">
         <v>-11.50309371948242</v>
@@ -6660,7 +6641,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:15">
       <c r="A124" t="s">
         <v>137</v>
       </c>
@@ -6668,37 +6649,37 @@
         <v>-554.143798828125</v>
       </c>
       <c r="C124">
-        <v>117.19500732421881</v>
+        <v>117.1950073242188</v>
       </c>
       <c r="D124">
-        <v>0.89585703611373901</v>
+        <v>0.895857036113739</v>
       </c>
       <c r="E124">
-        <v>-17.147396087646481</v>
+        <v>-17.14739608764648</v>
       </c>
       <c r="F124">
-        <v>10.538986206054689</v>
+        <v>10.53898620605469</v>
       </c>
       <c r="G124">
         <v>6.487581729888916</v>
       </c>
       <c r="H124">
-        <v>-7.5145702362060547</v>
+        <v>-7.514570236206055</v>
       </c>
       <c r="I124">
-        <v>-5.1529355049133301</v>
+        <v>-5.15293550491333</v>
       </c>
       <c r="J124">
-        <v>-0.86878573894500732</v>
+        <v>-0.8687857389450073</v>
       </c>
       <c r="K124">
-        <v>-4.2347660064697266</v>
+        <v>-4.234766006469727</v>
       </c>
       <c r="L124">
-        <v>-7.6487369537353516</v>
+        <v>-7.648736953735352</v>
       </c>
       <c r="M124">
-        <v>-4.9906516075134277</v>
+        <v>-4.990651607513428</v>
       </c>
       <c r="N124">
         <v>-1.466683149337769</v>
@@ -6707,45 +6688,45 @@
         <v>158</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:15">
       <c r="A125" t="s">
         <v>138</v>
       </c>
       <c r="B125">
-        <v>-565.05609130859375</v>
+        <v>-565.0560913085938</v>
       </c>
       <c r="C125">
         <v>120.5460586547852</v>
       </c>
       <c r="D125">
-        <v>-1.4112287759780879</v>
+        <v>-1.411228775978088</v>
       </c>
       <c r="E125">
-        <v>-16.416952133178711</v>
+        <v>-16.41695213317871</v>
       </c>
       <c r="F125">
-        <v>11.635255813598629</v>
+        <v>11.63525581359863</v>
       </c>
       <c r="G125">
-        <v>3.2226066589355469</v>
+        <v>3.222606658935547</v>
       </c>
       <c r="H125">
         <v>-10.37705135345459</v>
       </c>
       <c r="I125">
-        <v>-5.0296859741210938</v>
+        <v>-5.029685974121094</v>
       </c>
       <c r="J125">
         <v>-1.936660528182983</v>
       </c>
       <c r="K125">
-        <v>-6.9495401382446289</v>
+        <v>-6.949540138244629</v>
       </c>
       <c r="L125">
-        <v>-8.2124319076538086</v>
+        <v>-8.212431907653809</v>
       </c>
       <c r="M125">
-        <v>-4.0245041847229004</v>
+        <v>-4.0245041847229</v>
       </c>
       <c r="N125">
         <v>-2.215397834777832</v>
@@ -6754,7 +6735,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:15">
       <c r="A126" t="s">
         <v>139</v>
       </c>
@@ -6762,51 +6743,51 @@
         <v>-551.946044921875</v>
       </c>
       <c r="C126">
-        <v>120.83399963378911</v>
+        <v>120.8339996337891</v>
       </c>
       <c r="D126">
-        <v>-3.0836160182952881</v>
+        <v>-3.083616018295288</v>
       </c>
       <c r="E126">
-        <v>-15.250754356384279</v>
+        <v>-15.25075435638428</v>
       </c>
       <c r="F126">
-        <v>12.451511383056641</v>
+        <v>12.45151138305664</v>
       </c>
       <c r="G126">
-        <v>5.1620426177978516</v>
+        <v>5.162042617797852</v>
       </c>
       <c r="H126">
-        <v>-7.9900631904602051</v>
+        <v>-7.990063190460205</v>
       </c>
       <c r="I126">
-        <v>-5.6329526901245117</v>
+        <v>-5.632952690124512</v>
       </c>
       <c r="J126">
-        <v>-2.4127659797668461</v>
+        <v>-2.412765979766846</v>
       </c>
       <c r="K126">
-        <v>-7.8346333503723136</v>
+        <v>-7.834633350372314</v>
       </c>
       <c r="L126">
         <v>-11.49048328399658</v>
       </c>
       <c r="M126">
-        <v>-5.0368232727050781</v>
+        <v>-5.036823272705078</v>
       </c>
       <c r="N126">
-        <v>-1.0054864883422849</v>
+        <v>-1.005486488342285</v>
       </c>
       <c r="O126" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:15">
       <c r="A127" t="s">
         <v>140</v>
       </c>
       <c r="B127">
-        <v>-525.57220458984375</v>
+        <v>-525.5722045898438</v>
       </c>
       <c r="C127">
         <v>109.3502197265625</v>
@@ -6815,60 +6796,60 @@
         <v>2.890671968460083</v>
       </c>
       <c r="E127">
-        <v>-13.865537643432621</v>
+        <v>-13.86553764343262</v>
       </c>
       <c r="F127">
-        <v>9.2536191940307617</v>
+        <v>9.253619194030762</v>
       </c>
       <c r="G127">
-        <v>4.4160275459289551</v>
+        <v>4.416027545928955</v>
       </c>
       <c r="H127">
-        <v>-8.1303482055664063</v>
+        <v>-8.130348205566406</v>
       </c>
       <c r="I127">
-        <v>-6.2849259376525879</v>
+        <v>-6.284925937652588</v>
       </c>
       <c r="J127">
-        <v>-2.2406609058380131</v>
+        <v>-2.240660905838013</v>
       </c>
       <c r="K127">
-        <v>-5.7739486694335938</v>
+        <v>-5.773948669433594</v>
       </c>
       <c r="L127">
         <v>-10.27670288085938</v>
       </c>
       <c r="M127">
-        <v>-7.3763980865478516</v>
+        <v>-7.376398086547852</v>
       </c>
       <c r="N127">
-        <v>-3.2085919380187988</v>
+        <v>-3.208591938018799</v>
       </c>
       <c r="O127" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:15">
       <c r="A128" t="s">
         <v>141</v>
       </c>
       <c r="B128">
-        <v>-471.77639770507813</v>
+        <v>-471.7763977050781</v>
       </c>
       <c r="C128">
-        <v>123.03806304931641</v>
+        <v>123.0380630493164</v>
       </c>
       <c r="D128">
-        <v>-1.2290216684341431</v>
+        <v>-1.229021668434143</v>
       </c>
       <c r="E128">
-        <v>-23.177946090698239</v>
+        <v>-23.17794609069824</v>
       </c>
       <c r="F128">
         <v>7.11456298828125</v>
       </c>
       <c r="G128">
-        <v>6.0844707489013672</v>
+        <v>6.084470748901367</v>
       </c>
       <c r="H128">
         <v>-9.598388671875</v>
@@ -6877,13 +6858,13 @@
         <v>-9.430567741394043</v>
       </c>
       <c r="J128">
-        <v>-4.8343448638916016</v>
+        <v>-4.834344863891602</v>
       </c>
       <c r="K128">
         <v>-8.881962776184082</v>
       </c>
       <c r="L128">
-        <v>-11.970333099365231</v>
+        <v>-11.97033309936523</v>
       </c>
       <c r="M128">
         <v>-5.234220027923584</v>
@@ -6895,18 +6876,18 @@
         <v>158</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:15">
       <c r="A129" t="s">
         <v>142</v>
       </c>
       <c r="B129">
-        <v>-490.22088623046881</v>
+        <v>-490.2208862304688</v>
       </c>
       <c r="C129">
         <v>158.1023254394531</v>
       </c>
       <c r="D129">
-        <v>-11.119321823120121</v>
+        <v>-11.11932182312012</v>
       </c>
       <c r="E129">
         <v>-30.39982795715332</v>
@@ -6915,81 +6896,81 @@
         <v>10.02347373962402</v>
       </c>
       <c r="G129">
-        <v>6.7641501426696777</v>
+        <v>6.764150142669678</v>
       </c>
       <c r="H129">
-        <v>-8.7478408813476563</v>
+        <v>-8.747840881347656</v>
       </c>
       <c r="I129">
         <v>-10.80605411529541</v>
       </c>
       <c r="J129">
-        <v>-8.7549524307250977</v>
+        <v>-8.754952430725098</v>
       </c>
       <c r="K129">
         <v>-10.44139957427979</v>
       </c>
       <c r="L129">
-        <v>-13.699563026428221</v>
+        <v>-13.69956302642822</v>
       </c>
       <c r="M129">
-        <v>-6.5478715896606454</v>
+        <v>-6.547871589660645</v>
       </c>
       <c r="N129">
-        <v>0.62486529350280762</v>
+        <v>0.6248652935028076</v>
       </c>
       <c r="O129" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:15">
       <c r="A130" t="s">
         <v>143</v>
       </c>
       <c r="B130">
-        <v>-479.84396362304688</v>
+        <v>-479.8439636230469</v>
       </c>
       <c r="C130">
-        <v>131.69502258300781</v>
+        <v>131.6950225830078</v>
       </c>
       <c r="D130">
-        <v>-5.6484813690185547</v>
+        <v>-5.648481369018555</v>
       </c>
       <c r="E130">
-        <v>-26.496156692504879</v>
+        <v>-26.49615669250488</v>
       </c>
       <c r="F130">
-        <v>4.4597501754760742</v>
+        <v>4.459750175476074</v>
       </c>
       <c r="G130">
-        <v>6.0040793418884277</v>
+        <v>6.004079341888428</v>
       </c>
       <c r="H130">
-        <v>-6.5872921943664551</v>
+        <v>-6.587292194366455</v>
       </c>
       <c r="I130">
-        <v>-10.329668045043951</v>
+        <v>-10.32966804504395</v>
       </c>
       <c r="J130">
-        <v>-8.7923574447631836</v>
+        <v>-8.792357444763184</v>
       </c>
       <c r="K130">
-        <v>-12.435615539550779</v>
+        <v>-12.43561553955078</v>
       </c>
       <c r="L130">
-        <v>-14.330525398254389</v>
+        <v>-14.33052539825439</v>
       </c>
       <c r="M130">
         <v>-5.24005126953125</v>
       </c>
       <c r="N130">
-        <v>-4.3577663600444787E-2</v>
+        <v>-0.04357766360044479</v>
       </c>
       <c r="O130" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:15">
       <c r="A131" t="s">
         <v>144</v>
       </c>
@@ -7003,134 +6984,134 @@
         <v>-3.38495922088623</v>
       </c>
       <c r="E131">
-        <v>-28.242547988891602</v>
+        <v>-28.2425479888916</v>
       </c>
       <c r="F131">
-        <v>5.1866960525512704</v>
+        <v>5.18669605255127</v>
       </c>
       <c r="G131">
-        <v>7.9725217819213867</v>
+        <v>7.972521781921387</v>
       </c>
       <c r="H131">
-        <v>-9.5120029449462891</v>
+        <v>-9.512002944946289</v>
       </c>
       <c r="I131">
         <v>-13.43022441864014</v>
       </c>
       <c r="J131">
-        <v>-6.7330551147460938</v>
+        <v>-6.733055114746094</v>
       </c>
       <c r="K131">
-        <v>-9.4717540740966797</v>
+        <v>-9.47175407409668</v>
       </c>
       <c r="L131">
         <v>-14.28883647918701</v>
       </c>
       <c r="M131">
-        <v>-5.0078287124633789</v>
+        <v>-5.007828712463379</v>
       </c>
       <c r="N131">
-        <v>2.1441071033477779</v>
+        <v>2.144107103347778</v>
       </c>
       <c r="O131" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:15">
       <c r="A132" t="s">
         <v>145</v>
       </c>
       <c r="B132">
-        <v>-631.59124755859375</v>
+        <v>-631.5912475585938</v>
       </c>
       <c r="C132">
         <v>116.0398483276367</v>
       </c>
       <c r="D132">
-        <v>5.3394618034362793</v>
+        <v>5.339461803436279</v>
       </c>
       <c r="E132">
-        <v>-16.357425689697269</v>
+        <v>-16.35742568969727</v>
       </c>
       <c r="F132">
-        <v>9.6614284515380859</v>
+        <v>9.661428451538086</v>
       </c>
       <c r="G132">
-        <v>8.0065402984619141</v>
+        <v>8.006540298461914</v>
       </c>
       <c r="H132">
-        <v>-7.8753461837768546</v>
+        <v>-7.875346183776855</v>
       </c>
       <c r="I132">
-        <v>-9.3460817337036133</v>
+        <v>-9.346081733703613</v>
       </c>
       <c r="J132">
-        <v>-5.4191155433654794</v>
+        <v>-5.419115543365479</v>
       </c>
       <c r="K132">
-        <v>-8.0881538391113281</v>
+        <v>-8.088153839111328</v>
       </c>
       <c r="L132">
         <v>-11.26127910614014</v>
       </c>
       <c r="M132">
-        <v>-6.9670310020446777</v>
+        <v>-6.967031002044678</v>
       </c>
       <c r="N132">
-        <v>-2.2904152870178218</v>
+        <v>-2.290415287017822</v>
       </c>
       <c r="O132" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:15">
       <c r="A133" t="s">
         <v>146</v>
       </c>
       <c r="B133">
-        <v>-655.42816162109375</v>
+        <v>-655.4281616210938</v>
       </c>
       <c r="C133">
-        <v>117.13779449462891</v>
+        <v>117.1377944946289</v>
       </c>
       <c r="D133">
-        <v>4.4553451538085938</v>
+        <v>4.455345153808594</v>
       </c>
       <c r="E133">
-        <v>-16.846195220947269</v>
+        <v>-16.84619522094727</v>
       </c>
       <c r="F133">
         <v>10.05861663818359</v>
       </c>
       <c r="G133">
-        <v>8.0467348098754883</v>
+        <v>8.046734809875488</v>
       </c>
       <c r="H133">
-        <v>-7.8380403518676758</v>
+        <v>-7.838040351867676</v>
       </c>
       <c r="I133">
-        <v>-8.3412656784057617</v>
+        <v>-8.341265678405762</v>
       </c>
       <c r="J133">
-        <v>-4.5797123908996582</v>
+        <v>-4.579712390899658</v>
       </c>
       <c r="K133">
-        <v>-9.1000499725341797</v>
+        <v>-9.10004997253418</v>
       </c>
       <c r="L133">
         <v>-13.26296806335449</v>
       </c>
       <c r="M133">
-        <v>-7.5261788368225098</v>
+        <v>-7.52617883682251</v>
       </c>
       <c r="N133">
-        <v>-0.92084938287734985</v>
+        <v>-0.9208493828773499</v>
       </c>
       <c r="O133" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:15">
       <c r="A134" t="s">
         <v>147</v>
       </c>
@@ -7144,31 +7125,31 @@
         <v>9.167510986328125</v>
       </c>
       <c r="E134">
-        <v>-14.931845664978029</v>
+        <v>-14.93184566497803</v>
       </c>
       <c r="F134">
-        <v>7.8054804801940918</v>
+        <v>7.805480480194092</v>
       </c>
       <c r="G134">
-        <v>9.5336341857910156</v>
+        <v>9.533634185791016</v>
       </c>
       <c r="H134">
-        <v>-4.2033920288085938</v>
+        <v>-4.203392028808594</v>
       </c>
       <c r="I134">
-        <v>-8.8496084213256836</v>
+        <v>-8.849608421325684</v>
       </c>
       <c r="J134">
-        <v>-5.9975647926330566</v>
+        <v>-5.997564792633057</v>
       </c>
       <c r="K134">
-        <v>-6.4382228851318359</v>
+        <v>-6.438222885131836</v>
       </c>
       <c r="L134">
-        <v>-10.430360794067379</v>
+        <v>-10.43036079406738</v>
       </c>
       <c r="M134">
-        <v>-8.8547124862670898</v>
+        <v>-8.85471248626709</v>
       </c>
       <c r="N134">
         <v>-2.990902185440063</v>
@@ -7177,7 +7158,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:15">
       <c r="A135" t="s">
         <v>148</v>
       </c>
@@ -7188,43 +7169,43 @@
         <v>116.2255325317383</v>
       </c>
       <c r="D135">
-        <v>8.2683935165405273</v>
+        <v>8.268393516540527</v>
       </c>
       <c r="E135">
-        <v>-16.274875640869141</v>
+        <v>-16.27487564086914</v>
       </c>
       <c r="F135">
-        <v>8.9394397735595703</v>
+        <v>8.93943977355957</v>
       </c>
       <c r="G135">
         <v>10.0687198638916</v>
       </c>
       <c r="H135">
-        <v>-5.5808515548706046</v>
+        <v>-5.580851554870605</v>
       </c>
       <c r="I135">
-        <v>-9.8358297348022461</v>
+        <v>-9.835829734802246</v>
       </c>
       <c r="J135">
-        <v>-8.1645269393920898</v>
+        <v>-8.16452693939209</v>
       </c>
       <c r="K135">
         <v>-11.17806911468506</v>
       </c>
       <c r="L135">
-        <v>-13.460856437683111</v>
+        <v>-13.46085643768311</v>
       </c>
       <c r="M135">
-        <v>-7.6693992614746094</v>
+        <v>-7.669399261474609</v>
       </c>
       <c r="N135">
-        <v>-1.0036472082138059</v>
+        <v>-1.003647208213806</v>
       </c>
       <c r="O135" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:15">
       <c r="A136" t="s">
         <v>149</v>
       </c>
@@ -7235,43 +7216,43 @@
         <v>112.1175003051758</v>
       </c>
       <c r="D136">
-        <v>5.6935386657714844</v>
+        <v>5.693538665771484</v>
       </c>
       <c r="E136">
-        <v>-19.635116577148441</v>
+        <v>-19.63511657714844</v>
       </c>
       <c r="F136">
-        <v>6.2765207290649414</v>
+        <v>6.276520729064941</v>
       </c>
       <c r="G136">
-        <v>9.4663934707641602</v>
+        <v>9.46639347076416</v>
       </c>
       <c r="H136">
         <v>-6.396644115447998</v>
       </c>
       <c r="I136">
-        <v>-10.444491386413571</v>
+        <v>-10.44449138641357</v>
       </c>
       <c r="J136">
-        <v>-5.5467343330383301</v>
+        <v>-5.54673433303833</v>
       </c>
       <c r="K136">
-        <v>-7.6995439529418954</v>
+        <v>-7.699543952941895</v>
       </c>
       <c r="L136">
-        <v>-13.761167526245121</v>
+        <v>-13.76116752624512</v>
       </c>
       <c r="M136">
-        <v>-10.483991622924799</v>
+        <v>-10.4839916229248</v>
       </c>
       <c r="N136">
-        <v>-2.8007528781890869</v>
+        <v>-2.800752878189087</v>
       </c>
       <c r="O136" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:15">
       <c r="A137" t="s">
         <v>150</v>
       </c>
@@ -7282,43 +7263,43 @@
         <v>122.8736953735352</v>
       </c>
       <c r="D137">
-        <v>5.7119350433349609</v>
+        <v>5.711935043334961</v>
       </c>
       <c r="E137">
         <v>-21.56381797790527</v>
       </c>
       <c r="F137">
-        <v>6.6841092109680176</v>
+        <v>6.684109210968018</v>
       </c>
       <c r="G137">
         <v>10.62635326385498</v>
       </c>
       <c r="H137">
-        <v>-4.3340249061584473</v>
+        <v>-4.334024906158447</v>
       </c>
       <c r="I137">
-        <v>-8.7080364227294922</v>
+        <v>-8.708036422729492</v>
       </c>
       <c r="J137">
-        <v>-7.0933380126953116</v>
+        <v>-7.093338012695312</v>
       </c>
       <c r="K137">
-        <v>-10.695436477661129</v>
+        <v>-10.69543647766113</v>
       </c>
       <c r="L137">
         <v>-14.70582485198975</v>
       </c>
       <c r="M137">
-        <v>-10.081851005554199</v>
+        <v>-10.0818510055542</v>
       </c>
       <c r="N137">
-        <v>-2.6552443504333501</v>
+        <v>-2.65524435043335</v>
       </c>
       <c r="O137" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:15">
       <c r="A138" t="s">
         <v>151</v>
       </c>
@@ -7329,25 +7310,25 @@
         <v>113.3044891357422</v>
       </c>
       <c r="D138">
-        <v>2.1279630661010742</v>
+        <v>2.127963066101074</v>
       </c>
       <c r="E138">
-        <v>-20.082736968994141</v>
+        <v>-20.08273696899414</v>
       </c>
       <c r="F138">
         <v>7.964970588684082</v>
       </c>
       <c r="G138">
-        <v>11.428128242492679</v>
+        <v>11.42812824249268</v>
       </c>
       <c r="H138">
         <v>-3.228728055953979</v>
       </c>
       <c r="I138">
-        <v>-8.8304977416992188</v>
+        <v>-8.830497741699219</v>
       </c>
       <c r="J138">
-        <v>-8.0344085693359375</v>
+        <v>-8.034408569335938</v>
       </c>
       <c r="K138">
         <v>-11.10106182098389</v>
@@ -7356,7 +7337,7 @@
         <v>-13.07141590118408</v>
       </c>
       <c r="M138">
-        <v>-6.6829166412353516</v>
+        <v>-6.682916641235352</v>
       </c>
       <c r="N138">
         <v>-1.20299768447876</v>
@@ -7365,27 +7346,27 @@
         <v>154</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:15">
       <c r="A139" t="s">
         <v>152</v>
       </c>
       <c r="B139">
-        <v>-535.53863525390625</v>
+        <v>-535.5386352539062</v>
       </c>
       <c r="C139">
         <v>118.2896194458008</v>
       </c>
       <c r="D139">
-        <v>-1.6570001840591431</v>
+        <v>-1.657000184059143</v>
       </c>
       <c r="E139">
-        <v>-21.924037933349609</v>
+        <v>-21.92403793334961</v>
       </c>
       <c r="F139">
-        <v>8.9684276580810547</v>
+        <v>8.968427658081055</v>
       </c>
       <c r="G139">
-        <v>10.985110282897949</v>
+        <v>10.98511028289795</v>
       </c>
       <c r="H139">
         <v>-4.779883861541748</v>
@@ -7394,19 +7375,19 @@
         <v>-10.1378927230835</v>
       </c>
       <c r="J139">
-        <v>-9.5014362335205078</v>
+        <v>-9.501436233520508</v>
       </c>
       <c r="K139">
-        <v>-13.364284515380859</v>
+        <v>-13.36428451538086</v>
       </c>
       <c r="L139">
-        <v>-15.233036041259769</v>
+        <v>-15.23303604125977</v>
       </c>
       <c r="M139">
-        <v>-6.5448803901672363</v>
+        <v>-6.544880390167236</v>
       </c>
       <c r="N139">
-        <v>0.29658174514770508</v>
+        <v>0.2965817451477051</v>
       </c>
       <c r="O139" t="s">
         <v>154</v>
